--- a/stocksPercentage.xlsx
+++ b/stocksPercentage.xlsx
@@ -497,31 +497,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.52</v>
+        <v>0.7</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.34</v>
+        <v>0.38</v>
       </c>
       <c r="D2" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.84</v>
+        <v>-6.71</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.35</v>
+        <v>-1.99</v>
       </c>
       <c r="G2" t="n">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>7.31</v>
+        <v>8.5</v>
       </c>
       <c r="I2" t="n">
-        <v>9.039999999999999</v>
+        <v>9.82</v>
       </c>
       <c r="J2" t="n">
-        <v>26.82</v>
+        <v>28.14</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -536,31 +536,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.47</v>
+        <v>-0.71</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.82</v>
+        <v>-1.41</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.37</v>
+        <v>-4.12</v>
       </c>
       <c r="G3" t="n">
-        <v>-4.32</v>
+        <v>-3.66</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.65</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>-13.97</v>
       </c>
       <c r="J3" t="n">
-        <v>-31.88</v>
+        <v>-32.06</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -578,28 +578,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.91</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.83</v>
+        <v>-0.45</v>
       </c>
       <c r="E4" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.01</v>
+        <v>0.28</v>
       </c>
       <c r="G4" t="n">
-        <v>0.45</v>
+        <v>1.19</v>
       </c>
       <c r="H4" t="n">
-        <v>1.09</v>
+        <v>1.83</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.1</v>
+        <v>-4.46</v>
       </c>
       <c r="J4" t="n">
-        <v>-9.289999999999999</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -614,31 +614,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.93</v>
+        <v>0.7</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.64</v>
+        <v>-0.71</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.61</v>
+        <v>-2.13</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.61</v>
+        <v>-1.07</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.13</v>
+        <v>-0.37</v>
       </c>
       <c r="H5" t="n">
-        <v>3.44</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
-        <v>33.16</v>
+        <v>32.78</v>
       </c>
       <c r="J5" t="n">
-        <v>23.73</v>
+        <v>21.98</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -653,31 +653,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9399999999999999</v>
+        <v>-1.23</v>
       </c>
       <c r="C6" t="n">
-        <v>1.72</v>
+        <v>-0.14</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.49</v>
+        <v>-1.39</v>
       </c>
       <c r="E6" t="n">
-        <v>3.66</v>
+        <v>2.14</v>
       </c>
       <c r="F6" t="n">
-        <v>5.41</v>
+        <v>4.71</v>
       </c>
       <c r="G6" t="n">
-        <v>4.71</v>
+        <v>5.71</v>
       </c>
       <c r="H6" t="n">
-        <v>13.08</v>
+        <v>11.38</v>
       </c>
       <c r="I6" t="n">
-        <v>52.79</v>
+        <v>51.05</v>
       </c>
       <c r="J6" t="n">
-        <v>58.41</v>
+        <v>55.01</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -692,31 +692,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>-2.92</v>
       </c>
       <c r="C7" t="n">
-        <v>1.25</v>
+        <v>-2.92</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.03</v>
+        <v>-4.9</v>
       </c>
       <c r="E7" t="n">
-        <v>0.71</v>
+        <v>-1.34</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.25</v>
+        <v>-5.33</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.35</v>
+        <v>-4.54</v>
       </c>
       <c r="H7" t="n">
-        <v>0.86</v>
+        <v>-1.62</v>
       </c>
       <c r="I7" t="n">
-        <v>41.55</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>14.47</v>
+        <v>10.64</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -731,31 +731,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.43</v>
+        <v>-1.44</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.25</v>
+        <v>-3.18</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.82</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.26</v>
+        <v>-2.44</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.36</v>
+        <v>-2.61</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.9</v>
+        <v>-12.23</v>
       </c>
       <c r="H8" t="n">
-        <v>-12.12</v>
+        <v>-13.8</v>
       </c>
       <c r="I8" t="n">
-        <v>7.35</v>
+        <v>6.12</v>
       </c>
       <c r="J8" t="n">
-        <v>-37.42</v>
+        <v>-38.5</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -770,31 +770,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1.75</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-4.06</v>
+        <v>-2.99</v>
       </c>
       <c r="D9" t="n">
-        <v>2.24</v>
+        <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-12.1</v>
+        <v>-14.14</v>
       </c>
       <c r="F9" t="n">
-        <v>-12.1</v>
+        <v>-10.98</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.8</v>
+        <v>-7.04</v>
       </c>
       <c r="H9" t="n">
-        <v>0.62</v>
+        <v>-0.67</v>
       </c>
       <c r="I9" t="n">
-        <v>40.44</v>
+        <v>40.07</v>
       </c>
       <c r="J9" t="n">
-        <v>-30.77</v>
+        <v>-30.81</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -809,31 +809,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.59</v>
+        <v>-1.15</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.84</v>
+        <v>-4.51</v>
       </c>
       <c r="D10" t="n">
-        <v>2.52</v>
+        <v>1.57</v>
       </c>
       <c r="E10" t="n">
-        <v>-13.52</v>
+        <v>-16.45</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.54</v>
+        <v>-11.16</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.39</v>
+        <v>-4.05</v>
       </c>
       <c r="H10" t="n">
-        <v>-5.81</v>
+        <v>-7.41</v>
       </c>
       <c r="I10" t="n">
-        <v>40.35</v>
+        <v>38.16</v>
       </c>
       <c r="J10" t="n">
-        <v>-46.95</v>
+        <v>-47.45</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -848,31 +848,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-3.9</v>
+        <v>0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.33</v>
+        <v>-0.26</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.98</v>
+        <v>-8.09</v>
       </c>
       <c r="E11" t="n">
-        <v>-35.13</v>
+        <v>-34.57</v>
       </c>
       <c r="F11" t="n">
-        <v>-31.85</v>
+        <v>-28.49</v>
       </c>
       <c r="G11" t="n">
-        <v>-44.51</v>
+        <v>-43.08</v>
       </c>
       <c r="H11" t="n">
-        <v>-72.42</v>
+        <v>-74.87</v>
       </c>
       <c r="I11" t="n">
-        <v>-80.69</v>
+        <v>-80.47</v>
       </c>
       <c r="J11" t="n">
-        <v>-95.12</v>
+        <v>-95.09</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -887,31 +887,31 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.4</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.56</v>
+        <v>-1.58</v>
       </c>
       <c r="D12" t="n">
-        <v>-4.36</v>
+        <v>-2.84</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.29</v>
+        <v>-5.41</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.59</v>
+        <v>-6.13</v>
       </c>
       <c r="G12" t="n">
-        <v>-19.75</v>
+        <v>-18.71</v>
       </c>
       <c r="H12" t="n">
-        <v>-24.36</v>
+        <v>-24.37</v>
       </c>
       <c r="I12" t="n">
-        <v>7.31</v>
+        <v>7.11</v>
       </c>
       <c r="J12" t="n">
-        <v>10.08</v>
+        <v>10.92</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -926,31 +926,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.83</v>
+        <v>-0.51</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.12</v>
+        <v>-1.3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.62</v>
+        <v>-0.51</v>
       </c>
       <c r="E13" t="n">
-        <v>5.22</v>
+        <v>3.82</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.87</v>
+        <v>0.28</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.7</v>
+        <v>-4</v>
       </c>
       <c r="H13" t="n">
-        <v>-11.28</v>
+        <v>-12.79</v>
       </c>
       <c r="I13" t="n">
-        <v>38.51</v>
+        <v>37.57</v>
       </c>
       <c r="J13" t="n">
-        <v>11.79</v>
+        <v>11.55</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -965,31 +965,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.74</v>
+        <v>-1.97</v>
       </c>
       <c r="C14" t="n">
-        <v>1.35</v>
+        <v>-4.24</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.36</v>
+        <v>-12.82</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.28</v>
+        <v>-15.25</v>
       </c>
       <c r="F14" t="n">
-        <v>-21.64</v>
+        <v>-24.33</v>
       </c>
       <c r="G14" t="n">
-        <v>-42.46</v>
+        <v>-43.28</v>
       </c>
       <c r="H14" t="n">
-        <v>-59.12</v>
+        <v>-60.53</v>
       </c>
       <c r="I14" t="n">
-        <v>-29.8</v>
+        <v>-31.84</v>
       </c>
       <c r="J14" t="n">
-        <v>30.44</v>
+        <v>27.19</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1004,31 +1004,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
       <c r="C15" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="D15" t="n">
-        <v>4.51</v>
+        <v>5.03</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.39</v>
+        <v>-2.29</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.3</v>
+        <v>-0.28</v>
       </c>
       <c r="G15" t="n">
-        <v>7.89</v>
+        <v>7.73</v>
       </c>
       <c r="H15" t="n">
-        <v>5.89</v>
+        <v>6.42</v>
       </c>
       <c r="I15" t="n">
-        <v>28.03</v>
+        <v>28.35</v>
       </c>
       <c r="J15" t="n">
-        <v>-12.07</v>
+        <v>-12.94</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1058,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>29.79</v>
+        <v>29.01</v>
       </c>
       <c r="H16" t="n">
-        <v>20.64</v>
+        <v>20.35</v>
       </c>
       <c r="I16" t="n">
         <v>45.92</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.52</v>
+        <v>-6.18</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.18</v>
+        <v>1.23</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.05</v>
+        <v>1.59</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.03</v>
+        <v>-0.86</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.18</v>
+        <v>0.88</v>
       </c>
       <c r="F17" t="n">
-        <v>-14.48</v>
+        <v>-11.52</v>
       </c>
       <c r="G17" t="n">
-        <v>-26.55</v>
+        <v>-25.29</v>
       </c>
       <c r="H17" t="n">
-        <v>-23.27</v>
+        <v>-20.77</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.9</v>
+        <v>-5.42</v>
       </c>
       <c r="J17" t="n">
-        <v>-58</v>
+        <v>-57.46</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1121,31 +1121,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.43</v>
+        <v>0.14</v>
       </c>
       <c r="D18" t="n">
-        <v>11.21</v>
+        <v>9.84</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.4</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="G18" t="n">
-        <v>34.93</v>
+        <v>32.17</v>
       </c>
       <c r="H18" t="n">
-        <v>53.73</v>
+        <v>56.61</v>
       </c>
       <c r="I18" t="n">
-        <v>85.09999999999999</v>
+        <v>84.15000000000001</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.1</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.68</v>
+        <v>5.63</v>
       </c>
       <c r="H19" t="n">
-        <v>-16.67</v>
+        <v>-16.73</v>
       </c>
       <c r="I19" t="n">
         <v>41.14</v>
@@ -1197,31 +1197,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.12</v>
+        <v>1.29</v>
       </c>
       <c r="D20" t="n">
-        <v>-5.31</v>
+        <v>-4.08</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.7</v>
+        <v>-6.79</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.92</v>
+        <v>-9.75</v>
       </c>
       <c r="G20" t="n">
-        <v>-23.47</v>
+        <v>-22.76</v>
       </c>
       <c r="H20" t="n">
-        <v>-10.77</v>
+        <v>-9.23</v>
       </c>
       <c r="I20" t="n">
-        <v>25.77</v>
+        <v>25.99</v>
       </c>
       <c r="J20" t="n">
-        <v>-33.9</v>
+        <v>-34.06</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1236,31 +1236,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.24</v>
+        <v>0.59</v>
       </c>
       <c r="D21" t="n">
-        <v>-6.29</v>
+        <v>-4.37</v>
       </c>
       <c r="E21" t="n">
-        <v>-7.93</v>
+        <v>-8.6</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.15</v>
+        <v>-7.34</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.74</v>
+        <v>-9.93</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.51</v>
+        <v>-0.98</v>
       </c>
       <c r="I21" t="n">
-        <v>52.47</v>
+        <v>52.95</v>
       </c>
       <c r="J21" t="n">
-        <v>12.49</v>
+        <v>11.95</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1290,10 +1290,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.15</v>
+        <v>-0.92</v>
       </c>
       <c r="H22" t="n">
-        <v>-15.75</v>
+        <v>-14.63</v>
       </c>
       <c r="I22" t="n">
         <v>35.18</v>
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>2.92</v>
+        <v>1.46</v>
       </c>
       <c r="H23" t="n">
-        <v>1.14</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
         <v>-17.25</v>
@@ -1349,31 +1349,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.85</v>
+        <v>0.11</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.09</v>
+        <v>-0.32</v>
       </c>
       <c r="D24" t="n">
-        <v>2.46</v>
+        <v>3.61</v>
       </c>
       <c r="E24" t="n">
-        <v>15.22</v>
+        <v>13.69</v>
       </c>
       <c r="F24" t="n">
-        <v>6.68</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G24" t="n">
-        <v>18.55</v>
+        <v>17.5</v>
       </c>
       <c r="H24" t="n">
-        <v>7.52</v>
+        <v>7.08</v>
       </c>
       <c r="I24" t="n">
-        <v>80.33</v>
+        <v>81.34</v>
       </c>
       <c r="J24" t="n">
-        <v>173.31</v>
+        <v>181.17</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.41</v>
+        <v>-0.7</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08</v>
+        <v>-0.97</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.49</v>
+        <v>0.12</v>
       </c>
       <c r="E25" t="n">
-        <v>13.81</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>2.47</v>
+        <v>4.11</v>
       </c>
       <c r="G25" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.64</v>
+        <v>-6.42</v>
       </c>
       <c r="I25" t="n">
-        <v>34.54</v>
+        <v>33.97</v>
       </c>
       <c r="J25" t="n">
-        <v>30.68</v>
+        <v>31.83</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1427,31 +1427,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.16</v>
+        <v>0.37</v>
       </c>
       <c r="E26" t="n">
-        <v>10.56</v>
+        <v>8.09</v>
       </c>
       <c r="F26" t="n">
-        <v>2.15</v>
+        <v>3.99</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.28</v>
+        <v>0.47</v>
       </c>
       <c r="H26" t="n">
-        <v>-16.79</v>
+        <v>-17.62</v>
       </c>
       <c r="I26" t="n">
-        <v>6.69</v>
+        <v>6.74</v>
       </c>
       <c r="J26" t="n">
-        <v>9.539999999999999</v>
+        <v>10.72</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1466,31 +1466,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.77</v>
+        <v>-0.55</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.77</v>
+        <v>-2.58</v>
       </c>
       <c r="E27" t="n">
-        <v>7.47</v>
+        <v>4.85</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.1</v>
+        <v>-2.05</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.48</v>
+        <v>-4.77</v>
       </c>
       <c r="H27" t="n">
-        <v>-12.67</v>
+        <v>-13.12</v>
       </c>
       <c r="I27" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="J27" t="n">
-        <v>14.89</v>
+        <v>17.7</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1505,31 +1505,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="D28" t="n">
-        <v>3.51</v>
+        <v>4.46</v>
       </c>
       <c r="E28" t="n">
-        <v>18.92</v>
+        <v>16.38</v>
       </c>
       <c r="F28" t="n">
-        <v>9.220000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="G28" t="n">
-        <v>14.44</v>
+        <v>14.74</v>
       </c>
       <c r="H28" t="n">
-        <v>14.23</v>
+        <v>12.1</v>
       </c>
       <c r="I28" t="n">
-        <v>93.45</v>
+        <v>93.88</v>
       </c>
       <c r="J28" t="n">
-        <v>154.14</v>
+        <v>157.75</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1544,31 +1544,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.55</v>
+        <v>-1.4</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.18</v>
+        <v>-1.38</v>
       </c>
       <c r="E29" t="n">
-        <v>10.68</v>
+        <v>8</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09</v>
+        <v>2.51</v>
       </c>
       <c r="G29" t="n">
-        <v>-11.97</v>
+        <v>-11.86</v>
       </c>
       <c r="H29" t="n">
-        <v>-23.8</v>
+        <v>-23.67</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.87</v>
+        <v>-7.68</v>
       </c>
       <c r="J29" t="n">
-        <v>5.67</v>
+        <v>10.59</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1583,31 +1583,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.28</v>
+        <v>-0.85</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.33</v>
+        <v>-1.23</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.77</v>
+        <v>0.05</v>
       </c>
       <c r="E30" t="n">
-        <v>12.05</v>
+        <v>8.76</v>
       </c>
       <c r="F30" t="n">
-        <v>0.57</v>
+        <v>1.85</v>
       </c>
       <c r="G30" t="n">
-        <v>4.07</v>
+        <v>3.29</v>
       </c>
       <c r="H30" t="n">
-        <v>1.2</v>
+        <v>0.13</v>
       </c>
       <c r="I30" t="n">
-        <v>37.63</v>
+        <v>36.74</v>
       </c>
       <c r="J30" t="n">
-        <v>44.64</v>
+        <v>46.27</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1622,31 +1622,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.19</v>
+        <v>-0.71</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09</v>
+        <v>-0.58</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.93</v>
+        <v>-0.17</v>
       </c>
       <c r="E31" t="n">
-        <v>15.99</v>
+        <v>13.05</v>
       </c>
       <c r="F31" t="n">
-        <v>1.78</v>
+        <v>3.43</v>
       </c>
       <c r="G31" t="n">
-        <v>3.14</v>
+        <v>1.45</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.880000000000001</v>
+        <v>-9.49</v>
       </c>
       <c r="I31" t="n">
-        <v>9.720000000000001</v>
+        <v>9.25</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.39</v>
+        <v>-0.17</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>1.83</v>
+        <v>2.44</v>
       </c>
       <c r="D32" t="n">
-        <v>6.64</v>
+        <v>6.58</v>
       </c>
       <c r="E32" t="n">
-        <v>17.2</v>
+        <v>14.01</v>
       </c>
       <c r="F32" t="n">
-        <v>2.59</v>
+        <v>4.19</v>
       </c>
       <c r="G32" t="n">
-        <v>28.23</v>
+        <v>29.38</v>
       </c>
       <c r="H32" t="n">
-        <v>37.28</v>
+        <v>36.96</v>
       </c>
       <c r="I32" t="n">
-        <v>80.16</v>
+        <v>80.3</v>
       </c>
       <c r="J32" t="n">
-        <v>-39.75</v>
+        <v>-39.32</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1700,31 +1700,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.21</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
-        <v>2.78</v>
+        <v>4.64</v>
       </c>
       <c r="E33" t="n">
-        <v>18.82</v>
+        <v>16.86</v>
       </c>
       <c r="F33" t="n">
-        <v>5.49</v>
+        <v>7.37</v>
       </c>
       <c r="G33" t="n">
-        <v>17.68</v>
+        <v>16.58</v>
       </c>
       <c r="H33" t="n">
-        <v>11.96</v>
+        <v>10.58</v>
       </c>
       <c r="I33" t="n">
-        <v>55.44</v>
+        <v>55.66</v>
       </c>
       <c r="J33" t="n">
-        <v>75.55</v>
+        <v>76.09</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1.1</v>
+        <v>-0.5</v>
       </c>
       <c r="C34" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.21</v>
+        <v>0.15</v>
       </c>
       <c r="E34" t="n">
-        <v>12.23</v>
+        <v>9.16</v>
       </c>
       <c r="F34" t="n">
-        <v>2.36</v>
+        <v>3.88</v>
       </c>
       <c r="G34" t="n">
-        <v>10.51</v>
+        <v>10.15</v>
       </c>
       <c r="H34" t="n">
-        <v>3.04</v>
+        <v>1.84</v>
       </c>
       <c r="I34" t="n">
-        <v>30.43</v>
+        <v>29.97</v>
       </c>
       <c r="J34" t="n">
-        <v>8.94</v>
+        <v>12.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1778,31 +1778,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.88</v>
+        <v>-0.87</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0.89</v>
       </c>
       <c r="D35" t="n">
-        <v>2.94</v>
+        <v>4.99</v>
       </c>
       <c r="E35" t="n">
-        <v>21.89</v>
+        <v>18.15</v>
       </c>
       <c r="F35" t="n">
-        <v>3.4</v>
+        <v>5.47</v>
       </c>
       <c r="G35" t="n">
-        <v>6.39</v>
+        <v>5.01</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.88</v>
+        <v>-3.01</v>
       </c>
       <c r="I35" t="n">
-        <v>61.53</v>
+        <v>60.65</v>
       </c>
       <c r="J35" t="n">
-        <v>88.90000000000001</v>
+        <v>90.22</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1817,31 +1817,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.39</v>
+        <v>-1.21</v>
       </c>
       <c r="D36" t="n">
-        <v>-4.14</v>
+        <v>-2.33</v>
       </c>
       <c r="E36" t="n">
-        <v>4.71</v>
+        <v>3.52</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.72</v>
+        <v>0.14</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.92</v>
+        <v>-4.21</v>
       </c>
       <c r="H36" t="n">
-        <v>-19.5</v>
+        <v>-20.3</v>
       </c>
       <c r="I36" t="n">
-        <v>-6.07</v>
+        <v>-6.1</v>
       </c>
       <c r="J36" t="n">
-        <v>-20.25</v>
+        <v>-18.46</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1856,31 +1856,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.29</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.39</v>
+        <v>0.1</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.48</v>
+        <v>-2.64</v>
       </c>
       <c r="E37" t="n">
-        <v>5.01</v>
+        <v>3.41</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.87</v>
+        <v>1.48</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.39</v>
+        <v>-2.74</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.11</v>
+        <v>-2.37</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.73</v>
+        <v>-4.36</v>
       </c>
       <c r="J37" t="n">
-        <v>-35.12</v>
+        <v>-33.66</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1895,31 +1895,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.64</v>
+        <v>-0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>1.26</v>
+        <v>1.64</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.91</v>
+        <v>-2.66</v>
       </c>
       <c r="E38" t="n">
-        <v>10.36</v>
+        <v>7.26</v>
       </c>
       <c r="F38" t="n">
-        <v>3.48</v>
+        <v>5.36</v>
       </c>
       <c r="G38" t="n">
-        <v>8.66</v>
+        <v>7.34</v>
       </c>
       <c r="H38" t="n">
-        <v>11.02</v>
+        <v>10.54</v>
       </c>
       <c r="I38" t="n">
-        <v>4.83</v>
+        <v>4.69</v>
       </c>
       <c r="J38" t="n">
-        <v>-21.52</v>
+        <v>-19.52</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="D39" t="n">
-        <v>-4.16</v>
+        <v>-2.04</v>
       </c>
       <c r="E39" t="n">
-        <v>20.67</v>
+        <v>17.78</v>
       </c>
       <c r="F39" t="n">
-        <v>6.99</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="G39" t="n">
-        <v>5.7</v>
+        <v>3.19</v>
       </c>
       <c r="H39" t="n">
-        <v>-11.65</v>
+        <v>-12.45</v>
       </c>
       <c r="I39" t="n">
-        <v>26.65</v>
+        <v>26.85</v>
       </c>
       <c r="J39" t="n">
-        <v>10.87</v>
+        <v>13.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1973,31 +1973,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.49</v>
+        <v>-0.79</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.16</v>
+        <v>-1.64</v>
       </c>
       <c r="D40" t="n">
-        <v>-1.09</v>
+        <v>-0.98</v>
       </c>
       <c r="E40" t="n">
-        <v>12.5</v>
+        <v>10.32</v>
       </c>
       <c r="F40" t="n">
-        <v>1.11</v>
+        <v>1.43</v>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H40" t="n">
-        <v>-4.55</v>
+        <v>-5.1</v>
       </c>
       <c r="I40" t="n">
-        <v>43.85</v>
+        <v>43.06</v>
       </c>
       <c r="J40" t="n">
-        <v>49.2</v>
+        <v>50.35</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2012,31 +2012,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.89</v>
+        <v>-0.79</v>
       </c>
       <c r="C41" t="n">
-        <v>0.25</v>
+        <v>-0.55</v>
       </c>
       <c r="D41" t="n">
-        <v>-1</v>
+        <v>-0.67</v>
       </c>
       <c r="E41" t="n">
-        <v>6.79</v>
+        <v>4.2</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.88</v>
+        <v>0.43</v>
       </c>
       <c r="G41" t="n">
-        <v>0.12</v>
+        <v>0.46</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.55</v>
+        <v>-5.98</v>
       </c>
       <c r="I41" t="n">
-        <v>3.54</v>
+        <v>2.91</v>
       </c>
       <c r="J41" t="n">
-        <v>-17.83</v>
+        <v>-16.49</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.43</v>
+        <v>-0.66</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2</v>
+        <v>-2.21</v>
       </c>
       <c r="D42" t="n">
-        <v>0.37</v>
+        <v>-0.1</v>
       </c>
       <c r="E42" t="n">
-        <v>23.92</v>
+        <v>20.51</v>
       </c>
       <c r="F42" t="n">
-        <v>1.49</v>
+        <v>3.8</v>
       </c>
       <c r="G42" t="n">
-        <v>-1.89</v>
+        <v>-4.29</v>
       </c>
       <c r="H42" t="n">
-        <v>-21.44</v>
+        <v>-21.32</v>
       </c>
       <c r="I42" t="n">
-        <v>8.48</v>
+        <v>8.67</v>
       </c>
       <c r="J42" t="n">
-        <v>22.75</v>
+        <v>25.26</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2090,31 +2090,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.06</v>
+        <v>-0.36</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.23</v>
+        <v>-0.86</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.9</v>
+        <v>-2.05</v>
       </c>
       <c r="E43" t="n">
-        <v>11.91</v>
+        <v>9.77</v>
       </c>
       <c r="F43" t="n">
-        <v>3.21</v>
+        <v>5.89</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.91</v>
+        <v>-5.15</v>
       </c>
       <c r="H43" t="n">
-        <v>2.14</v>
+        <v>1.61</v>
       </c>
       <c r="I43" t="n">
-        <v>14.96</v>
+        <v>15.05</v>
       </c>
       <c r="J43" t="n">
-        <v>2.58</v>
+        <v>4.25</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2129,31 +2129,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.1</v>
+        <v>-1.58</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.51</v>
+        <v>-3.34</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.74</v>
+        <v>-7.74</v>
       </c>
       <c r="E44" t="n">
-        <v>-5.64</v>
+        <v>-8.81</v>
       </c>
       <c r="F44" t="n">
-        <v>-19.53</v>
+        <v>-19.32</v>
       </c>
       <c r="G44" t="n">
-        <v>-28.76</v>
+        <v>-29.06</v>
       </c>
       <c r="H44" t="n">
-        <v>-33.51</v>
+        <v>-34.53</v>
       </c>
       <c r="I44" t="n">
-        <v>-35.06</v>
+        <v>-36.01</v>
       </c>
       <c r="J44" t="n">
-        <v>-17.09</v>
+        <v>-16.87</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2168,31 +2168,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.78</v>
+        <v>-1.01</v>
       </c>
       <c r="C45" t="n">
-        <v>2.05</v>
+        <v>0.11</v>
       </c>
       <c r="D45" t="n">
-        <v>4.04</v>
+        <v>4.22</v>
       </c>
       <c r="E45" t="n">
-        <v>11.27</v>
+        <v>8.69</v>
       </c>
       <c r="F45" t="n">
-        <v>6.48</v>
+        <v>7.73</v>
       </c>
       <c r="G45" t="n">
-        <v>13.35</v>
+        <v>12.8</v>
       </c>
       <c r="H45" t="n">
-        <v>4.1</v>
+        <v>1.79</v>
       </c>
       <c r="I45" t="n">
-        <v>23.43</v>
+        <v>22.54</v>
       </c>
       <c r="J45" t="n">
-        <v>47.24</v>
+        <v>49.2</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1.48</v>
+        <v>-0.66</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.36</v>
+        <v>-1.27</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.65</v>
+        <v>-2.39</v>
       </c>
       <c r="E46" t="n">
-        <v>10</v>
+        <v>6.68</v>
       </c>
       <c r="F46" t="n">
-        <v>-4.52</v>
+        <v>-3.64</v>
       </c>
       <c r="G46" t="n">
-        <v>-11.36</v>
+        <v>-12.19</v>
       </c>
       <c r="H46" t="n">
-        <v>-12.13</v>
+        <v>-13.54</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.39</v>
+        <v>-3.62</v>
       </c>
       <c r="J46" t="n">
-        <v>24.02</v>
+        <v>24.99</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2246,31 +2246,31 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.75</v>
+        <v>-0.11</v>
       </c>
       <c r="D47" t="n">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="E47" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="F47" t="n">
-        <v>-10.73</v>
+        <v>-8.01</v>
       </c>
       <c r="G47" t="n">
-        <v>-13.34</v>
+        <v>-12.7</v>
       </c>
       <c r="H47" t="n">
-        <v>-16.95</v>
+        <v>-16.15</v>
       </c>
       <c r="I47" t="n">
-        <v>-24.18</v>
+        <v>-23.99</v>
       </c>
       <c r="J47" t="n">
-        <v>-27.31</v>
+        <v>-25.61</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2285,31 +2285,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1.95</v>
+        <v>-0.19</v>
       </c>
       <c r="C48" t="n">
-        <v>2.36</v>
+        <v>1.7</v>
       </c>
       <c r="D48" t="n">
-        <v>0.16</v>
+        <v>0.46</v>
       </c>
       <c r="E48" t="n">
-        <v>20.28</v>
+        <v>14.5</v>
       </c>
       <c r="F48" t="n">
-        <v>6.79</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G48" t="n">
-        <v>15.3</v>
+        <v>17.18</v>
       </c>
       <c r="H48" t="n">
-        <v>38.19</v>
+        <v>36.72</v>
       </c>
       <c r="I48" t="n">
-        <v>51.53</v>
+        <v>50.52</v>
       </c>
       <c r="J48" t="n">
-        <v>8.06</v>
+        <v>11.49</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2324,31 +2324,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.68</v>
+        <v>-1.68</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.67</v>
+        <v>-1.21</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.19</v>
+        <v>-4.77</v>
       </c>
       <c r="E49" t="n">
-        <v>8.109999999999999</v>
+        <v>3.77</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.23</v>
+        <v>-0.73</v>
       </c>
       <c r="G49" t="n">
-        <v>10.52</v>
+        <v>11.1</v>
       </c>
       <c r="H49" t="n">
-        <v>3.06</v>
+        <v>2.47</v>
       </c>
       <c r="I49" t="n">
-        <v>-26.99</v>
+        <v>-27.91</v>
       </c>
       <c r="J49" t="n">
-        <v>-15.53</v>
+        <v>-13.94</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.22</v>
+        <v>-1.76</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.73</v>
+        <v>-2.59</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.76</v>
+        <v>-9.82</v>
       </c>
       <c r="E50" t="n">
-        <v>5.32</v>
+        <v>2.11</v>
       </c>
       <c r="F50" t="n">
-        <v>-16.75</v>
+        <v>-16.41</v>
       </c>
       <c r="G50" t="n">
-        <v>-11.85</v>
+        <v>-16.1</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.39</v>
+        <v>-2.1</v>
       </c>
       <c r="I50" t="n">
-        <v>-44.99</v>
+        <v>-46.21</v>
       </c>
       <c r="J50" t="n">
-        <v>-36.65</v>
+        <v>-36.7</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2402,31 +2402,31 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.25</v>
+        <v>0.21</v>
       </c>
       <c r="D51" t="n">
-        <v>2.08</v>
+        <v>2.02</v>
       </c>
       <c r="E51" t="n">
-        <v>16.96</v>
+        <v>15.01</v>
       </c>
       <c r="F51" t="n">
-        <v>4.61</v>
+        <v>8.4</v>
       </c>
       <c r="G51" t="n">
-        <v>11.07</v>
+        <v>13.64</v>
       </c>
       <c r="H51" t="n">
-        <v>-24.81</v>
+        <v>-23.9</v>
       </c>
       <c r="I51" t="n">
-        <v>-35.71</v>
+        <v>-35.25</v>
       </c>
       <c r="J51" t="n">
-        <v>-62.24</v>
+        <v>-61.12</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2441,31 +2441,31 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1.04</v>
+        <v>0.09</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.76</v>
+        <v>0.32</v>
       </c>
       <c r="E52" t="n">
-        <v>16.81</v>
+        <v>16.16</v>
       </c>
       <c r="F52" t="n">
-        <v>1.7</v>
+        <v>3.64</v>
       </c>
       <c r="G52" t="n">
-        <v>8.56</v>
+        <v>10.05</v>
       </c>
       <c r="H52" t="n">
-        <v>6.09</v>
+        <v>6.69</v>
       </c>
       <c r="I52" t="n">
-        <v>-10.16</v>
+        <v>-10.08</v>
       </c>
       <c r="J52" t="n">
-        <v>5.11</v>
+        <v>7.63</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.5</v>
+        <v>-0.08</v>
       </c>
       <c r="C53" t="n">
-        <v>1.93</v>
+        <v>0.42</v>
       </c>
       <c r="D53" t="n">
-        <v>2.72</v>
+        <v>3.12</v>
       </c>
       <c r="E53" t="n">
-        <v>15.53</v>
+        <v>14.51</v>
       </c>
       <c r="F53" t="n">
-        <v>12.72</v>
+        <v>14.82</v>
       </c>
       <c r="G53" t="n">
-        <v>24.82</v>
+        <v>24.88</v>
       </c>
       <c r="H53" t="n">
-        <v>9.26</v>
+        <v>8.73</v>
       </c>
       <c r="I53" t="n">
-        <v>54.37</v>
+        <v>54.53</v>
       </c>
       <c r="J53" t="n">
-        <v>114.55</v>
+        <v>120.04</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2519,31 +2519,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.52</v>
+        <v>-1.61</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.77</v>
+        <v>-3.68</v>
       </c>
       <c r="D54" t="n">
-        <v>-9.84</v>
+        <v>-9.09</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.13</v>
+        <v>-14.35</v>
       </c>
       <c r="F54" t="n">
-        <v>-24.59</v>
+        <v>-23.69</v>
       </c>
       <c r="G54" t="n">
-        <v>-33</v>
+        <v>-32.94</v>
       </c>
       <c r="H54" t="n">
-        <v>-41.69</v>
+        <v>-42.19</v>
       </c>
       <c r="I54" t="n">
-        <v>-37.69</v>
+        <v>-38.76</v>
       </c>
       <c r="J54" t="n">
-        <v>-16.35</v>
+        <v>-15.6</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2558,28 +2558,28 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-4.29</v>
+        <v>-2.92</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.18</v>
+        <v>-6.9</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.68</v>
+        <v>-12.55</v>
       </c>
       <c r="F55" t="n">
-        <v>-22.92</v>
+        <v>-22.42</v>
       </c>
       <c r="G55" t="n">
-        <v>-32.22</v>
+        <v>-31.51</v>
       </c>
       <c r="H55" t="n">
-        <v>-40.99</v>
+        <v>-41.26</v>
       </c>
       <c r="I55" t="n">
-        <v>-5.28</v>
+        <v>-5.59</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -2595,31 +2595,31 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2.13</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.48</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>9.289999999999999</v>
+        <v>6.43</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.34</v>
+        <v>-4.09</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.82</v>
+        <v>-6.41</v>
       </c>
       <c r="H56" t="n">
-        <v>-5.17</v>
+        <v>-4.84</v>
       </c>
       <c r="I56" t="n">
-        <v>-19.92</v>
+        <v>-19.77</v>
       </c>
       <c r="J56" t="n">
-        <v>-5.22</v>
+        <v>-1.39</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.61</v>
+        <v>2.15</v>
       </c>
       <c r="C57" t="n">
-        <v>2.55</v>
+        <v>4.09</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.88</v>
+        <v>-3.27</v>
       </c>
       <c r="E57" t="n">
-        <v>8.48</v>
+        <v>7.87</v>
       </c>
       <c r="F57" t="n">
-        <v>-9.68</v>
+        <v>-4.37</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.28</v>
+        <v>-3.81</v>
       </c>
       <c r="H57" t="n">
-        <v>-16.39</v>
+        <v>-14.8</v>
       </c>
       <c r="I57" t="n">
-        <v>-4.72</v>
+        <v>-2.22</v>
       </c>
       <c r="J57" t="n">
-        <v>3.35</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2673,31 +2673,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.28</v>
+        <v>-0.24</v>
       </c>
       <c r="C58" t="n">
-        <v>0.38</v>
+        <v>-0.28</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.24</v>
+        <v>0.71</v>
       </c>
       <c r="E58" t="n">
-        <v>2.86</v>
+        <v>1.82</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.9</v>
+        <v>-0.98</v>
       </c>
       <c r="G58" t="n">
-        <v>-11.45</v>
+        <v>-11.14</v>
       </c>
       <c r="H58" t="n">
-        <v>-13.72</v>
+        <v>-13.25</v>
       </c>
       <c r="I58" t="n">
-        <v>-30.61</v>
+        <v>-30.54</v>
       </c>
       <c r="J58" t="n">
-        <v>-63.95</v>
+        <v>-63.29</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.09</v>
+        <v>0.26</v>
       </c>
       <c r="C59" t="n">
-        <v>0.25</v>
+        <v>0.64</v>
       </c>
       <c r="D59" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>10.75</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.17</v>
+        <v>1.84</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.48</v>
+        <v>-9.25</v>
       </c>
       <c r="H59" t="n">
-        <v>-17.92</v>
+        <v>-18.67</v>
       </c>
       <c r="I59" t="n">
-        <v>-24.01</v>
+        <v>-23.8</v>
       </c>
       <c r="J59" t="n">
-        <v>-14.39</v>
+        <v>-11.9</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2751,31 +2751,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.54</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.24</v>
+        <v>-1.65</v>
       </c>
       <c r="D60" t="n">
-        <v>-2.48</v>
+        <v>-0.71</v>
       </c>
       <c r="E60" t="n">
-        <v>1.93</v>
+        <v>-0.76</v>
       </c>
       <c r="F60" t="n">
-        <v>-5.93</v>
+        <v>-3.73</v>
       </c>
       <c r="G60" t="n">
-        <v>-1.86</v>
+        <v>-2.7</v>
       </c>
       <c r="H60" t="n">
-        <v>-31.09</v>
+        <v>-31.72</v>
       </c>
       <c r="I60" t="n">
-        <v>35.95</v>
+        <v>35.22</v>
       </c>
       <c r="J60" t="n">
-        <v>65.40000000000001</v>
+        <v>68.11</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2790,31 +2790,31 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>0.32</v>
+        <v>-0.43</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.23</v>
+        <v>-6.96</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.61</v>
+        <v>-2.68</v>
       </c>
       <c r="F61" t="n">
-        <v>-14.48</v>
+        <v>-13.1</v>
       </c>
       <c r="G61" t="n">
-        <v>-25.59</v>
+        <v>-24.63</v>
       </c>
       <c r="H61" t="n">
-        <v>-22.16</v>
+        <v>-22.25</v>
       </c>
       <c r="I61" t="n">
-        <v>-34.11</v>
+        <v>-33.99</v>
       </c>
       <c r="J61" t="n">
-        <v>-8.33</v>
+        <v>-7.75</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2829,31 +2829,31 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>2.49</v>
+        <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>5.57</v>
+        <v>6.03</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.91</v>
+        <v>2.55</v>
       </c>
       <c r="E62" t="n">
-        <v>12.62</v>
+        <v>12</v>
       </c>
       <c r="F62" t="n">
-        <v>8.33</v>
+        <v>10.95</v>
       </c>
       <c r="G62" t="n">
-        <v>33.84</v>
+        <v>34.03</v>
       </c>
       <c r="H62" t="n">
-        <v>7.86</v>
+        <v>5.98</v>
       </c>
       <c r="I62" t="n">
-        <v>-7.02</v>
+        <v>-6.84</v>
       </c>
       <c r="J62" t="n">
-        <v>-19.64</v>
+        <v>-18.25</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.84</v>
+        <v>-1.04</v>
       </c>
       <c r="C63" t="n">
-        <v>3.32</v>
+        <v>1.15</v>
       </c>
       <c r="D63" t="n">
-        <v>12.95</v>
+        <v>10.63</v>
       </c>
       <c r="E63" t="n">
-        <v>7.3</v>
+        <v>4.55</v>
       </c>
       <c r="F63" t="n">
-        <v>9.359999999999999</v>
+        <v>6.68</v>
       </c>
       <c r="G63" t="n">
-        <v>13.9</v>
+        <v>11.8</v>
       </c>
       <c r="H63" t="n">
-        <v>78.73</v>
+        <v>81.7</v>
       </c>
       <c r="I63" t="n">
-        <v>28.43</v>
+        <v>27.23</v>
       </c>
       <c r="J63" t="n">
-        <v>-12.27</v>
+        <v>-9.970000000000001</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2907,31 +2907,31 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>0.68</v>
+        <v>1.55</v>
       </c>
       <c r="D64" t="n">
-        <v>-4.52</v>
+        <v>-2.18</v>
       </c>
       <c r="E64" t="n">
-        <v>5.44</v>
+        <v>2.23</v>
       </c>
       <c r="F64" t="n">
-        <v>-7.49</v>
+        <v>-3.78</v>
       </c>
       <c r="G64" t="n">
-        <v>-13.86</v>
+        <v>-14.22</v>
       </c>
       <c r="H64" t="n">
-        <v>-21.36</v>
+        <v>-20.23</v>
       </c>
       <c r="I64" t="n">
-        <v>-29.41</v>
+        <v>-29.33</v>
       </c>
       <c r="J64" t="n">
-        <v>-30.85</v>
+        <v>-28.04</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2946,31 +2946,31 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-1.34</v>
+        <v>-0.87</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.85</v>
+        <v>-1.58</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.19</v>
+        <v>-4.75</v>
       </c>
       <c r="F65" t="n">
-        <v>-4.53</v>
+        <v>-2.94</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.71</v>
+        <v>-3.19</v>
       </c>
       <c r="H65" t="n">
-        <v>21.76</v>
+        <v>21.77</v>
       </c>
       <c r="I65" t="n">
-        <v>28.1</v>
+        <v>28.53</v>
       </c>
       <c r="J65" t="n">
-        <v>-0.31</v>
+        <v>1.84</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2985,31 +2985,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.64</v>
+        <v>-0.32</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.17</v>
+        <v>-5.2</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.1</v>
+        <v>-5.49</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.03</v>
+        <v>-13.66</v>
       </c>
       <c r="F66" t="n">
-        <v>-14.94</v>
+        <v>-14.31</v>
       </c>
       <c r="G66" t="n">
-        <v>-11.22</v>
+        <v>-7.38</v>
       </c>
       <c r="H66" t="n">
-        <v>23.59</v>
+        <v>24.95</v>
       </c>
       <c r="I66" t="n">
-        <v>-15.61</v>
+        <v>-15.59</v>
       </c>
       <c r="J66" t="n">
-        <v>-68.05</v>
+        <v>-67.5</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3024,31 +3024,31 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.62</v>
+        <v>-1.48</v>
       </c>
       <c r="D67" t="n">
-        <v>-3.66</v>
+        <v>-4.18</v>
       </c>
       <c r="E67" t="n">
-        <v>-9</v>
+        <v>-11.11</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.48</v>
+        <v>-5.74</v>
       </c>
       <c r="G67" t="n">
-        <v>-4.21</v>
+        <v>-2.49</v>
       </c>
       <c r="H67" t="n">
-        <v>18.72</v>
+        <v>18.2</v>
       </c>
       <c r="I67" t="n">
-        <v>7.41</v>
+        <v>7.65</v>
       </c>
       <c r="J67" t="n">
-        <v>-49.85</v>
+        <v>-48.4</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3063,31 +3063,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>1.06</v>
+        <v>-1.29</v>
       </c>
       <c r="C68" t="n">
-        <v>1.45</v>
+        <v>0.34</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.94</v>
+        <v>-3.8</v>
       </c>
       <c r="E68" t="n">
-        <v>2.87</v>
+        <v>0.5</v>
       </c>
       <c r="F68" t="n">
-        <v>-6.26</v>
+        <v>-6.7</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.27</v>
+        <v>-10.89</v>
       </c>
       <c r="H68" t="n">
-        <v>-9.119999999999999</v>
+        <v>-10.86</v>
       </c>
       <c r="I68" t="n">
-        <v>13.84</v>
+        <v>13.31</v>
       </c>
       <c r="J68" t="n">
-        <v>58.82</v>
+        <v>59.35</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3102,31 +3102,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.6</v>
+        <v>-0.17</v>
       </c>
       <c r="C69" t="n">
-        <v>2.01</v>
+        <v>1.68</v>
       </c>
       <c r="D69" t="n">
-        <v>2.86</v>
+        <v>1.98</v>
       </c>
       <c r="E69" t="n">
-        <v>9.289999999999999</v>
+        <v>8.17</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.66</v>
+        <v>-1.76</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.32</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.38</v>
+        <v>-3.29</v>
       </c>
       <c r="I69" t="n">
-        <v>39.21</v>
+        <v>39.57</v>
       </c>
       <c r="J69" t="n">
-        <v>81.77</v>
+        <v>86.26000000000001</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3141,28 +3141,28 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="D70" t="n">
-        <v>-1.08</v>
+        <v>-2.19</v>
       </c>
       <c r="E70" t="n">
-        <v>6.18</v>
+        <v>5.05</v>
       </c>
       <c r="F70" t="n">
-        <v>-9.68</v>
+        <v>-9.82</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.39</v>
+        <v>-8.94</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.140000000000001</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>24.21</v>
+        <v>25</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
@@ -3178,31 +3178,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1.01</v>
+        <v>0.24</v>
       </c>
       <c r="C71" t="n">
-        <v>0.57</v>
+        <v>0.25</v>
       </c>
       <c r="D71" t="n">
-        <v>-3.44</v>
+        <v>-1.42</v>
       </c>
       <c r="E71" t="n">
-        <v>12.12</v>
+        <v>10.53</v>
       </c>
       <c r="F71" t="n">
-        <v>0.51</v>
+        <v>3.52</v>
       </c>
       <c r="G71" t="n">
-        <v>13.95</v>
+        <v>11.83</v>
       </c>
       <c r="H71" t="n">
-        <v>-7.21</v>
+        <v>-5.58</v>
       </c>
       <c r="I71" t="n">
-        <v>61.07</v>
+        <v>62.92</v>
       </c>
       <c r="J71" t="n">
-        <v>174.83</v>
+        <v>185.48</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3217,31 +3217,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>-1.57</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.95</v>
+        <v>-0.88</v>
       </c>
       <c r="D72" t="n">
-        <v>-1.94</v>
+        <v>0.19</v>
       </c>
       <c r="E72" t="n">
-        <v>27.07</v>
+        <v>25.51</v>
       </c>
       <c r="F72" t="n">
-        <v>10.33</v>
+        <v>12.38</v>
       </c>
       <c r="G72" t="n">
-        <v>32.32</v>
+        <v>30.98</v>
       </c>
       <c r="H72" t="n">
-        <v>26.01</v>
+        <v>26.4</v>
       </c>
       <c r="I72" t="n">
-        <v>156.35</v>
+        <v>158.7</v>
       </c>
       <c r="J72" t="n">
-        <v>197.12</v>
+        <v>209.55</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3256,31 +3256,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>1.46</v>
+        <v>-1.18</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.49</v>
+        <v>-1.35</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.76</v>
+        <v>-3.72</v>
       </c>
       <c r="E73" t="n">
-        <v>18.91</v>
+        <v>15.32</v>
       </c>
       <c r="F73" t="n">
-        <v>3.2</v>
+        <v>4.13</v>
       </c>
       <c r="G73" t="n">
-        <v>-3.72</v>
+        <v>-6.58</v>
       </c>
       <c r="H73" t="n">
-        <v>-15.86</v>
+        <v>-13.5</v>
       </c>
       <c r="I73" t="n">
-        <v>58.76</v>
+        <v>58.69</v>
       </c>
       <c r="J73" t="n">
-        <v>74.33</v>
+        <v>79.61</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.96</v>
+        <v>-1.55</v>
       </c>
       <c r="C74" t="n">
-        <v>0.01</v>
+        <v>-1.47</v>
       </c>
       <c r="D74" t="n">
-        <v>-3.91</v>
+        <v>-5.52</v>
       </c>
       <c r="E74" t="n">
-        <v>15.7</v>
+        <v>11.37</v>
       </c>
       <c r="F74" t="n">
-        <v>0.98</v>
+        <v>0.63</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.86</v>
+        <v>-8.68</v>
       </c>
       <c r="H74" t="n">
-        <v>-18.13</v>
+        <v>-20.13</v>
       </c>
       <c r="I74" t="n">
-        <v>12.82</v>
+        <v>11.96</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
@@ -3332,31 +3332,31 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.33</v>
+        <v>-2.21</v>
       </c>
       <c r="D75" t="n">
-        <v>-3.35</v>
+        <v>-2.25</v>
       </c>
       <c r="E75" t="n">
-        <v>19.37</v>
+        <v>17.53</v>
       </c>
       <c r="F75" t="n">
-        <v>4.7</v>
+        <v>6.89</v>
       </c>
       <c r="G75" t="n">
-        <v>-11.96</v>
+        <v>-12.39</v>
       </c>
       <c r="H75" t="n">
-        <v>-15.52</v>
+        <v>-14.15</v>
       </c>
       <c r="I75" t="n">
-        <v>12.2</v>
+        <v>13.22</v>
       </c>
       <c r="J75" t="n">
-        <v>38.71</v>
+        <v>44.91</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3371,31 +3371,31 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.61</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D76" t="n">
-        <v>0.12</v>
+        <v>1.75</v>
       </c>
       <c r="E76" t="n">
-        <v>15.65</v>
+        <v>14</v>
       </c>
       <c r="F76" t="n">
-        <v>3.05</v>
+        <v>4.76</v>
       </c>
       <c r="G76" t="n">
-        <v>11.24</v>
+        <v>11.05</v>
       </c>
       <c r="H76" t="n">
-        <v>11.74</v>
+        <v>11.64</v>
       </c>
       <c r="I76" t="n">
-        <v>58.77</v>
+        <v>59.72</v>
       </c>
       <c r="J76" t="n">
-        <v>128.11</v>
+        <v>136.04</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3410,31 +3410,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.49</v>
+        <v>-0.38</v>
       </c>
       <c r="C77" t="n">
-        <v>0.99</v>
+        <v>0.79</v>
       </c>
       <c r="D77" t="n">
-        <v>-2.65</v>
+        <v>-1.76</v>
       </c>
       <c r="E77" t="n">
-        <v>11.47</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="F77" t="n">
-        <v>4.7</v>
+        <v>6.88</v>
       </c>
       <c r="G77" t="n">
-        <v>7.39</v>
+        <v>7.97</v>
       </c>
       <c r="H77" t="n">
-        <v>20.43</v>
+        <v>19.69</v>
       </c>
       <c r="I77" t="n">
-        <v>26.54</v>
+        <v>26.52</v>
       </c>
       <c r="J77" t="n">
-        <v>134.23</v>
+        <v>141.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3449,31 +3449,31 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.18</v>
+        <v>-1.89</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.58</v>
+        <v>-3.41</v>
       </c>
       <c r="E78" t="n">
-        <v>15.45</v>
+        <v>14.56</v>
       </c>
       <c r="F78" t="n">
-        <v>-10.46</v>
+        <v>-7.48</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.9</v>
+        <v>-3.57</v>
       </c>
       <c r="H78" t="n">
-        <v>-11.02</v>
+        <v>-8.74</v>
       </c>
       <c r="I78" t="n">
-        <v>28.97</v>
+        <v>31.25</v>
       </c>
       <c r="J78" t="n">
-        <v>91.88</v>
+        <v>101.88</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3488,31 +3488,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>-0.03</v>
       </c>
       <c r="C79" t="n">
-        <v>0.8</v>
+        <v>1.36</v>
       </c>
       <c r="D79" t="n">
-        <v>2.93</v>
+        <v>2.44</v>
       </c>
       <c r="E79" t="n">
-        <v>12.48</v>
+        <v>12.13</v>
       </c>
       <c r="F79" t="n">
-        <v>5.19</v>
+        <v>6.46</v>
       </c>
       <c r="G79" t="n">
-        <v>4.77</v>
+        <v>6.82</v>
       </c>
       <c r="H79" t="n">
-        <v>6.69</v>
+        <v>6.61</v>
       </c>
       <c r="I79" t="n">
-        <v>54.69</v>
+        <v>56.65</v>
       </c>
       <c r="J79" t="n">
-        <v>150.86</v>
+        <v>159.13</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3527,31 +3527,31 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>1.14</v>
+        <v>-0.27</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.36</v>
       </c>
       <c r="E80" t="n">
-        <v>23.39</v>
+        <v>22.85</v>
       </c>
       <c r="F80" t="n">
-        <v>-12.51</v>
+        <v>-10.33</v>
       </c>
       <c r="G80" t="n">
-        <v>-12.66</v>
+        <v>-15.57</v>
       </c>
       <c r="H80" t="n">
-        <v>-18.67</v>
+        <v>-17.67</v>
       </c>
       <c r="I80" t="n">
-        <v>11.74</v>
+        <v>12.23</v>
       </c>
       <c r="J80" t="n">
-        <v>119.44</v>
+        <v>127.81</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3566,31 +3566,31 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.65</v>
+        <v>-0.13</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.44</v>
+        <v>-2.13</v>
       </c>
       <c r="E81" t="n">
-        <v>9.880000000000001</v>
+        <v>10.82</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.2</v>
+        <v>-5.84</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.19</v>
+        <v>-6.51</v>
       </c>
       <c r="H81" t="n">
-        <v>-5.84</v>
+        <v>-3.87</v>
       </c>
       <c r="I81" t="n">
-        <v>24.83</v>
+        <v>26.73</v>
       </c>
       <c r="J81" t="n">
-        <v>90.37</v>
+        <v>98.58</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3605,31 +3605,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.19</v>
+        <v>-0.82</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.59</v>
+        <v>-1.62</v>
       </c>
       <c r="D82" t="n">
-        <v>0.3</v>
+        <v>-2.04</v>
       </c>
       <c r="E82" t="n">
-        <v>13.1</v>
+        <v>11.66</v>
       </c>
       <c r="F82" t="n">
-        <v>4.15</v>
+        <v>5.15</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.21</v>
+        <v>-1.5</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.31</v>
+        <v>-1.07</v>
       </c>
       <c r="I82" t="n">
-        <v>29.24</v>
+        <v>29.28</v>
       </c>
       <c r="J82" t="n">
-        <v>71.15000000000001</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3644,31 +3644,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.67</v>
+        <v>-0.24</v>
       </c>
       <c r="C83" t="n">
-        <v>1.16</v>
+        <v>0.91</v>
       </c>
       <c r="D83" t="n">
-        <v>5.54</v>
+        <v>4.2</v>
       </c>
       <c r="E83" t="n">
-        <v>13.85</v>
+        <v>13.04</v>
       </c>
       <c r="F83" t="n">
-        <v>7.83</v>
+        <v>7.8</v>
       </c>
       <c r="G83" t="n">
-        <v>10.09</v>
+        <v>11.24</v>
       </c>
       <c r="H83" t="n">
-        <v>12.47</v>
+        <v>12.02</v>
       </c>
       <c r="I83" t="n">
-        <v>45.33</v>
+        <v>45.71</v>
       </c>
       <c r="J83" t="n">
-        <v>58.64</v>
+        <v>61.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3683,31 +3683,31 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.15</v>
+        <v>-1.68</v>
       </c>
       <c r="D84" t="n">
-        <v>3.62</v>
+        <v>6.79</v>
       </c>
       <c r="E84" t="n">
-        <v>19.3</v>
+        <v>17.74</v>
       </c>
       <c r="F84" t="n">
-        <v>11.64</v>
+        <v>14.89</v>
       </c>
       <c r="G84" t="n">
-        <v>43.32</v>
+        <v>40.02</v>
       </c>
       <c r="H84" t="n">
-        <v>22.82</v>
+        <v>22.27</v>
       </c>
       <c r="I84" t="n">
-        <v>199.14</v>
+        <v>200.24</v>
       </c>
       <c r="J84" t="n">
-        <v>472.77</v>
+        <v>487.18</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3722,31 +3722,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.54</v>
+        <v>0.18</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.75</v>
+        <v>-1.35</v>
       </c>
       <c r="D85" t="n">
-        <v>6.86</v>
+        <v>11.21</v>
       </c>
       <c r="E85" t="n">
-        <v>31.22</v>
+        <v>28.62</v>
       </c>
       <c r="F85" t="n">
-        <v>16.41</v>
+        <v>21.51</v>
       </c>
       <c r="G85" t="n">
-        <v>50.53</v>
+        <v>48.2</v>
       </c>
       <c r="H85" t="n">
-        <v>35.13</v>
+        <v>32.5</v>
       </c>
       <c r="I85" t="n">
-        <v>282.06</v>
+        <v>284.2</v>
       </c>
       <c r="J85" t="n">
-        <v>807.78</v>
+        <v>828.87</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3761,31 +3761,31 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.92</v>
+        <v>-2.32</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.33</v>
+        <v>2.32</v>
       </c>
       <c r="E86" t="n">
-        <v>24.47</v>
+        <v>22.3</v>
       </c>
       <c r="F86" t="n">
-        <v>4.46</v>
+        <v>9.1</v>
       </c>
       <c r="G86" t="n">
-        <v>17.63</v>
+        <v>14.59</v>
       </c>
       <c r="H86" t="n">
-        <v>-1.51</v>
+        <v>1.34</v>
       </c>
       <c r="I86" t="n">
-        <v>72.97</v>
+        <v>74.48999999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>232.75</v>
+        <v>247.93</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>1.34</v>
+        <v>-0.74</v>
       </c>
       <c r="C88" t="n">
-        <v>0.97</v>
+        <v>0.05</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.61</v>
+        <v>-2.85</v>
       </c>
       <c r="E88" t="n">
-        <v>9.470000000000001</v>
+        <v>6.95</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.38</v>
+        <v>-1.57</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.23</v>
+        <v>-2.33</v>
       </c>
       <c r="H88" t="n">
-        <v>-2.85</v>
+        <v>-3.56</v>
       </c>
       <c r="I88" t="n">
-        <v>55.69</v>
+        <v>55.04</v>
       </c>
       <c r="J88" t="n">
-        <v>89.17</v>
+        <v>92.89</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3876,31 +3876,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.7</v>
+        <v>-1.25</v>
       </c>
       <c r="C89" t="n">
-        <v>0.91</v>
+        <v>-1.26</v>
       </c>
       <c r="D89" t="n">
-        <v>-3.76</v>
+        <v>-3.79</v>
       </c>
       <c r="E89" t="n">
-        <v>15.95</v>
+        <v>12.61</v>
       </c>
       <c r="F89" t="n">
-        <v>8.050000000000001</v>
+        <v>10.28</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.01</v>
+        <v>-2.41</v>
       </c>
       <c r="H89" t="n">
-        <v>31.97</v>
+        <v>29.15</v>
       </c>
       <c r="I89" t="n">
-        <v>88.73</v>
+        <v>87.05</v>
       </c>
       <c r="J89" t="n">
-        <v>44.35</v>
+        <v>47.85</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3915,31 +3915,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.22</v>
+        <v>-3.07</v>
       </c>
       <c r="C90" t="n">
-        <v>2.74</v>
+        <v>-0.78</v>
       </c>
       <c r="D90" t="n">
-        <v>-7</v>
+        <v>-7.92</v>
       </c>
       <c r="E90" t="n">
-        <v>2.59</v>
+        <v>-0.42</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.6</v>
+        <v>-3.89</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.92</v>
+        <v>-11.29</v>
       </c>
       <c r="H90" t="n">
-        <v>-5.54</v>
+        <v>-8.130000000000001</v>
       </c>
       <c r="I90" t="n">
-        <v>27.78</v>
+        <v>24.68</v>
       </c>
       <c r="J90" t="n">
-        <v>22.82</v>
+        <v>20.77</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3954,31 +3954,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>2.68</v>
+        <v>-2.86</v>
       </c>
       <c r="C91" t="n">
-        <v>2.23</v>
+        <v>-2.75</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.07</v>
+        <v>-8.15</v>
       </c>
       <c r="E91" t="n">
-        <v>8.890000000000001</v>
+        <v>6.39</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.72</v>
+        <v>-2.11</v>
       </c>
       <c r="G91" t="n">
-        <v>-15.57</v>
+        <v>-15.63</v>
       </c>
       <c r="H91" t="n">
-        <v>-21.99</v>
+        <v>-23.19</v>
       </c>
       <c r="I91" t="n">
-        <v>-2.98</v>
+        <v>-5.25</v>
       </c>
       <c r="J91" t="n">
-        <v>-27.8</v>
+        <v>-29.19</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3993,31 +3993,31 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.26</v>
+        <v>-0.36</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.55</v>
+        <v>-4.67</v>
       </c>
       <c r="E92" t="n">
-        <v>9.94</v>
+        <v>6.64</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.13</v>
+        <v>2.83</v>
       </c>
       <c r="G92" t="n">
-        <v>1.16</v>
+        <v>2.58</v>
       </c>
       <c r="H92" t="n">
-        <v>27.09</v>
+        <v>25.33</v>
       </c>
       <c r="I92" t="n">
-        <v>77.87</v>
+        <v>77.81</v>
       </c>
       <c r="J92" t="n">
-        <v>54.27</v>
+        <v>59.74</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4032,31 +4032,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C93" t="n">
         <v>0.28</v>
       </c>
       <c r="D93" t="n">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
       <c r="E93" t="n">
-        <v>19.01</v>
+        <v>16.56</v>
       </c>
       <c r="F93" t="n">
-        <v>9.710000000000001</v>
+        <v>10.93</v>
       </c>
       <c r="G93" t="n">
-        <v>6.02</v>
+        <v>6</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.12</v>
+        <v>-2.53</v>
       </c>
       <c r="I93" t="n">
-        <v>48.79</v>
+        <v>49.17</v>
       </c>
       <c r="J93" t="n">
-        <v>126.56</v>
+        <v>133.01</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4071,31 +4071,31 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.88</v>
+        <v>-1.07</v>
       </c>
       <c r="D94" t="n">
-        <v>-2.03</v>
+        <v>-0.2</v>
       </c>
       <c r="E94" t="n">
-        <v>20.66</v>
+        <v>18.68</v>
       </c>
       <c r="F94" t="n">
-        <v>9.25</v>
+        <v>11.47</v>
       </c>
       <c r="G94" t="n">
-        <v>10.21</v>
+        <v>8.51</v>
       </c>
       <c r="H94" t="n">
-        <v>3.7</v>
+        <v>4.75</v>
       </c>
       <c r="I94" t="n">
-        <v>90.86</v>
+        <v>92.48999999999999</v>
       </c>
       <c r="J94" t="n">
-        <v>111.29</v>
+        <v>121.77</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-2.34</v>
+        <v>-0.92</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.26</v>
+        <v>-7.13</v>
       </c>
       <c r="D95" t="n">
-        <v>-4.98</v>
+        <v>-6.03</v>
       </c>
       <c r="E95" t="n">
-        <v>23.22</v>
+        <v>16.55</v>
       </c>
       <c r="F95" t="n">
-        <v>5.27</v>
+        <v>5.07</v>
       </c>
       <c r="G95" t="n">
-        <v>-11.46</v>
+        <v>-13.89</v>
       </c>
       <c r="H95" t="n">
-        <v>-21.73</v>
+        <v>-22.1</v>
       </c>
       <c r="I95" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="J95" t="n">
-        <v>37.04</v>
+        <v>41.05</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4149,31 +4149,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-3.04</v>
+        <v>-1.32</v>
       </c>
       <c r="C96" t="n">
-        <v>-7.56</v>
+        <v>-10.35</v>
       </c>
       <c r="D96" t="n">
-        <v>-8.09</v>
+        <v>-9.67</v>
       </c>
       <c r="E96" t="n">
-        <v>20.99</v>
+        <v>12.89</v>
       </c>
       <c r="F96" t="n">
-        <v>0.04</v>
+        <v>-0.91</v>
       </c>
       <c r="G96" t="n">
-        <v>-23.51</v>
+        <v>-26.54</v>
       </c>
       <c r="H96" t="n">
-        <v>-33.7</v>
+        <v>-34.45</v>
       </c>
       <c r="I96" t="n">
-        <v>-9.789999999999999</v>
+        <v>-11.05</v>
       </c>
       <c r="J96" t="n">
-        <v>25.99</v>
+        <v>28.98</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4188,31 +4188,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-1.67</v>
+        <v>0.74</v>
       </c>
       <c r="C97" t="n">
-        <v>-1.74</v>
+        <v>-0.72</v>
       </c>
       <c r="D97" t="n">
-        <v>5.03</v>
+        <v>4.91</v>
       </c>
       <c r="E97" t="n">
-        <v>10.45</v>
+        <v>11.47</v>
       </c>
       <c r="F97" t="n">
-        <v>15.5</v>
+        <v>16.19</v>
       </c>
       <c r="G97" t="n">
-        <v>12.29</v>
+        <v>15.43</v>
       </c>
       <c r="H97" t="n">
-        <v>22.36</v>
+        <v>21.86</v>
       </c>
       <c r="I97" t="n">
-        <v>67.88</v>
+        <v>69.55</v>
       </c>
       <c r="J97" t="n">
-        <v>139.93</v>
+        <v>150.42</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4227,31 +4227,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
       <c r="C98" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="D98" t="n">
-        <v>1.19</v>
+        <v>1.81</v>
       </c>
       <c r="E98" t="n">
-        <v>14.64</v>
+        <v>13.45</v>
       </c>
       <c r="F98" t="n">
-        <v>7.07</v>
+        <v>8.84</v>
       </c>
       <c r="G98" t="n">
-        <v>11.88</v>
+        <v>12.77</v>
       </c>
       <c r="H98" t="n">
-        <v>7.75</v>
+        <v>7.83</v>
       </c>
       <c r="I98" t="n">
-        <v>52.26</v>
+        <v>53.27</v>
       </c>
       <c r="J98" t="n">
-        <v>143.3</v>
+        <v>150.06</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4266,31 +4266,31 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.93</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.53</v>
+        <v>-0.96</v>
       </c>
       <c r="D99" t="n">
-        <v>3.87</v>
+        <v>5.24</v>
       </c>
       <c r="E99" t="n">
-        <v>15.27</v>
+        <v>13.79</v>
       </c>
       <c r="F99" t="n">
-        <v>8.83</v>
+        <v>11.25</v>
       </c>
       <c r="G99" t="n">
-        <v>31.13</v>
+        <v>28.66</v>
       </c>
       <c r="H99" t="n">
-        <v>11.07</v>
+        <v>10.7</v>
       </c>
       <c r="I99" t="n">
-        <v>103.91</v>
+        <v>104.85</v>
       </c>
       <c r="J99" t="n">
-        <v>215.94</v>
+        <v>223.82</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4305,31 +4305,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.83</v>
+        <v>-0.04</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.08</v>
+        <v>-0.53</v>
       </c>
       <c r="D100" t="n">
-        <v>2.18</v>
+        <v>3.23</v>
       </c>
       <c r="E100" t="n">
-        <v>15.66</v>
+        <v>13.97</v>
       </c>
       <c r="F100" t="n">
-        <v>6.57</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>18.02</v>
+        <v>16.72</v>
       </c>
       <c r="H100" t="n">
-        <v>6.67</v>
+        <v>6.3</v>
       </c>
       <c r="I100" t="n">
-        <v>78.28</v>
+        <v>79.03</v>
       </c>
       <c r="J100" t="n">
-        <v>168.43</v>
+        <v>175.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4344,31 +4344,31 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.78</v>
+        <v>-1.37</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.82</v>
+        <v>-3.33</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.15</v>
+        <v>-3.38</v>
       </c>
       <c r="E101" t="n">
-        <v>17.48</v>
+        <v>13.48</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.73</v>
+        <v>-1.2</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06</v>
+        <v>-2.8</v>
       </c>
       <c r="H101" t="n">
-        <v>-4.42</v>
+        <v>-4.26</v>
       </c>
       <c r="I101" t="n">
-        <v>30.3</v>
+        <v>29.22</v>
       </c>
       <c r="J101" t="n">
-        <v>73.31</v>
+        <v>77.42</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.5</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="C102" t="n">
-        <v>-1.09</v>
+        <v>-3.19</v>
       </c>
       <c r="D102" t="n">
-        <v>-3.54</v>
+        <v>-3.08</v>
       </c>
       <c r="E102" t="n">
-        <v>20.16</v>
+        <v>17.07</v>
       </c>
       <c r="F102" t="n">
-        <v>-2.84</v>
+        <v>-1.23</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.52</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="H102" t="n">
-        <v>-12.36</v>
+        <v>-11.05</v>
       </c>
       <c r="I102" t="n">
-        <v>22.77</v>
+        <v>22.6</v>
       </c>
       <c r="J102" t="n">
-        <v>49.79</v>
+        <v>54.35</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4422,31 +4422,31 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1.1</v>
+        <v>0.34</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.41</v>
+        <v>-0.67</v>
       </c>
       <c r="D103" t="n">
-        <v>4.01</v>
+        <v>6.54</v>
       </c>
       <c r="E103" t="n">
-        <v>15.57</v>
+        <v>14.33</v>
       </c>
       <c r="F103" t="n">
-        <v>7.96</v>
+        <v>10.5</v>
       </c>
       <c r="G103" t="n">
-        <v>25.03</v>
+        <v>24.56</v>
       </c>
       <c r="H103" t="n">
-        <v>1.22</v>
+        <v>0.89</v>
       </c>
       <c r="I103" t="n">
-        <v>93.78</v>
+        <v>95.33</v>
       </c>
       <c r="J103" t="n">
-        <v>226.51</v>
+        <v>237.3</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4461,28 +4461,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.14</v>
+        <v>-0.98</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.16</v>
+        <v>-1.81</v>
       </c>
       <c r="D104" t="n">
-        <v>-1.49</v>
+        <v>-3.1</v>
       </c>
       <c r="E104" t="n">
-        <v>14.66</v>
+        <v>10.84</v>
       </c>
       <c r="F104" t="n">
-        <v>0.22</v>
+        <v>0.29</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.99</v>
+        <v>-10.77</v>
       </c>
       <c r="H104" t="n">
-        <v>-10.53</v>
+        <v>-11.41</v>
       </c>
       <c r="I104" t="n">
-        <v>4.93</v>
+        <v>4.51</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -4498,31 +4498,31 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.51</v>
+        <v>-0.38</v>
       </c>
       <c r="C105" t="n">
-        <v>0.34</v>
+        <v>-0.09</v>
       </c>
       <c r="D105" t="n">
-        <v>0.79</v>
+        <v>0.17</v>
       </c>
       <c r="E105" t="n">
-        <v>14.91</v>
+        <v>12.9</v>
       </c>
       <c r="F105" t="n">
-        <v>5.43</v>
+        <v>6.7</v>
       </c>
       <c r="G105" t="n">
-        <v>11.85</v>
+        <v>9.91</v>
       </c>
       <c r="H105" t="n">
-        <v>13.03</v>
+        <v>12.33</v>
       </c>
       <c r="I105" t="n">
-        <v>59.16</v>
+        <v>59.19</v>
       </c>
       <c r="J105" t="n">
-        <v>110.9</v>
+        <v>116.41</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4537,31 +4537,31 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.49</v>
       </c>
       <c r="C106" t="n">
-        <v>0.23</v>
+        <v>-0.2</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.6</v>
+        <v>-1.01</v>
       </c>
       <c r="E106" t="n">
-        <v>10.71</v>
+        <v>8.58</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.71</v>
+        <v>-1.44</v>
       </c>
       <c r="G106" t="n">
-        <v>-4.93</v>
+        <v>-6.03</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.29</v>
+        <v>-2.52</v>
       </c>
       <c r="I106" t="n">
-        <v>30.45</v>
+        <v>30.43</v>
       </c>
       <c r="J106" t="n">
-        <v>76.36</v>
+        <v>81.14</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4576,31 +4576,31 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.66</v>
+        <v>-0.35</v>
       </c>
       <c r="C107" t="n">
-        <v>0.33</v>
+        <v>-0.17</v>
       </c>
       <c r="D107" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="E107" t="n">
-        <v>12.86</v>
+        <v>10.91</v>
       </c>
       <c r="F107" t="n">
-        <v>4.45</v>
+        <v>5.3</v>
       </c>
       <c r="G107" t="n">
-        <v>10.21</v>
+        <v>9.69</v>
       </c>
       <c r="H107" t="n">
-        <v>6.19</v>
+        <v>5.09</v>
       </c>
       <c r="I107" t="n">
-        <v>67.08</v>
+        <v>67.13</v>
       </c>
       <c r="J107" t="n">
-        <v>142.94</v>
+        <v>148.75</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4615,31 +4615,31 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.49</v>
+        <v>-0.62</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.27</v>
+        <v>-0.59</v>
       </c>
       <c r="D108" t="n">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="E108" t="n">
-        <v>10.28</v>
+        <v>8.1</v>
       </c>
       <c r="F108" t="n">
-        <v>3.32</v>
+        <v>3.81</v>
       </c>
       <c r="G108" t="n">
-        <v>-5.05</v>
+        <v>-5.62</v>
       </c>
       <c r="H108" t="n">
-        <v>-15.06</v>
+        <v>-14.52</v>
       </c>
       <c r="I108" t="n">
-        <v>-11.01</v>
+        <v>-10.99</v>
       </c>
       <c r="J108" t="n">
-        <v>-15.86</v>
+        <v>-15.25</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4654,31 +4654,31 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="C109" t="n">
-        <v>0.25</v>
+        <v>-0.02</v>
       </c>
       <c r="D109" t="n">
-        <v>3.11</v>
+        <v>4.53</v>
       </c>
       <c r="E109" t="n">
-        <v>15.66</v>
+        <v>14.09</v>
       </c>
       <c r="F109" t="n">
-        <v>8.4</v>
+        <v>10.82</v>
       </c>
       <c r="G109" t="n">
-        <v>22.77</v>
+        <v>20.99</v>
       </c>
       <c r="H109" t="n">
-        <v>11.39</v>
+        <v>10.59</v>
       </c>
       <c r="I109" t="n">
-        <v>81.79000000000001</v>
+        <v>82.95</v>
       </c>
       <c r="J109" t="n">
-        <v>180.19</v>
+        <v>188.75</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4693,31 +4693,31 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="C110" t="n">
-        <v>0.31</v>
+        <v>0.85</v>
       </c>
       <c r="D110" t="n">
-        <v>6.87</v>
+        <v>10.69</v>
       </c>
       <c r="E110" t="n">
-        <v>20.14</v>
+        <v>19.95</v>
       </c>
       <c r="F110" t="n">
-        <v>14.24</v>
+        <v>18.12</v>
       </c>
       <c r="G110" t="n">
-        <v>16.43</v>
+        <v>20.69</v>
       </c>
       <c r="H110" t="n">
-        <v>0.22</v>
+        <v>1.11</v>
       </c>
       <c r="I110" t="n">
-        <v>56.85</v>
+        <v>59.49</v>
       </c>
       <c r="J110" t="n">
-        <v>185.93</v>
+        <v>198.74</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4732,28 +4732,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.86</v>
+        <v>0.16</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.11</v>
+        <v>-0.33</v>
       </c>
       <c r="D111" t="n">
-        <v>2.18</v>
+        <v>3.47</v>
       </c>
       <c r="E111" t="n">
-        <v>15.74</v>
+        <v>14.18</v>
       </c>
       <c r="F111" t="n">
-        <v>6.58</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="G111" t="n">
-        <v>17.54</v>
+        <v>16.39</v>
       </c>
       <c r="H111" t="n">
-        <v>4.98</v>
+        <v>4.89</v>
       </c>
       <c r="I111" t="n">
-        <v>81.09999999999999</v>
+        <v>82.13</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -4769,25 +4769,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.99</v>
+        <v>-0.34</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.05</v>
+        <v>-0.79</v>
       </c>
       <c r="D112" t="n">
-        <v>2.99</v>
+        <v>3.86</v>
       </c>
       <c r="E112" t="n">
-        <v>17.1</v>
+        <v>14.98</v>
       </c>
       <c r="F112" t="n">
-        <v>8.949999999999999</v>
+        <v>10.81</v>
       </c>
       <c r="G112" t="n">
-        <v>21.78</v>
+        <v>20.21</v>
       </c>
       <c r="H112" t="n">
-        <v>9.289999999999999</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4804,28 +4804,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.43</v>
+        <v>-1.05</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.04</v>
+        <v>-2.62</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.79</v>
+        <v>-2.56</v>
       </c>
       <c r="E113" t="n">
-        <v>16.78</v>
+        <v>13.73</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.67</v>
+        <v>0.38</v>
       </c>
       <c r="G113" t="n">
-        <v>0.14</v>
+        <v>-1.73</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.91</v>
+        <v>-1.58</v>
       </c>
       <c r="I113" t="n">
-        <v>44.74</v>
+        <v>44.39</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -4841,31 +4841,31 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.6</v>
+        <v>-0.58</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.59</v>
+        <v>-2.1</v>
       </c>
       <c r="D114" t="n">
-        <v>-1.87</v>
+        <v>-0.33</v>
       </c>
       <c r="E114" t="n">
-        <v>25.85</v>
+        <v>22.15</v>
       </c>
       <c r="F114" t="n">
-        <v>0.99</v>
+        <v>4.15</v>
       </c>
       <c r="G114" t="n">
-        <v>8.44</v>
+        <v>5.16</v>
       </c>
       <c r="H114" t="n">
-        <v>6.72</v>
+        <v>6.45</v>
       </c>
       <c r="I114" t="n">
-        <v>101.85</v>
+        <v>101.8</v>
       </c>
       <c r="J114" t="n">
-        <v>174.29</v>
+        <v>182.56</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4880,31 +4880,31 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.65</v>
+        <v>-0.04</v>
       </c>
       <c r="C115" t="n">
-        <v>2.04</v>
+        <v>3.77</v>
       </c>
       <c r="D115" t="n">
-        <v>8.970000000000001</v>
+        <v>6.96</v>
       </c>
       <c r="E115" t="n">
-        <v>-13.16</v>
+        <v>-11.62</v>
       </c>
       <c r="F115" t="n">
-        <v>3.07</v>
+        <v>-0.42</v>
       </c>
       <c r="G115" t="n">
-        <v>-5.14</v>
+        <v>-2.88</v>
       </c>
       <c r="H115" t="n">
-        <v>0.44</v>
+        <v>-0.42</v>
       </c>
       <c r="I115" t="n">
-        <v>-12.8</v>
+        <v>-12.79</v>
       </c>
       <c r="J115" t="n">
-        <v>-2.02</v>
+        <v>-3.19</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4919,31 +4919,31 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0.78</v>
+        <v>-0.2</v>
       </c>
       <c r="C116" t="n">
-        <v>0.98</v>
+        <v>0.87</v>
       </c>
       <c r="D116" t="n">
-        <v>1.52</v>
+        <v>0.87</v>
       </c>
       <c r="E116" t="n">
-        <v>8.34</v>
+        <v>7.07</v>
       </c>
       <c r="F116" t="n">
-        <v>0.91</v>
+        <v>1.01</v>
       </c>
       <c r="G116" t="n">
-        <v>-0.4</v>
+        <v>0.08</v>
       </c>
       <c r="H116" t="n">
-        <v>-2.16</v>
+        <v>-3.06</v>
       </c>
       <c r="I116" t="n">
-        <v>27.97</v>
+        <v>28.26</v>
       </c>
       <c r="J116" t="n">
-        <v>97.31999999999999</v>
+        <v>101.77</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>2.77</v>
+        <v>-0.61</v>
       </c>
       <c r="C117" t="n">
-        <v>3.71</v>
+        <v>3.22</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.27</v>
+        <v>-1.73</v>
       </c>
       <c r="E117" t="n">
-        <v>8.970000000000001</v>
+        <v>5.36</v>
       </c>
       <c r="F117" t="n">
-        <v>-5</v>
+        <v>-3.78</v>
       </c>
       <c r="G117" t="n">
-        <v>-4.03</v>
+        <v>-4.35</v>
       </c>
       <c r="H117" t="n">
-        <v>-41.95</v>
+        <v>-42.47</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4993,25 +4993,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.93</v>
+        <v>-0.43</v>
       </c>
       <c r="C118" t="n">
-        <v>0.3</v>
+        <v>-0.53</v>
       </c>
       <c r="D118" t="n">
-        <v>-3.4</v>
+        <v>-2.88</v>
       </c>
       <c r="E118" t="n">
-        <v>1.81</v>
+        <v>0.26</v>
       </c>
       <c r="F118" t="n">
-        <v>-4.76</v>
+        <v>-3.72</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.03</v>
+        <v>-6.91</v>
       </c>
       <c r="H118" t="n">
-        <v>-1.62</v>
+        <v>-2.7</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5028,31 +5028,31 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.33</v>
+        <v>-0.97</v>
       </c>
       <c r="C119" t="n">
-        <v>0.75</v>
+        <v>-0.51</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.89</v>
+        <v>-0.78</v>
       </c>
       <c r="E119" t="n">
-        <v>7.79</v>
+        <v>5.78</v>
       </c>
       <c r="F119" t="n">
-        <v>2.09</v>
+        <v>1.92</v>
       </c>
       <c r="G119" t="n">
-        <v>-1.11</v>
+        <v>-2.3</v>
       </c>
       <c r="H119" t="n">
-        <v>-16.16</v>
+        <v>-17.27</v>
       </c>
       <c r="I119" t="n">
-        <v>-18.71</v>
+        <v>-19.43</v>
       </c>
       <c r="J119" t="n">
-        <v>-17.72</v>
+        <v>-18</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5067,31 +5067,31 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.72</v>
+        <v>0.64</v>
       </c>
       <c r="D120" t="n">
-        <v>-1.28</v>
+        <v>-0.82</v>
       </c>
       <c r="E120" t="n">
-        <v>4.38</v>
+        <v>3.48</v>
       </c>
       <c r="F120" t="n">
-        <v>-3.13</v>
+        <v>-2.61</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.41</v>
+        <v>-0.63</v>
       </c>
       <c r="H120" t="n">
-        <v>-8.58</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>-20.17</v>
+        <v>-20.22</v>
       </c>
       <c r="J120" t="n">
-        <v>-23.28</v>
+        <v>-22.73</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5106,31 +5106,31 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.35</v>
+        <v>-0.93</v>
       </c>
       <c r="C121" t="n">
-        <v>1.35</v>
+        <v>0.05</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.09</v>
+        <v>-0.28</v>
       </c>
       <c r="E121" t="n">
-        <v>10.32</v>
+        <v>8.08</v>
       </c>
       <c r="F121" t="n">
-        <v>3.9</v>
+        <v>3.63</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.98</v>
+        <v>-1.98</v>
       </c>
       <c r="H121" t="n">
-        <v>-13.44</v>
+        <v>-14.2</v>
       </c>
       <c r="I121" t="n">
-        <v>-4.68</v>
+        <v>-5.51</v>
       </c>
       <c r="J121" t="n">
-        <v>-4.97</v>
+        <v>-6.12</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5145,28 +5145,28 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.4</v>
+        <v>-0.19</v>
       </c>
       <c r="D122" t="n">
-        <v>0.82</v>
+        <v>1.25</v>
       </c>
       <c r="E122" t="n">
-        <v>1.87</v>
+        <v>2.19</v>
       </c>
       <c r="F122" t="n">
-        <v>0.63</v>
+        <v>1.46</v>
       </c>
       <c r="G122" t="n">
-        <v>0.61</v>
+        <v>1.04</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.87</v>
+        <v>-0.41</v>
       </c>
       <c r="I122" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
@@ -5182,31 +5182,31 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.08</v>
+        <v>-0.46</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.27</v>
+        <v>-0.8</v>
       </c>
       <c r="D123" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="E123" t="n">
-        <v>6.24</v>
+        <v>4.74</v>
       </c>
       <c r="F123" t="n">
-        <v>3.54</v>
+        <v>3.67</v>
       </c>
       <c r="G123" t="n">
-        <v>0.86</v>
+        <v>-0.03</v>
       </c>
       <c r="H123" t="n">
-        <v>-8.630000000000001</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="I123" t="n">
-        <v>-8.57</v>
+        <v>-8.859999999999999</v>
       </c>
       <c r="J123" t="n">
-        <v>-16.98</v>
+        <v>-16.57</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5221,28 +5221,28 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.42</v>
+        <v>-0.22</v>
       </c>
       <c r="D124" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="E124" t="n">
         <v>2.54</v>
       </c>
       <c r="F124" t="n">
-        <v>0.76</v>
+        <v>1.89</v>
       </c>
       <c r="G124" t="n">
-        <v>0.25</v>
+        <v>0.53</v>
       </c>
       <c r="H124" t="n">
-        <v>-2.77</v>
+        <v>-2.23</v>
       </c>
       <c r="I124" t="n">
-        <v>-4.81</v>
+        <v>-4.61</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">

--- a/stocksPercentage.xlsx
+++ b/stocksPercentage.xlsx
@@ -497,31 +497,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.71</v>
+        <v>-5.74</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.99</v>
+        <v>-1.24</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>-0.04</v>
       </c>
       <c r="H2" t="n">
-        <v>8.5</v>
+        <v>9.35</v>
       </c>
       <c r="I2" t="n">
-        <v>9.82</v>
+        <v>9.44</v>
       </c>
       <c r="J2" t="n">
-        <v>28.14</v>
+        <v>28.46</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -539,28 +539,28 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>-0.39</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.71</v>
+        <v>-1.37</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.41</v>
+        <v>-3.17</v>
       </c>
       <c r="F3" t="n">
-        <v>-4.12</v>
+        <v>-5.51</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.66</v>
+        <v>-2.81</v>
       </c>
       <c r="H3" t="n">
-        <v>-9.970000000000001</v>
+        <v>-11.24</v>
       </c>
       <c r="I3" t="n">
-        <v>-13.97</v>
+        <v>-14.2</v>
       </c>
       <c r="J3" t="n">
-        <v>-32.06</v>
+        <v>-32.71</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -578,28 +578,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.91</v>
+        <v>-0.51</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.45</v>
+        <v>-1.62</v>
       </c>
       <c r="E4" t="n">
-        <v>0.91</v>
+        <v>-1.35</v>
       </c>
       <c r="F4" t="n">
-        <v>0.28</v>
+        <v>-0.62</v>
       </c>
       <c r="G4" t="n">
-        <v>1.19</v>
+        <v>2.21</v>
       </c>
       <c r="H4" t="n">
-        <v>1.83</v>
+        <v>0.86</v>
       </c>
       <c r="I4" t="n">
-        <v>-4.46</v>
+        <v>-5.73</v>
       </c>
       <c r="J4" t="n">
-        <v>-8.199999999999999</v>
+        <v>-10.3</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -617,28 +617,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7</v>
+        <v>0.02</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.71</v>
+        <v>-0.83</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.13</v>
+        <v>-2.99</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.07</v>
+        <v>-2.18</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.37</v>
+        <v>1.96</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>1.83</v>
       </c>
       <c r="I5" t="n">
-        <v>32.78</v>
+        <v>31.7</v>
       </c>
       <c r="J5" t="n">
-        <v>21.98</v>
+        <v>20.17</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -653,31 +653,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.14</v>
+        <v>0.08</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.39</v>
+        <v>-0.39</v>
       </c>
       <c r="E6" t="n">
-        <v>2.14</v>
+        <v>2.87</v>
       </c>
       <c r="F6" t="n">
-        <v>4.71</v>
+        <v>4.67</v>
       </c>
       <c r="G6" t="n">
-        <v>5.71</v>
+        <v>8.51</v>
       </c>
       <c r="H6" t="n">
-        <v>11.38</v>
+        <v>11.7</v>
       </c>
       <c r="I6" t="n">
-        <v>51.05</v>
+        <v>51.76</v>
       </c>
       <c r="J6" t="n">
-        <v>55.01</v>
+        <v>55.5</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -692,31 +692,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.92</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.92</v>
+        <v>-0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.9</v>
+        <v>-2.17</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.34</v>
+        <v>-1.57</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.33</v>
+        <v>-4.2</v>
       </c>
       <c r="G7" t="n">
-        <v>-4.54</v>
+        <v>1.32</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.62</v>
+        <v>-0.19</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>39.54</v>
       </c>
       <c r="J7" t="n">
-        <v>10.64</v>
+        <v>8.81</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -731,31 +731,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-3.18</v>
+        <v>-2.56</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.130000000000001</v>
+        <v>-7.35</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.44</v>
+        <v>-1.64</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.61</v>
+        <v>-3.44</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.23</v>
+        <v>-8.550000000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.8</v>
+        <v>-13.98</v>
       </c>
       <c r="I8" t="n">
-        <v>6.12</v>
+        <v>5.79</v>
       </c>
       <c r="J8" t="n">
-        <v>-38.5</v>
+        <v>-39.01</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -773,28 +773,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.99</v>
+        <v>-3.46</v>
       </c>
       <c r="D9" t="n">
-        <v>2.5</v>
+        <v>-2.03</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.14</v>
+        <v>-14.2</v>
       </c>
       <c r="F9" t="n">
-        <v>-10.98</v>
+        <v>-14.16</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.04</v>
+        <v>-6.54</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.67</v>
+        <v>-3.41</v>
       </c>
       <c r="I9" t="n">
-        <v>40.07</v>
+        <v>39.91</v>
       </c>
       <c r="J9" t="n">
-        <v>-30.81</v>
+        <v>-32.21</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -809,31 +809,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.51</v>
+        <v>-3.59</v>
       </c>
       <c r="D10" t="n">
-        <v>1.57</v>
+        <v>-1.76</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.45</v>
+        <v>-15.44</v>
       </c>
       <c r="F10" t="n">
-        <v>-11.16</v>
+        <v>-14.19</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.05</v>
+        <v>-3.25</v>
       </c>
       <c r="H10" t="n">
-        <v>-7.41</v>
+        <v>-10.39</v>
       </c>
       <c r="I10" t="n">
-        <v>38.16</v>
+        <v>40.97</v>
       </c>
       <c r="J10" t="n">
-        <v>-47.45</v>
+        <v>-48.22</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -848,31 +848,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.26</v>
+        <v>-1.38</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.09</v>
+        <v>-17.12</v>
       </c>
       <c r="E11" t="n">
-        <v>-34.57</v>
+        <v>-29.03</v>
       </c>
       <c r="F11" t="n">
-        <v>-28.49</v>
+        <v>-30.36</v>
       </c>
       <c r="G11" t="n">
-        <v>-43.08</v>
+        <v>-43.06</v>
       </c>
       <c r="H11" t="n">
-        <v>-74.87</v>
+        <v>-69.44</v>
       </c>
       <c r="I11" t="n">
-        <v>-80.47</v>
+        <v>-79.8</v>
       </c>
       <c r="J11" t="n">
-        <v>-95.09</v>
+        <v>-95.22</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -890,28 +890,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>-1.58</v>
+        <v>-2.03</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.84</v>
+        <v>-1.08</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.41</v>
+        <v>-7.5</v>
       </c>
       <c r="F12" t="n">
-        <v>-6.13</v>
+        <v>-7.01</v>
       </c>
       <c r="G12" t="n">
-        <v>-18.71</v>
+        <v>-16.39</v>
       </c>
       <c r="H12" t="n">
-        <v>-24.37</v>
+        <v>-25.52</v>
       </c>
       <c r="I12" t="n">
-        <v>7.11</v>
+        <v>5.52</v>
       </c>
       <c r="J12" t="n">
-        <v>10.92</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -926,31 +926,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.3</v>
+        <v>-1.65</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.51</v>
+        <v>0.59</v>
       </c>
       <c r="E13" t="n">
-        <v>3.82</v>
+        <v>2.81</v>
       </c>
       <c r="F13" t="n">
-        <v>0.28</v>
+        <v>-0.42</v>
       </c>
       <c r="G13" t="n">
-        <v>-4</v>
+        <v>-3.02</v>
       </c>
       <c r="H13" t="n">
-        <v>-12.79</v>
+        <v>-13.33</v>
       </c>
       <c r="I13" t="n">
-        <v>37.57</v>
+        <v>34.86</v>
       </c>
       <c r="J13" t="n">
-        <v>11.55</v>
+        <v>11.38</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -965,31 +965,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.97</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.24</v>
+        <v>-3.41</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.82</v>
+        <v>-8.039999999999999</v>
       </c>
       <c r="E14" t="n">
-        <v>-15.25</v>
+        <v>-14.83</v>
       </c>
       <c r="F14" t="n">
-        <v>-24.33</v>
+        <v>-25.1</v>
       </c>
       <c r="G14" t="n">
-        <v>-43.28</v>
+        <v>-41.43</v>
       </c>
       <c r="H14" t="n">
-        <v>-60.53</v>
+        <v>-59.06</v>
       </c>
       <c r="I14" t="n">
-        <v>-31.84</v>
+        <v>-33.53</v>
       </c>
       <c r="J14" t="n">
-        <v>27.19</v>
+        <v>25.81</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1004,31 +1004,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.78</v>
+        <v>0.32</v>
       </c>
       <c r="D15" t="n">
-        <v>5.03</v>
+        <v>5.44</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.29</v>
+        <v>-3.38</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.28</v>
+        <v>0.28</v>
       </c>
       <c r="G15" t="n">
-        <v>7.73</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>6.42</v>
+        <v>5.39</v>
       </c>
       <c r="I15" t="n">
-        <v>28.35</v>
+        <v>27.12</v>
       </c>
       <c r="J15" t="n">
-        <v>-12.94</v>
+        <v>-14.47</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1058,16 +1058,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>29.01</v>
+        <v>29.42</v>
       </c>
       <c r="H16" t="n">
-        <v>20.35</v>
+        <v>17.79</v>
       </c>
       <c r="I16" t="n">
-        <v>45.92</v>
+        <v>41.59</v>
       </c>
       <c r="J16" t="n">
-        <v>-6.18</v>
+        <v>-5.07</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1082,31 +1082,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.59</v>
+        <v>0.7</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.86</v>
+        <v>-2.72</v>
       </c>
       <c r="E17" t="n">
-        <v>0.88</v>
+        <v>-1.21</v>
       </c>
       <c r="F17" t="n">
-        <v>-11.52</v>
+        <v>-12.14</v>
       </c>
       <c r="G17" t="n">
-        <v>-25.29</v>
+        <v>-25.13</v>
       </c>
       <c r="H17" t="n">
-        <v>-20.77</v>
+        <v>-22.49</v>
       </c>
       <c r="I17" t="n">
-        <v>-5.42</v>
+        <v>-6.23</v>
       </c>
       <c r="J17" t="n">
-        <v>-57.46</v>
+        <v>-60.28</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1124,28 +1124,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.14</v>
+        <v>-0.14</v>
       </c>
       <c r="D18" t="n">
-        <v>9.84</v>
+        <v>10.33</v>
       </c>
       <c r="E18" t="n">
-        <v>-9.800000000000001</v>
+        <v>-10.34</v>
       </c>
       <c r="F18" t="n">
-        <v>2.38</v>
+        <v>5.71</v>
       </c>
       <c r="G18" t="n">
-        <v>32.17</v>
+        <v>38.8</v>
       </c>
       <c r="H18" t="n">
-        <v>56.61</v>
+        <v>56.48</v>
       </c>
       <c r="I18" t="n">
-        <v>84.15000000000001</v>
+        <v>84.56999999999999</v>
       </c>
       <c r="J18" t="n">
-        <v>1.1</v>
+        <v>-0.57</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>5.63</v>
+        <v>6.24</v>
       </c>
       <c r="H19" t="n">
-        <v>-16.73</v>
+        <v>-18.17</v>
       </c>
       <c r="I19" t="n">
-        <v>41.14</v>
+        <v>39.68</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
@@ -1200,28 +1200,28 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.29</v>
+        <v>-0.83</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.08</v>
+        <v>-4.1</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.79</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="F20" t="n">
+        <v>-10.47</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-23.63</v>
+      </c>
+      <c r="H20" t="n">
         <v>-9.75</v>
       </c>
-      <c r="G20" t="n">
-        <v>-22.76</v>
-      </c>
-      <c r="H20" t="n">
-        <v>-9.23</v>
-      </c>
       <c r="I20" t="n">
-        <v>25.99</v>
+        <v>24.68</v>
       </c>
       <c r="J20" t="n">
-        <v>-34.06</v>
+        <v>-35.39</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1239,28 +1239,28 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.59</v>
+        <v>-2.6</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.37</v>
+        <v>-4.28</v>
       </c>
       <c r="E21" t="n">
-        <v>-8.6</v>
+        <v>-11.95</v>
       </c>
       <c r="F21" t="n">
-        <v>-7.34</v>
+        <v>-10.11</v>
       </c>
       <c r="G21" t="n">
-        <v>-9.93</v>
+        <v>-10.69</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.98</v>
+        <v>-2.83</v>
       </c>
       <c r="I21" t="n">
-        <v>52.95</v>
+        <v>50.51</v>
       </c>
       <c r="J21" t="n">
-        <v>11.95</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1290,13 +1290,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.92</v>
+        <v>2.63</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.63</v>
+        <v>-14.99</v>
       </c>
       <c r="I22" t="n">
-        <v>35.18</v>
+        <v>35.79</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.46</v>
+        <v>2.56</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>-0.67</v>
       </c>
       <c r="I23" t="n">
-        <v>-17.25</v>
+        <v>-18.51</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
@@ -1349,31 +1349,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.32</v>
+        <v>2.38</v>
       </c>
       <c r="D24" t="n">
-        <v>3.61</v>
+        <v>5.65</v>
       </c>
       <c r="E24" t="n">
-        <v>13.69</v>
+        <v>13.46</v>
       </c>
       <c r="F24" t="n">
-        <v>8.800000000000001</v>
+        <v>10.64</v>
       </c>
       <c r="G24" t="n">
-        <v>17.5</v>
+        <v>20.62</v>
       </c>
       <c r="H24" t="n">
-        <v>7.08</v>
+        <v>10.17</v>
       </c>
       <c r="I24" t="n">
-        <v>81.34</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="J24" t="n">
-        <v>181.17</v>
+        <v>182.21</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.97</v>
+        <v>0.11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="E25" t="n">
-        <v>9.050000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>4.11</v>
+        <v>4.51</v>
       </c>
       <c r="G25" t="n">
-        <v>1.72</v>
+        <v>3.59</v>
       </c>
       <c r="H25" t="n">
-        <v>-6.42</v>
+        <v>-5.21</v>
       </c>
       <c r="I25" t="n">
-        <v>33.97</v>
+        <v>33</v>
       </c>
       <c r="J25" t="n">
-        <v>31.83</v>
+        <v>31.09</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1430,28 +1430,28 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.33</v>
+        <v>-0.14</v>
       </c>
       <c r="D26" t="n">
-        <v>0.37</v>
+        <v>-1.31</v>
       </c>
       <c r="E26" t="n">
-        <v>8.09</v>
+        <v>4.6</v>
       </c>
       <c r="F26" t="n">
-        <v>3.99</v>
+        <v>2.27</v>
       </c>
       <c r="G26" t="n">
-        <v>0.47</v>
+        <v>2.27</v>
       </c>
       <c r="H26" t="n">
-        <v>-17.62</v>
+        <v>-19.09</v>
       </c>
       <c r="I26" t="n">
-        <v>6.74</v>
+        <v>5.22</v>
       </c>
       <c r="J26" t="n">
-        <v>10.72</v>
+        <v>8.18</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1466,31 +1466,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>-0.55</v>
       </c>
       <c r="D27" t="n">
-        <v>-2.58</v>
+        <v>-3.32</v>
       </c>
       <c r="E27" t="n">
-        <v>4.85</v>
+        <v>3.03</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.05</v>
+        <v>-2.91</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.77</v>
+        <v>-3.38</v>
       </c>
       <c r="H27" t="n">
-        <v>-13.12</v>
+        <v>-12.31</v>
       </c>
       <c r="I27" t="n">
-        <v>2.31</v>
+        <v>0.67</v>
       </c>
       <c r="J27" t="n">
-        <v>17.7</v>
+        <v>15.43</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1508,28 +1508,28 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>2.14</v>
+        <v>-0.03</v>
       </c>
       <c r="D28" t="n">
-        <v>4.46</v>
+        <v>1.81</v>
       </c>
       <c r="E28" t="n">
-        <v>16.38</v>
+        <v>14.67</v>
       </c>
       <c r="F28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="G28" t="n">
-        <v>14.74</v>
+        <v>13.5</v>
       </c>
       <c r="H28" t="n">
-        <v>12.1</v>
+        <v>14.82</v>
       </c>
       <c r="I28" t="n">
-        <v>93.88</v>
+        <v>88.33</v>
       </c>
       <c r="J28" t="n">
-        <v>157.75</v>
+        <v>150.33</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1547,28 +1547,28 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>-1.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D29" t="n">
-        <v>-1.38</v>
+        <v>-2.87</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>5.93</v>
       </c>
       <c r="F29" t="n">
-        <v>2.51</v>
+        <v>2.11</v>
       </c>
       <c r="G29" t="n">
-        <v>-11.86</v>
+        <v>-10.3</v>
       </c>
       <c r="H29" t="n">
-        <v>-23.67</v>
+        <v>-23.21</v>
       </c>
       <c r="I29" t="n">
-        <v>-7.68</v>
+        <v>-9.93</v>
       </c>
       <c r="J29" t="n">
-        <v>10.59</v>
+        <v>7.77</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1583,31 +1583,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.85</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>-1.23</v>
+        <v>-0.44</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05</v>
+        <v>1.37</v>
       </c>
       <c r="E30" t="n">
-        <v>8.76</v>
+        <v>8.92</v>
       </c>
       <c r="F30" t="n">
-        <v>1.85</v>
+        <v>1.39</v>
       </c>
       <c r="G30" t="n">
-        <v>3.29</v>
+        <v>5.46</v>
       </c>
       <c r="H30" t="n">
-        <v>0.13</v>
+        <v>0.99</v>
       </c>
       <c r="I30" t="n">
-        <v>36.74</v>
+        <v>35.44</v>
       </c>
       <c r="J30" t="n">
-        <v>46.27</v>
+        <v>43.92</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1622,31 +1622,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.71</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.58</v>
+        <v>0.55</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.17</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>13.05</v>
+        <v>12.16</v>
       </c>
       <c r="F31" t="n">
-        <v>3.43</v>
+        <v>3.54</v>
       </c>
       <c r="G31" t="n">
-        <v>1.45</v>
+        <v>4.1</v>
       </c>
       <c r="H31" t="n">
-        <v>-9.49</v>
+        <v>-8.6</v>
       </c>
       <c r="I31" t="n">
-        <v>9.25</v>
+        <v>7.66</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.17</v>
+        <v>-1.05</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1664,28 +1664,28 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2.44</v>
+        <v>1.39</v>
       </c>
       <c r="D32" t="n">
-        <v>6.58</v>
+        <v>5.9</v>
       </c>
       <c r="E32" t="n">
-        <v>14.01</v>
+        <v>11.05</v>
       </c>
       <c r="F32" t="n">
-        <v>4.19</v>
+        <v>2.49</v>
       </c>
       <c r="G32" t="n">
-        <v>29.38</v>
+        <v>30.66</v>
       </c>
       <c r="H32" t="n">
-        <v>36.96</v>
+        <v>35.74</v>
       </c>
       <c r="I32" t="n">
-        <v>80.3</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="J32" t="n">
-        <v>-39.32</v>
+        <v>-42.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1703,28 +1703,28 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>-0</v>
+        <v>0.77</v>
       </c>
       <c r="D33" t="n">
-        <v>4.64</v>
+        <v>5.48</v>
       </c>
       <c r="E33" t="n">
-        <v>16.86</v>
+        <v>14.99</v>
       </c>
       <c r="F33" t="n">
-        <v>7.37</v>
+        <v>5.61</v>
       </c>
       <c r="G33" t="n">
-        <v>16.58</v>
+        <v>19.6</v>
       </c>
       <c r="H33" t="n">
-        <v>10.58</v>
+        <v>12.38</v>
       </c>
       <c r="I33" t="n">
-        <v>55.66</v>
+        <v>54.57</v>
       </c>
       <c r="J33" t="n">
-        <v>76.09</v>
+        <v>74.28</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1739,31 +1739,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>1.5</v>
+        <v>0.42</v>
       </c>
       <c r="D34" t="n">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
       <c r="E34" t="n">
-        <v>9.16</v>
+        <v>7.79</v>
       </c>
       <c r="F34" t="n">
-        <v>3.88</v>
+        <v>4.67</v>
       </c>
       <c r="G34" t="n">
-        <v>10.15</v>
+        <v>11.91</v>
       </c>
       <c r="H34" t="n">
-        <v>1.84</v>
+        <v>2.84</v>
       </c>
       <c r="I34" t="n">
-        <v>29.97</v>
+        <v>28.02</v>
       </c>
       <c r="J34" t="n">
-        <v>12.17</v>
+        <v>9.26</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1778,31 +1778,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.87</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.89</v>
+        <v>0.61</v>
       </c>
       <c r="D35" t="n">
-        <v>4.99</v>
+        <v>6.83</v>
       </c>
       <c r="E35" t="n">
-        <v>18.15</v>
+        <v>16.86</v>
       </c>
       <c r="F35" t="n">
-        <v>5.47</v>
+        <v>5.75</v>
       </c>
       <c r="G35" t="n">
-        <v>5.01</v>
+        <v>9.02</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.01</v>
+        <v>-0.74</v>
       </c>
       <c r="I35" t="n">
-        <v>60.65</v>
+        <v>58.71</v>
       </c>
       <c r="J35" t="n">
-        <v>90.22</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1820,28 +1820,28 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>-1.21</v>
+        <v>-0.86</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.33</v>
+        <v>-5.4</v>
       </c>
       <c r="E36" t="n">
-        <v>3.52</v>
+        <v>1.46</v>
       </c>
       <c r="F36" t="n">
-        <v>0.14</v>
+        <v>-3.53</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.21</v>
+        <v>-3.74</v>
       </c>
       <c r="H36" t="n">
-        <v>-20.3</v>
+        <v>-21.23</v>
       </c>
       <c r="I36" t="n">
-        <v>-6.1</v>
+        <v>-9.039999999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>-18.46</v>
+        <v>-21.55</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1862,25 +1862,25 @@
         <v>0.1</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.64</v>
+        <v>-2.92</v>
       </c>
       <c r="E37" t="n">
-        <v>3.41</v>
+        <v>1.78</v>
       </c>
       <c r="F37" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.74</v>
+        <v>-0.67</v>
       </c>
       <c r="H37" t="n">
-        <v>-2.37</v>
+        <v>-3.1</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.36</v>
+        <v>-4.63</v>
       </c>
       <c r="J37" t="n">
-        <v>-33.66</v>
+        <v>-35.03</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1895,31 +1895,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.3</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>1.64</v>
+        <v>0.51</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.66</v>
+        <v>-2.88</v>
       </c>
       <c r="E38" t="n">
-        <v>7.26</v>
+        <v>7.11</v>
       </c>
       <c r="F38" t="n">
-        <v>5.36</v>
+        <v>4.76</v>
       </c>
       <c r="G38" t="n">
-        <v>7.34</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>10.54</v>
+        <v>10.29</v>
       </c>
       <c r="I38" t="n">
-        <v>4.69</v>
+        <v>4.14</v>
       </c>
       <c r="J38" t="n">
-        <v>-19.52</v>
+        <v>-21.08</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1937,28 +1937,28 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.36</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="n">
-        <v>-2.04</v>
+        <v>-0.45</v>
       </c>
       <c r="E39" t="n">
-        <v>17.78</v>
+        <v>14.26</v>
       </c>
       <c r="F39" t="n">
-        <v>9.539999999999999</v>
+        <v>8.01</v>
       </c>
       <c r="G39" t="n">
-        <v>3.19</v>
+        <v>5.87</v>
       </c>
       <c r="H39" t="n">
-        <v>-12.45</v>
+        <v>-11.37</v>
       </c>
       <c r="I39" t="n">
-        <v>26.85</v>
+        <v>24.72</v>
       </c>
       <c r="J39" t="n">
-        <v>13.65</v>
+        <v>9.84</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1973,31 +1973,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>-1.64</v>
+        <v>-0.38</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.98</v>
+        <v>-0.78</v>
       </c>
       <c r="E40" t="n">
-        <v>10.32</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>1.43</v>
+        <v>1.74</v>
       </c>
       <c r="G40" t="n">
-        <v>4.9</v>
+        <v>5.62</v>
       </c>
       <c r="H40" t="n">
-        <v>-5.1</v>
+        <v>-3.15</v>
       </c>
       <c r="I40" t="n">
-        <v>43.06</v>
+        <v>40.86</v>
       </c>
       <c r="J40" t="n">
-        <v>50.35</v>
+        <v>48.28</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2012,31 +2012,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.79</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.55</v>
+        <v>0.09</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.67</v>
+        <v>-1.1</v>
       </c>
       <c r="E41" t="n">
-        <v>4.2</v>
+        <v>3.44</v>
       </c>
       <c r="F41" t="n">
-        <v>0.43</v>
+        <v>0.34</v>
       </c>
       <c r="G41" t="n">
-        <v>0.46</v>
+        <v>1.66</v>
       </c>
       <c r="H41" t="n">
-        <v>-5.98</v>
+        <v>-4.95</v>
       </c>
       <c r="I41" t="n">
-        <v>2.91</v>
+        <v>1.53</v>
       </c>
       <c r="J41" t="n">
-        <v>-16.49</v>
+        <v>-17.74</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2051,31 +2051,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.66</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>-2.21</v>
+        <v>0.46</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1</v>
+        <v>1.34</v>
       </c>
       <c r="E42" t="n">
-        <v>20.51</v>
+        <v>18</v>
       </c>
       <c r="F42" t="n">
-        <v>3.8</v>
+        <v>4.21</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.29</v>
+        <v>0.22</v>
       </c>
       <c r="H42" t="n">
-        <v>-21.32</v>
+        <v>-19.47</v>
       </c>
       <c r="I42" t="n">
-        <v>8.67</v>
+        <v>7.99</v>
       </c>
       <c r="J42" t="n">
-        <v>25.26</v>
+        <v>23.03</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2090,31 +2090,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.86</v>
+        <v>-0.08</v>
       </c>
       <c r="D43" t="n">
-        <v>-2.05</v>
+        <v>-0.84</v>
       </c>
       <c r="E43" t="n">
-        <v>9.77</v>
+        <v>8.66</v>
       </c>
       <c r="F43" t="n">
-        <v>5.89</v>
+        <v>5.03</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.15</v>
+        <v>-2.88</v>
       </c>
       <c r="H43" t="n">
-        <v>1.61</v>
+        <v>2.12</v>
       </c>
       <c r="I43" t="n">
-        <v>15.05</v>
+        <v>12.01</v>
       </c>
       <c r="J43" t="n">
-        <v>4.25</v>
+        <v>2.34</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2129,31 +2129,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>-3.34</v>
+        <v>-0.38</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.74</v>
+        <v>-6.3</v>
       </c>
       <c r="E44" t="n">
-        <v>-8.81</v>
+        <v>-11.25</v>
       </c>
       <c r="F44" t="n">
-        <v>-19.32</v>
+        <v>-18.26</v>
       </c>
       <c r="G44" t="n">
-        <v>-29.06</v>
+        <v>-28.02</v>
       </c>
       <c r="H44" t="n">
-        <v>-34.53</v>
+        <v>-35.11</v>
       </c>
       <c r="I44" t="n">
-        <v>-36.01</v>
+        <v>-37.54</v>
       </c>
       <c r="J44" t="n">
-        <v>-16.87</v>
+        <v>-16.78</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2168,31 +2168,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-1.01</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.11</v>
+        <v>0.45</v>
       </c>
       <c r="D45" t="n">
-        <v>4.22</v>
+        <v>4.69</v>
       </c>
       <c r="E45" t="n">
-        <v>8.69</v>
+        <v>8.68</v>
       </c>
       <c r="F45" t="n">
-        <v>7.73</v>
+        <v>7.66</v>
       </c>
       <c r="G45" t="n">
-        <v>12.8</v>
+        <v>15.61</v>
       </c>
       <c r="H45" t="n">
-        <v>1.79</v>
+        <v>3.57</v>
       </c>
       <c r="I45" t="n">
-        <v>22.54</v>
+        <v>22.26</v>
       </c>
       <c r="J45" t="n">
-        <v>49.2</v>
+        <v>49.39</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2207,31 +2207,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.66</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>-1.27</v>
+        <v>0.52</v>
       </c>
       <c r="D46" t="n">
-        <v>-2.39</v>
+        <v>-3.02</v>
       </c>
       <c r="E46" t="n">
-        <v>6.68</v>
+        <v>4.02</v>
       </c>
       <c r="F46" t="n">
-        <v>-3.64</v>
+        <v>-4.2</v>
       </c>
       <c r="G46" t="n">
-        <v>-12.19</v>
+        <v>-10.29</v>
       </c>
       <c r="H46" t="n">
-        <v>-13.54</v>
+        <v>-13.91</v>
       </c>
       <c r="I46" t="n">
-        <v>-3.62</v>
+        <v>-5.45</v>
       </c>
       <c r="J46" t="n">
-        <v>24.99</v>
+        <v>22.49</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2249,28 +2249,28 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.11</v>
+        <v>1.02</v>
       </c>
       <c r="D47" t="n">
-        <v>-3.1</v>
+        <v>-1.16</v>
       </c>
       <c r="E47" t="n">
-        <v>0.39</v>
+        <v>-2.66</v>
       </c>
       <c r="F47" t="n">
-        <v>-8.01</v>
+        <v>-7.45</v>
       </c>
       <c r="G47" t="n">
-        <v>-12.7</v>
+        <v>-10.77</v>
       </c>
       <c r="H47" t="n">
-        <v>-16.15</v>
+        <v>-16.59</v>
       </c>
       <c r="I47" t="n">
-        <v>-23.99</v>
+        <v>-24.44</v>
       </c>
       <c r="J47" t="n">
-        <v>-25.61</v>
+        <v>-26.16</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2285,31 +2285,31 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.19</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="D48" t="n">
-        <v>0.46</v>
+        <v>1.58</v>
       </c>
       <c r="E48" t="n">
-        <v>14.5</v>
+        <v>13.82</v>
       </c>
       <c r="F48" t="n">
-        <v>8.960000000000001</v>
+        <v>8.25</v>
       </c>
       <c r="G48" t="n">
-        <v>17.18</v>
+        <v>20.35</v>
       </c>
       <c r="H48" t="n">
-        <v>36.72</v>
+        <v>40.75</v>
       </c>
       <c r="I48" t="n">
-        <v>50.52</v>
+        <v>49.06</v>
       </c>
       <c r="J48" t="n">
-        <v>11.49</v>
+        <v>10.06</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2324,31 +2324,31 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-1.68</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
-        <v>-1.21</v>
+        <v>-0.76</v>
       </c>
       <c r="D49" t="n">
-        <v>-4.77</v>
+        <v>-5.19</v>
       </c>
       <c r="E49" t="n">
-        <v>3.77</v>
+        <v>2.03</v>
       </c>
       <c r="F49" t="n">
-        <v>-0.73</v>
+        <v>1.9</v>
       </c>
       <c r="G49" t="n">
-        <v>11.1</v>
+        <v>14.59</v>
       </c>
       <c r="H49" t="n">
-        <v>2.47</v>
+        <v>3.12</v>
       </c>
       <c r="I49" t="n">
-        <v>-27.91</v>
+        <v>-27.74</v>
       </c>
       <c r="J49" t="n">
-        <v>-13.94</v>
+        <v>-16.4</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2363,31 +2363,31 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-1.76</v>
+        <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>-2.59</v>
+        <v>-1.3</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.82</v>
+        <v>-7.17</v>
       </c>
       <c r="E50" t="n">
-        <v>2.11</v>
+        <v>-1.03</v>
       </c>
       <c r="F50" t="n">
-        <v>-16.41</v>
+        <v>-15.72</v>
       </c>
       <c r="G50" t="n">
-        <v>-16.1</v>
+        <v>-12.42</v>
       </c>
       <c r="H50" t="n">
-        <v>-2.1</v>
+        <v>2.16</v>
       </c>
       <c r="I50" t="n">
-        <v>-46.21</v>
+        <v>-46.97</v>
       </c>
       <c r="J50" t="n">
-        <v>-36.7</v>
+        <v>-37.83</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2405,28 +2405,28 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>0.21</v>
+        <v>-2.2</v>
       </c>
       <c r="D51" t="n">
-        <v>2.02</v>
+        <v>-5.4</v>
       </c>
       <c r="E51" t="n">
-        <v>15.01</v>
+        <v>10.67</v>
       </c>
       <c r="F51" t="n">
-        <v>8.4</v>
+        <v>4.43</v>
       </c>
       <c r="G51" t="n">
-        <v>13.64</v>
+        <v>14.12</v>
       </c>
       <c r="H51" t="n">
-        <v>-23.9</v>
+        <v>-24.52</v>
       </c>
       <c r="I51" t="n">
-        <v>-35.25</v>
+        <v>-38.31</v>
       </c>
       <c r="J51" t="n">
-        <v>-61.12</v>
+        <v>-62.61</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="D52" t="n">
-        <v>0.32</v>
+        <v>-0.18</v>
       </c>
       <c r="E52" t="n">
-        <v>16.16</v>
+        <v>13.41</v>
       </c>
       <c r="F52" t="n">
-        <v>3.64</v>
+        <v>2.12</v>
       </c>
       <c r="G52" t="n">
-        <v>10.05</v>
+        <v>10.21</v>
       </c>
       <c r="H52" t="n">
-        <v>6.69</v>
+        <v>6.75</v>
       </c>
       <c r="I52" t="n">
-        <v>-10.08</v>
+        <v>-12</v>
       </c>
       <c r="J52" t="n">
-        <v>7.63</v>
+        <v>6.32</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.42</v>
+        <v>0.98</v>
       </c>
       <c r="D53" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="E53" t="n">
-        <v>14.51</v>
+        <v>14.01</v>
       </c>
       <c r="F53" t="n">
-        <v>14.82</v>
+        <v>14.42</v>
       </c>
       <c r="G53" t="n">
-        <v>24.88</v>
+        <v>25.92</v>
       </c>
       <c r="H53" t="n">
-        <v>8.73</v>
+        <v>11.02</v>
       </c>
       <c r="I53" t="n">
-        <v>54.53</v>
+        <v>53.5</v>
       </c>
       <c r="J53" t="n">
-        <v>120.04</v>
+        <v>116.97</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2519,31 +2519,31 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-1.61</v>
+        <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>-3.68</v>
+        <v>-1.37</v>
       </c>
       <c r="D54" t="n">
-        <v>-9.09</v>
+        <v>-8.6</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.35</v>
+        <v>-17.17</v>
       </c>
       <c r="F54" t="n">
-        <v>-23.69</v>
+        <v>-24.84</v>
       </c>
       <c r="G54" t="n">
-        <v>-32.94</v>
+        <v>-30.49</v>
       </c>
       <c r="H54" t="n">
-        <v>-42.19</v>
+        <v>-42.24</v>
       </c>
       <c r="I54" t="n">
-        <v>-38.76</v>
+        <v>-40.13</v>
       </c>
       <c r="J54" t="n">
-        <v>-15.6</v>
+        <v>-15.89</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2561,25 +2561,25 @@
         <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.92</v>
+        <v>-2.7</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.9</v>
+        <v>-7.42</v>
       </c>
       <c r="E55" t="n">
-        <v>-12.55</v>
+        <v>-16.41</v>
       </c>
       <c r="F55" t="n">
-        <v>-22.42</v>
+        <v>-25.51</v>
       </c>
       <c r="G55" t="n">
-        <v>-31.51</v>
+        <v>-31.26</v>
       </c>
       <c r="H55" t="n">
-        <v>-41.26</v>
+        <v>-42.58</v>
       </c>
       <c r="I55" t="n">
-        <v>-5.59</v>
+        <v>-8.49</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
@@ -2598,28 +2598,28 @@
         <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>2.13</v>
+        <v>0.91</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-2.35</v>
       </c>
       <c r="E56" t="n">
-        <v>6.43</v>
+        <v>2.51</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.09</v>
+        <v>-4.38</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.41</v>
+        <v>-4.75</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.84</v>
+        <v>-4.79</v>
       </c>
       <c r="I56" t="n">
-        <v>-19.77</v>
+        <v>-20.33</v>
       </c>
       <c r="J56" t="n">
-        <v>-1.39</v>
+        <v>-5.24</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2634,31 +2634,31 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>4.09</v>
+        <v>5.28</v>
       </c>
       <c r="D57" t="n">
-        <v>-3.27</v>
+        <v>-0.43</v>
       </c>
       <c r="E57" t="n">
-        <v>7.87</v>
+        <v>-0.11</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.37</v>
+        <v>-3.42</v>
       </c>
       <c r="G57" t="n">
-        <v>-3.81</v>
+        <v>1.66</v>
       </c>
       <c r="H57" t="n">
-        <v>-14.8</v>
+        <v>-13.9</v>
       </c>
       <c r="I57" t="n">
-        <v>-2.22</v>
+        <v>-4.03</v>
       </c>
       <c r="J57" t="n">
-        <v>8.960000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2673,31 +2673,31 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.28</v>
+        <v>0.33</v>
       </c>
       <c r="D58" t="n">
-        <v>0.71</v>
+        <v>-1.16</v>
       </c>
       <c r="E58" t="n">
-        <v>1.82</v>
+        <v>-1.71</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.98</v>
+        <v>-0.84</v>
       </c>
       <c r="G58" t="n">
-        <v>-11.14</v>
+        <v>-9.779999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>-13.25</v>
+        <v>-13.18</v>
       </c>
       <c r="I58" t="n">
-        <v>-30.54</v>
+        <v>-31.69</v>
       </c>
       <c r="J58" t="n">
-        <v>-63.29</v>
+        <v>-64.08</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2712,31 +2712,31 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="C59" t="n">
-        <v>0.64</v>
+        <v>0.49</v>
       </c>
       <c r="D59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>10.75</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>1.84</v>
+        <v>1.99</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.25</v>
+        <v>-6.37</v>
       </c>
       <c r="H59" t="n">
-        <v>-18.67</v>
+        <v>-17.15</v>
       </c>
       <c r="I59" t="n">
-        <v>-23.8</v>
+        <v>-25.15</v>
       </c>
       <c r="J59" t="n">
-        <v>-11.9</v>
+        <v>-13.12</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2751,31 +2751,31 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>-1.65</v>
+        <v>0.25</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.71</v>
+        <v>0.83</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.76</v>
+        <v>-2.36</v>
       </c>
       <c r="F60" t="n">
-        <v>-3.73</v>
+        <v>-4.24</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H60" t="n">
-        <v>-31.72</v>
+        <v>-30.58</v>
       </c>
       <c r="I60" t="n">
-        <v>35.22</v>
+        <v>33.21</v>
       </c>
       <c r="J60" t="n">
-        <v>68.11</v>
+        <v>67.26000000000001</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2793,28 +2793,28 @@
         <v>0</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.43</v>
+        <v>1.46</v>
       </c>
       <c r="D61" t="n">
-        <v>-6.96</v>
+        <v>-5.5</v>
       </c>
       <c r="E61" t="n">
-        <v>-2.68</v>
+        <v>-3.92</v>
       </c>
       <c r="F61" t="n">
-        <v>-13.1</v>
+        <v>-11.52</v>
       </c>
       <c r="G61" t="n">
-        <v>-24.63</v>
+        <v>-21.97</v>
       </c>
       <c r="H61" t="n">
-        <v>-22.25</v>
+        <v>-22.38</v>
       </c>
       <c r="I61" t="n">
-        <v>-33.99</v>
+        <v>-34.32</v>
       </c>
       <c r="J61" t="n">
-        <v>-7.75</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2832,28 +2832,28 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>6.03</v>
+        <v>3.65</v>
       </c>
       <c r="D62" t="n">
-        <v>2.55</v>
+        <v>4.42</v>
       </c>
       <c r="E62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F62" t="n">
-        <v>10.95</v>
+        <v>11.22</v>
       </c>
       <c r="G62" t="n">
-        <v>34.03</v>
+        <v>42.77</v>
       </c>
       <c r="H62" t="n">
-        <v>5.98</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="I62" t="n">
-        <v>-6.84</v>
+        <v>-6.97</v>
       </c>
       <c r="J62" t="n">
-        <v>-18.25</v>
+        <v>-20.96</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>1.15</v>
+        <v>0.34</v>
       </c>
       <c r="D63" t="n">
-        <v>10.63</v>
+        <v>10.12</v>
       </c>
       <c r="E63" t="n">
-        <v>4.55</v>
+        <v>1.33</v>
       </c>
       <c r="F63" t="n">
-        <v>6.68</v>
+        <v>3.85</v>
       </c>
       <c r="G63" t="n">
-        <v>11.8</v>
+        <v>8.42</v>
       </c>
       <c r="H63" t="n">
-        <v>81.7</v>
+        <v>88.45999999999999</v>
       </c>
       <c r="I63" t="n">
-        <v>27.23</v>
+        <v>25.9</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.970000000000001</v>
+        <v>-14.76</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2910,28 +2910,28 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>1.55</v>
+        <v>-0.54</v>
       </c>
       <c r="D64" t="n">
-        <v>-2.18</v>
+        <v>-1.66</v>
       </c>
       <c r="E64" t="n">
-        <v>2.23</v>
+        <v>-3.03</v>
       </c>
       <c r="F64" t="n">
-        <v>-3.78</v>
+        <v>-5.93</v>
       </c>
       <c r="G64" t="n">
-        <v>-14.22</v>
+        <v>-12.16</v>
       </c>
       <c r="H64" t="n">
-        <v>-20.23</v>
+        <v>-21.84</v>
       </c>
       <c r="I64" t="n">
-        <v>-29.33</v>
+        <v>-31.56</v>
       </c>
       <c r="J64" t="n">
-        <v>-28.04</v>
+        <v>-31.3</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2949,28 +2949,28 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.87</v>
+        <v>0.13</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.58</v>
+        <v>-1.37</v>
       </c>
       <c r="E65" t="n">
-        <v>-4.75</v>
+        <v>-2.54</v>
       </c>
       <c r="F65" t="n">
-        <v>-2.94</v>
+        <v>-3.91</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.19</v>
+        <v>-2.4</v>
       </c>
       <c r="H65" t="n">
-        <v>21.77</v>
+        <v>21.22</v>
       </c>
       <c r="I65" t="n">
-        <v>28.53</v>
+        <v>28.22</v>
       </c>
       <c r="J65" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2985,31 +2985,31 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.32</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.2</v>
+        <v>-2.36</v>
       </c>
       <c r="D66" t="n">
-        <v>-5.49</v>
+        <v>-6.44</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.66</v>
+        <v>-13.46</v>
       </c>
       <c r="F66" t="n">
-        <v>-14.31</v>
+        <v>-16.44</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.38</v>
+        <v>-9.77</v>
       </c>
       <c r="H66" t="n">
-        <v>24.95</v>
+        <v>21.86</v>
       </c>
       <c r="I66" t="n">
-        <v>-15.59</v>
+        <v>-18.2</v>
       </c>
       <c r="J66" t="n">
-        <v>-67.5</v>
+        <v>-68.06</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3027,28 +3027,28 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.48</v>
+        <v>-1.71</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.18</v>
+        <v>-4.29</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.11</v>
+        <v>-9.01</v>
       </c>
       <c r="F67" t="n">
-        <v>-5.74</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.49</v>
+        <v>-1.15</v>
       </c>
       <c r="H67" t="n">
-        <v>18.2</v>
+        <v>16.82</v>
       </c>
       <c r="I67" t="n">
-        <v>7.65</v>
+        <v>7.3</v>
       </c>
       <c r="J67" t="n">
-        <v>-48.4</v>
+        <v>-49.18</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3063,31 +3063,31 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-1.29</v>
+        <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>0.34</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.8</v>
+        <v>-4.71</v>
       </c>
       <c r="E68" t="n">
-        <v>0.5</v>
+        <v>-0.34</v>
       </c>
       <c r="F68" t="n">
-        <v>-6.7</v>
+        <v>-3.91</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.89</v>
+        <v>-10.22</v>
       </c>
       <c r="H68" t="n">
-        <v>-10.86</v>
+        <v>-10.21</v>
       </c>
       <c r="I68" t="n">
-        <v>13.31</v>
+        <v>12.31</v>
       </c>
       <c r="J68" t="n">
-        <v>59.35</v>
+        <v>60.17</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3102,31 +3102,31 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="D69" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>8.17</v>
+        <v>7.71</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.76</v>
+        <v>-0.64</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="H69" t="n">
-        <v>-3.29</v>
+        <v>-2.27</v>
       </c>
       <c r="I69" t="n">
-        <v>39.57</v>
+        <v>38.45</v>
       </c>
       <c r="J69" t="n">
-        <v>86.26000000000001</v>
+        <v>84.87</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3144,25 +3144,25 @@
         <v>0</v>
       </c>
       <c r="C70" t="n">
-        <v>1.3</v>
+        <v>1.68</v>
       </c>
       <c r="D70" t="n">
-        <v>-2.19</v>
+        <v>-0.78</v>
       </c>
       <c r="E70" t="n">
-        <v>5.05</v>
+        <v>4.24</v>
       </c>
       <c r="F70" t="n">
-        <v>-9.82</v>
+        <v>-9.19</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.94</v>
+        <v>-9.289999999999999</v>
       </c>
       <c r="H70" t="n">
-        <v>-9.380000000000001</v>
+        <v>-8.050000000000001</v>
       </c>
       <c r="I70" t="n">
-        <v>25</v>
+        <v>25.41</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr">
@@ -3178,31 +3178,31 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="C71" t="n">
-        <v>0.25</v>
+        <v>3.74</v>
       </c>
       <c r="D71" t="n">
-        <v>-1.42</v>
+        <v>2.72</v>
       </c>
       <c r="E71" t="n">
         <v>10.53</v>
       </c>
       <c r="F71" t="n">
-        <v>3.52</v>
+        <v>3.36</v>
       </c>
       <c r="G71" t="n">
-        <v>11.83</v>
+        <v>17.33</v>
       </c>
       <c r="H71" t="n">
-        <v>-5.58</v>
+        <v>-3.84</v>
       </c>
       <c r="I71" t="n">
-        <v>62.92</v>
+        <v>62.83</v>
       </c>
       <c r="J71" t="n">
-        <v>185.48</v>
+        <v>186</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3217,31 +3217,31 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-1.57</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.88</v>
+        <v>2.67</v>
       </c>
       <c r="D72" t="n">
-        <v>0.19</v>
+        <v>4.2</v>
       </c>
       <c r="E72" t="n">
-        <v>25.51</v>
+        <v>25.98</v>
       </c>
       <c r="F72" t="n">
-        <v>12.38</v>
+        <v>14.82</v>
       </c>
       <c r="G72" t="n">
-        <v>30.98</v>
+        <v>37.65</v>
       </c>
       <c r="H72" t="n">
-        <v>26.4</v>
+        <v>34.63</v>
       </c>
       <c r="I72" t="n">
-        <v>158.7</v>
+        <v>160.13</v>
       </c>
       <c r="J72" t="n">
-        <v>209.55</v>
+        <v>211.95</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3256,31 +3256,31 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-1.18</v>
+        <v>0</v>
       </c>
       <c r="C73" t="n">
-        <v>-1.35</v>
+        <v>3.12</v>
       </c>
       <c r="D73" t="n">
-        <v>-3.72</v>
+        <v>1.93</v>
       </c>
       <c r="E73" t="n">
-        <v>15.32</v>
+        <v>14.93</v>
       </c>
       <c r="F73" t="n">
-        <v>4.13</v>
+        <v>6.01</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.58</v>
+        <v>-1.91</v>
       </c>
       <c r="H73" t="n">
-        <v>-13.5</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="I73" t="n">
-        <v>58.69</v>
+        <v>57.97</v>
       </c>
       <c r="J73" t="n">
-        <v>79.61</v>
+        <v>81.11</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3295,28 +3295,28 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.55</v>
+        <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>-1.47</v>
+        <v>0.47</v>
       </c>
       <c r="D74" t="n">
-        <v>-5.52</v>
+        <v>-2.49</v>
       </c>
       <c r="E74" t="n">
-        <v>11.37</v>
+        <v>10.63</v>
       </c>
       <c r="F74" t="n">
-        <v>0.63</v>
+        <v>3.35</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.68</v>
+        <v>-5.87</v>
       </c>
       <c r="H74" t="n">
-        <v>-20.13</v>
+        <v>-17.95</v>
       </c>
       <c r="I74" t="n">
-        <v>11.96</v>
+        <v>10.88</v>
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
@@ -3335,28 +3335,28 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>-2.21</v>
+        <v>1.81</v>
       </c>
       <c r="D75" t="n">
-        <v>-2.25</v>
+        <v>-0.08</v>
       </c>
       <c r="E75" t="n">
-        <v>17.53</v>
+        <v>15.1</v>
       </c>
       <c r="F75" t="n">
-        <v>6.89</v>
+        <v>6.35</v>
       </c>
       <c r="G75" t="n">
-        <v>-12.39</v>
+        <v>-9.17</v>
       </c>
       <c r="H75" t="n">
-        <v>-14.15</v>
+        <v>-12.44</v>
       </c>
       <c r="I75" t="n">
-        <v>13.22</v>
+        <v>14.13</v>
       </c>
       <c r="J75" t="n">
-        <v>44.91</v>
+        <v>44.99</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3374,28 +3374,28 @@
         <v>0</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.38</v>
       </c>
       <c r="D76" t="n">
-        <v>1.75</v>
+        <v>3.72</v>
       </c>
       <c r="E76" t="n">
-        <v>14</v>
+        <v>14.06</v>
       </c>
       <c r="F76" t="n">
-        <v>4.76</v>
+        <v>6.78</v>
       </c>
       <c r="G76" t="n">
-        <v>11.05</v>
+        <v>12.65</v>
       </c>
       <c r="H76" t="n">
-        <v>11.64</v>
+        <v>15.45</v>
       </c>
       <c r="I76" t="n">
-        <v>59.72</v>
+        <v>57.38</v>
       </c>
       <c r="J76" t="n">
-        <v>136.04</v>
+        <v>136.22</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3410,31 +3410,31 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="D77" t="n">
-        <v>-1.76</v>
+        <v>-0.17</v>
       </c>
       <c r="E77" t="n">
-        <v>9.220000000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F77" t="n">
-        <v>6.88</v>
+        <v>6.9</v>
       </c>
       <c r="G77" t="n">
-        <v>7.97</v>
+        <v>8.18</v>
       </c>
       <c r="H77" t="n">
-        <v>19.69</v>
+        <v>20.71</v>
       </c>
       <c r="I77" t="n">
-        <v>26.52</v>
+        <v>23.01</v>
       </c>
       <c r="J77" t="n">
-        <v>141.37</v>
+        <v>141.65</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3452,28 +3452,28 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>-1.89</v>
+        <v>2.56</v>
       </c>
       <c r="D78" t="n">
-        <v>-3.41</v>
+        <v>-0.49</v>
       </c>
       <c r="E78" t="n">
-        <v>14.56</v>
+        <v>14.49</v>
       </c>
       <c r="F78" t="n">
-        <v>-7.48</v>
+        <v>-5</v>
       </c>
       <c r="G78" t="n">
-        <v>-3.57</v>
+        <v>0.09</v>
       </c>
       <c r="H78" t="n">
-        <v>-8.74</v>
+        <v>-4.32</v>
       </c>
       <c r="I78" t="n">
-        <v>31.25</v>
+        <v>31.42</v>
       </c>
       <c r="J78" t="n">
-        <v>101.88</v>
+        <v>104.72</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3488,31 +3488,31 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.03</v>
+        <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="D79" t="n">
-        <v>2.44</v>
+        <v>2.06</v>
       </c>
       <c r="E79" t="n">
-        <v>12.13</v>
+        <v>10.7</v>
       </c>
       <c r="F79" t="n">
-        <v>6.46</v>
+        <v>7.24</v>
       </c>
       <c r="G79" t="n">
-        <v>6.82</v>
+        <v>7.61</v>
       </c>
       <c r="H79" t="n">
-        <v>6.61</v>
+        <v>7.32</v>
       </c>
       <c r="I79" t="n">
-        <v>56.65</v>
+        <v>57.14</v>
       </c>
       <c r="J79" t="n">
-        <v>159.13</v>
+        <v>157.74</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3530,28 +3530,28 @@
         <v>0</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.27</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>2.36</v>
+        <v>4.32</v>
       </c>
       <c r="E80" t="n">
-        <v>22.85</v>
+        <v>19.61</v>
       </c>
       <c r="F80" t="n">
-        <v>-10.33</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="G80" t="n">
-        <v>-15.57</v>
+        <v>-13.07</v>
       </c>
       <c r="H80" t="n">
-        <v>-17.67</v>
+        <v>-17.86</v>
       </c>
       <c r="I80" t="n">
-        <v>12.23</v>
+        <v>10.23</v>
       </c>
       <c r="J80" t="n">
-        <v>127.81</v>
+        <v>123.69</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3569,28 +3569,28 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.13</v>
+        <v>1.34</v>
       </c>
       <c r="D81" t="n">
-        <v>-2.13</v>
+        <v>0.19</v>
       </c>
       <c r="E81" t="n">
-        <v>10.82</v>
+        <v>8.93</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.84</v>
+        <v>-5.28</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.51</v>
+        <v>-3.05</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.87</v>
+        <v>-3.09</v>
       </c>
       <c r="I81" t="n">
-        <v>26.73</v>
+        <v>25.62</v>
       </c>
       <c r="J81" t="n">
-        <v>98.58</v>
+        <v>99.37</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3605,31 +3605,31 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.62</v>
+        <v>-0.09</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.04</v>
+        <v>-1.55</v>
       </c>
       <c r="E82" t="n">
-        <v>11.66</v>
+        <v>8.68</v>
       </c>
       <c r="F82" t="n">
-        <v>5.15</v>
+        <v>3.73</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.5</v>
+        <v>-0.42</v>
       </c>
       <c r="H82" t="n">
-        <v>-1.07</v>
+        <v>0.65</v>
       </c>
       <c r="I82" t="n">
-        <v>29.28</v>
+        <v>30.17</v>
       </c>
       <c r="J82" t="n">
-        <v>75.98999999999999</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3644,31 +3644,31 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.24</v>
+        <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>0.91</v>
+        <v>0.63</v>
       </c>
       <c r="D83" t="n">
-        <v>4.2</v>
+        <v>1.57</v>
       </c>
       <c r="E83" t="n">
-        <v>13.04</v>
+        <v>11.39</v>
       </c>
       <c r="F83" t="n">
-        <v>7.8</v>
+        <v>7.92</v>
       </c>
       <c r="G83" t="n">
-        <v>11.24</v>
+        <v>10.83</v>
       </c>
       <c r="H83" t="n">
-        <v>12.02</v>
+        <v>13.29</v>
       </c>
       <c r="I83" t="n">
-        <v>45.71</v>
+        <v>43.86</v>
       </c>
       <c r="J83" t="n">
-        <v>61.96</v>
+        <v>59.44</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3686,28 +3686,28 @@
         <v>0</v>
       </c>
       <c r="C84" t="n">
-        <v>-1.68</v>
+        <v>2.31</v>
       </c>
       <c r="D84" t="n">
-        <v>6.79</v>
+        <v>9.84</v>
       </c>
       <c r="E84" t="n">
-        <v>17.74</v>
+        <v>16.98</v>
       </c>
       <c r="F84" t="n">
-        <v>14.89</v>
+        <v>18.16</v>
       </c>
       <c r="G84" t="n">
-        <v>40.02</v>
+        <v>44.42</v>
       </c>
       <c r="H84" t="n">
-        <v>22.27</v>
+        <v>26.72</v>
       </c>
       <c r="I84" t="n">
-        <v>200.24</v>
+        <v>196.06</v>
       </c>
       <c r="J84" t="n">
-        <v>487.18</v>
+        <v>490.48</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3722,31 +3722,31 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
-        <v>-1.35</v>
+        <v>2.88</v>
       </c>
       <c r="D85" t="n">
-        <v>11.21</v>
+        <v>15.14</v>
       </c>
       <c r="E85" t="n">
-        <v>28.62</v>
+        <v>27.52</v>
       </c>
       <c r="F85" t="n">
-        <v>21.51</v>
+        <v>23.97</v>
       </c>
       <c r="G85" t="n">
-        <v>48.2</v>
+        <v>56.23</v>
       </c>
       <c r="H85" t="n">
-        <v>32.5</v>
+        <v>40.33</v>
       </c>
       <c r="I85" t="n">
-        <v>284.2</v>
+        <v>286.89</v>
       </c>
       <c r="J85" t="n">
-        <v>828.87</v>
+        <v>848.98</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3764,28 +3764,28 @@
         <v>0</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.32</v>
+        <v>1.55</v>
       </c>
       <c r="D86" t="n">
-        <v>2.32</v>
+        <v>5.92</v>
       </c>
       <c r="E86" t="n">
-        <v>22.3</v>
+        <v>20.65</v>
       </c>
       <c r="F86" t="n">
-        <v>9.1</v>
+        <v>10.58</v>
       </c>
       <c r="G86" t="n">
-        <v>14.59</v>
+        <v>20.08</v>
       </c>
       <c r="H86" t="n">
-        <v>1.34</v>
+        <v>2.57</v>
       </c>
       <c r="I86" t="n">
-        <v>74.48999999999999</v>
+        <v>70.59999999999999</v>
       </c>
       <c r="J86" t="n">
-        <v>247.93</v>
+        <v>247.89</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3821,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.38</v>
+        <v>-1.32</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
@@ -3837,31 +3837,31 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0.05</v>
+        <v>1.07</v>
       </c>
       <c r="D88" t="n">
-        <v>-2.85</v>
+        <v>-1.48</v>
       </c>
       <c r="E88" t="n">
-        <v>6.95</v>
+        <v>5.98</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.57</v>
+        <v>-0.57</v>
       </c>
       <c r="G88" t="n">
-        <v>-2.33</v>
+        <v>0.73</v>
       </c>
       <c r="H88" t="n">
-        <v>-3.56</v>
+        <v>-0.04</v>
       </c>
       <c r="I88" t="n">
-        <v>55.04</v>
+        <v>54.41</v>
       </c>
       <c r="J88" t="n">
-        <v>92.89</v>
+        <v>91.28</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3876,31 +3876,31 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>-1.26</v>
+        <v>0.26</v>
       </c>
       <c r="D89" t="n">
-        <v>-3.79</v>
+        <v>-1.44</v>
       </c>
       <c r="E89" t="n">
-        <v>12.61</v>
+        <v>12.97</v>
       </c>
       <c r="F89" t="n">
-        <v>10.28</v>
+        <v>10.95</v>
       </c>
       <c r="G89" t="n">
-        <v>-2.41</v>
+        <v>0.76</v>
       </c>
       <c r="H89" t="n">
-        <v>29.15</v>
+        <v>29.53</v>
       </c>
       <c r="I89" t="n">
-        <v>87.05</v>
+        <v>86.2</v>
       </c>
       <c r="J89" t="n">
-        <v>47.85</v>
+        <v>49.1</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3915,31 +3915,31 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-3.07</v>
+        <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.78</v>
+        <v>0.29</v>
       </c>
       <c r="D90" t="n">
-        <v>-7.92</v>
+        <v>-5.88</v>
       </c>
       <c r="E90" t="n">
-        <v>-0.42</v>
+        <v>-3.88</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.89</v>
+        <v>-5.21</v>
       </c>
       <c r="G90" t="n">
-        <v>-11.29</v>
+        <v>-7.25</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.130000000000001</v>
+        <v>-7.83</v>
       </c>
       <c r="I90" t="n">
-        <v>24.68</v>
+        <v>23.93</v>
       </c>
       <c r="J90" t="n">
-        <v>20.77</v>
+        <v>20.72</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3954,31 +3954,31 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-2.86</v>
+        <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>-2.75</v>
+        <v>0.75</v>
       </c>
       <c r="D91" t="n">
-        <v>-8.15</v>
+        <v>-5.19</v>
       </c>
       <c r="E91" t="n">
-        <v>6.39</v>
+        <v>2.4</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.11</v>
+        <v>-2.22</v>
       </c>
       <c r="G91" t="n">
-        <v>-15.63</v>
+        <v>-10.99</v>
       </c>
       <c r="H91" t="n">
-        <v>-23.19</v>
+        <v>-21.33</v>
       </c>
       <c r="I91" t="n">
-        <v>-5.25</v>
+        <v>-5.75</v>
       </c>
       <c r="J91" t="n">
-        <v>-29.19</v>
+        <v>-30.08</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3996,28 +3996,28 @@
         <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.36</v>
+        <v>-0.52</v>
       </c>
       <c r="D92" t="n">
-        <v>-4.67</v>
+        <v>-3.91</v>
       </c>
       <c r="E92" t="n">
-        <v>6.64</v>
+        <v>3.55</v>
       </c>
       <c r="F92" t="n">
-        <v>2.83</v>
+        <v>3.48</v>
       </c>
       <c r="G92" t="n">
-        <v>2.58</v>
+        <v>3.72</v>
       </c>
       <c r="H92" t="n">
-        <v>25.33</v>
+        <v>24.97</v>
       </c>
       <c r="I92" t="n">
-        <v>77.81</v>
+        <v>76.53</v>
       </c>
       <c r="J92" t="n">
-        <v>59.74</v>
+        <v>55.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4032,31 +4032,31 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.28</v>
+        <v>0.57</v>
       </c>
       <c r="D93" t="n">
-        <v>2.91</v>
+        <v>3.26</v>
       </c>
       <c r="E93" t="n">
-        <v>16.56</v>
+        <v>15.74</v>
       </c>
       <c r="F93" t="n">
-        <v>10.93</v>
+        <v>11.66</v>
       </c>
       <c r="G93" t="n">
-        <v>6</v>
+        <v>6.56</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.53</v>
+        <v>-2.79</v>
       </c>
       <c r="I93" t="n">
-        <v>49.17</v>
+        <v>49.41</v>
       </c>
       <c r="J93" t="n">
-        <v>133.01</v>
+        <v>131.7</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4074,28 +4074,28 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.07</v>
+        <v>1.45</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.2</v>
+        <v>2.03</v>
       </c>
       <c r="E94" t="n">
-        <v>18.68</v>
+        <v>17.94</v>
       </c>
       <c r="F94" t="n">
-        <v>11.47</v>
+        <v>12.46</v>
       </c>
       <c r="G94" t="n">
-        <v>8.51</v>
+        <v>11.27</v>
       </c>
       <c r="H94" t="n">
-        <v>4.75</v>
+        <v>5.43</v>
       </c>
       <c r="I94" t="n">
-        <v>92.48999999999999</v>
+        <v>91.16</v>
       </c>
       <c r="J94" t="n">
-        <v>121.77</v>
+        <v>121.52</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4110,31 +4110,31 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.92</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>-7.13</v>
+        <v>-1.72</v>
       </c>
       <c r="D95" t="n">
-        <v>-6.03</v>
+        <v>-3.63</v>
       </c>
       <c r="E95" t="n">
-        <v>16.55</v>
+        <v>16.09</v>
       </c>
       <c r="F95" t="n">
-        <v>5.07</v>
+        <v>5.06</v>
       </c>
       <c r="G95" t="n">
-        <v>-13.89</v>
+        <v>-11.68</v>
       </c>
       <c r="H95" t="n">
-        <v>-22.1</v>
+        <v>-21.93</v>
       </c>
       <c r="I95" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="J95" t="n">
-        <v>41.05</v>
+        <v>40.79</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4149,31 +4149,31 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-1.32</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
-        <v>-10.35</v>
+        <v>-2.68</v>
       </c>
       <c r="D96" t="n">
-        <v>-9.67</v>
+        <v>-6.5</v>
       </c>
       <c r="E96" t="n">
-        <v>12.89</v>
+        <v>12.49</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.91</v>
+        <v>-0.39</v>
       </c>
       <c r="G96" t="n">
-        <v>-26.54</v>
+        <v>-24.54</v>
       </c>
       <c r="H96" t="n">
-        <v>-34.45</v>
+        <v>-34.15</v>
       </c>
       <c r="I96" t="n">
-        <v>-11.05</v>
+        <v>-10.09</v>
       </c>
       <c r="J96" t="n">
-        <v>28.98</v>
+        <v>29.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4188,31 +4188,31 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.72</v>
+        <v>-0.61</v>
       </c>
       <c r="D97" t="n">
-        <v>4.91</v>
+        <v>4.24</v>
       </c>
       <c r="E97" t="n">
-        <v>11.47</v>
+        <v>11.46</v>
       </c>
       <c r="F97" t="n">
-        <v>16.19</v>
+        <v>16.54</v>
       </c>
       <c r="G97" t="n">
-        <v>15.43</v>
+        <v>14.09</v>
       </c>
       <c r="H97" t="n">
-        <v>21.86</v>
+        <v>21.69</v>
       </c>
       <c r="I97" t="n">
-        <v>69.55</v>
+        <v>69.03</v>
       </c>
       <c r="J97" t="n">
-        <v>150.42</v>
+        <v>147.32</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4227,31 +4227,31 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.31</v>
+        <v>0</v>
       </c>
       <c r="C98" t="n">
-        <v>0.16</v>
+        <v>1.32</v>
       </c>
       <c r="D98" t="n">
-        <v>1.81</v>
+        <v>3.14</v>
       </c>
       <c r="E98" t="n">
-        <v>13.45</v>
+        <v>13.31</v>
       </c>
       <c r="F98" t="n">
-        <v>8.84</v>
+        <v>10.2</v>
       </c>
       <c r="G98" t="n">
-        <v>12.77</v>
+        <v>14.16</v>
       </c>
       <c r="H98" t="n">
-        <v>7.83</v>
+        <v>10.13</v>
       </c>
       <c r="I98" t="n">
-        <v>53.27</v>
+        <v>52.16</v>
       </c>
       <c r="J98" t="n">
-        <v>150.06</v>
+        <v>150.63</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4269,28 +4269,28 @@
         <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.96</v>
+        <v>3.27</v>
       </c>
       <c r="D99" t="n">
-        <v>5.24</v>
+        <v>8.09</v>
       </c>
       <c r="E99" t="n">
-        <v>13.79</v>
+        <v>14.44</v>
       </c>
       <c r="F99" t="n">
-        <v>11.25</v>
+        <v>13.89</v>
       </c>
       <c r="G99" t="n">
-        <v>28.66</v>
+        <v>33.22</v>
       </c>
       <c r="H99" t="n">
-        <v>10.7</v>
+        <v>14.97</v>
       </c>
       <c r="I99" t="n">
-        <v>104.85</v>
+        <v>105.39</v>
       </c>
       <c r="J99" t="n">
-        <v>223.82</v>
+        <v>228.1</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4305,31 +4305,31 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.53</v>
+        <v>2.29</v>
       </c>
       <c r="D100" t="n">
-        <v>3.23</v>
+        <v>5.4</v>
       </c>
       <c r="E100" t="n">
-        <v>13.97</v>
+        <v>13.84</v>
       </c>
       <c r="F100" t="n">
-        <v>8.539999999999999</v>
+        <v>10.51</v>
       </c>
       <c r="G100" t="n">
-        <v>16.72</v>
+        <v>20.04</v>
       </c>
       <c r="H100" t="n">
-        <v>6.3</v>
+        <v>9.31</v>
       </c>
       <c r="I100" t="n">
-        <v>79.03</v>
+        <v>78.77</v>
       </c>
       <c r="J100" t="n">
-        <v>175.89</v>
+        <v>177.01</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4344,31 +4344,31 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-1.37</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>-3.33</v>
+        <v>0.79</v>
       </c>
       <c r="D101" t="n">
-        <v>-3.38</v>
+        <v>0.6</v>
       </c>
       <c r="E101" t="n">
-        <v>13.48</v>
+        <v>12.83</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.2</v>
+        <v>0.12</v>
       </c>
       <c r="G101" t="n">
-        <v>-2.8</v>
+        <v>0.14</v>
       </c>
       <c r="H101" t="n">
-        <v>-4.26</v>
+        <v>-2</v>
       </c>
       <c r="I101" t="n">
-        <v>29.22</v>
+        <v>28.65</v>
       </c>
       <c r="J101" t="n">
-        <v>77.42</v>
+        <v>78.93000000000001</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4383,31 +4383,31 @@
         </is>
       </c>
       <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="D102" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E102" t="n">
+        <v>14.96</v>
+      </c>
+      <c r="F102" t="n">
         <v>-0.9399999999999999</v>
       </c>
-      <c r="C102" t="n">
-        <v>-3.19</v>
-      </c>
-      <c r="D102" t="n">
-        <v>-3.08</v>
-      </c>
-      <c r="E102" t="n">
-        <v>17.07</v>
-      </c>
-      <c r="F102" t="n">
-        <v>-1.23</v>
-      </c>
       <c r="G102" t="n">
-        <v>-8.300000000000001</v>
+        <v>-7.2</v>
       </c>
       <c r="H102" t="n">
-        <v>-11.05</v>
+        <v>-10.15</v>
       </c>
       <c r="I102" t="n">
-        <v>22.6</v>
+        <v>21.03</v>
       </c>
       <c r="J102" t="n">
-        <v>54.35</v>
+        <v>55.09</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4422,31 +4422,31 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.67</v>
+        <v>3.66</v>
       </c>
       <c r="D103" t="n">
-        <v>6.54</v>
+        <v>9.81</v>
       </c>
       <c r="E103" t="n">
-        <v>14.33</v>
+        <v>14.96</v>
       </c>
       <c r="F103" t="n">
-        <v>10.5</v>
+        <v>13.51</v>
       </c>
       <c r="G103" t="n">
-        <v>24.56</v>
+        <v>28.27</v>
       </c>
       <c r="H103" t="n">
-        <v>0.89</v>
+        <v>5.22</v>
       </c>
       <c r="I103" t="n">
-        <v>95.33</v>
+        <v>96.04000000000001</v>
       </c>
       <c r="J103" t="n">
-        <v>237.3</v>
+        <v>239.56</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4461,28 +4461,28 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
       <c r="C104" t="n">
-        <v>-1.81</v>
+        <v>0.03</v>
       </c>
       <c r="D104" t="n">
-        <v>-3.1</v>
+        <v>-2.28</v>
       </c>
       <c r="E104" t="n">
-        <v>10.84</v>
+        <v>10.17</v>
       </c>
       <c r="F104" t="n">
-        <v>0.29</v>
+        <v>1.53</v>
       </c>
       <c r="G104" t="n">
-        <v>-10.77</v>
+        <v>-8.449999999999999</v>
       </c>
       <c r="H104" t="n">
-        <v>-11.41</v>
+        <v>-10.24</v>
       </c>
       <c r="I104" t="n">
-        <v>4.51</v>
+        <v>4.1</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr">
@@ -4498,31 +4498,31 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.38</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.09</v>
+        <v>0.73</v>
       </c>
       <c r="D105" t="n">
-        <v>0.17</v>
+        <v>0.99</v>
       </c>
       <c r="E105" t="n">
-        <v>12.9</v>
+        <v>11.8</v>
       </c>
       <c r="F105" t="n">
-        <v>6.7</v>
+        <v>7.46</v>
       </c>
       <c r="G105" t="n">
-        <v>9.91</v>
+        <v>12.41</v>
       </c>
       <c r="H105" t="n">
-        <v>12.33</v>
+        <v>13.88</v>
       </c>
       <c r="I105" t="n">
-        <v>59.19</v>
+        <v>58.16</v>
       </c>
       <c r="J105" t="n">
-        <v>116.41</v>
+        <v>115.71</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4537,31 +4537,31 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.49</v>
+        <v>0</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.2</v>
+        <v>0.49</v>
       </c>
       <c r="D106" t="n">
-        <v>-1.01</v>
+        <v>0.03</v>
       </c>
       <c r="E106" t="n">
-        <v>8.58</v>
+        <v>7.83</v>
       </c>
       <c r="F106" t="n">
-        <v>-1.44</v>
+        <v>-0.22</v>
       </c>
       <c r="G106" t="n">
-        <v>-6.03</v>
+        <v>-4.6</v>
       </c>
       <c r="H106" t="n">
-        <v>-2.52</v>
+        <v>-0.92</v>
       </c>
       <c r="I106" t="n">
-        <v>30.43</v>
+        <v>29.06</v>
       </c>
       <c r="J106" t="n">
-        <v>81.14</v>
+        <v>80.44</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4576,31 +4576,31 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.35</v>
+        <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.17</v>
+        <v>1.08</v>
       </c>
       <c r="D107" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="E107" t="n">
-        <v>10.91</v>
+        <v>10.43</v>
       </c>
       <c r="F107" t="n">
-        <v>5.3</v>
+        <v>6.92</v>
       </c>
       <c r="G107" t="n">
-        <v>9.69</v>
+        <v>11.48</v>
       </c>
       <c r="H107" t="n">
-        <v>5.09</v>
+        <v>7.4</v>
       </c>
       <c r="I107" t="n">
-        <v>67.13</v>
+        <v>65.84999999999999</v>
       </c>
       <c r="J107" t="n">
-        <v>148.75</v>
+        <v>148.41</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4615,31 +4615,31 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.59</v>
+        <v>-0.25</v>
       </c>
       <c r="D108" t="n">
-        <v>2.44</v>
+        <v>2.76</v>
       </c>
       <c r="E108" t="n">
-        <v>8.1</v>
+        <v>7.24</v>
       </c>
       <c r="F108" t="n">
-        <v>3.81</v>
+        <v>4.2</v>
       </c>
       <c r="G108" t="n">
-        <v>-5.62</v>
+        <v>-3.59</v>
       </c>
       <c r="H108" t="n">
-        <v>-14.52</v>
+        <v>-13</v>
       </c>
       <c r="I108" t="n">
-        <v>-10.99</v>
+        <v>-10.82</v>
       </c>
       <c r="J108" t="n">
-        <v>-15.25</v>
+        <v>-15.26</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4654,31 +4654,31 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.02</v>
+        <v>2.52</v>
       </c>
       <c r="D109" t="n">
-        <v>4.53</v>
+        <v>6.6</v>
       </c>
       <c r="E109" t="n">
-        <v>14.09</v>
+        <v>13.91</v>
       </c>
       <c r="F109" t="n">
-        <v>10.82</v>
+        <v>12.83</v>
       </c>
       <c r="G109" t="n">
-        <v>20.99</v>
+        <v>24.79</v>
       </c>
       <c r="H109" t="n">
-        <v>10.59</v>
+        <v>15.68</v>
       </c>
       <c r="I109" t="n">
-        <v>82.95</v>
+        <v>82.47</v>
       </c>
       <c r="J109" t="n">
-        <v>188.75</v>
+        <v>190.37</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4693,31 +4693,31 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
-        <v>0.85</v>
+        <v>4.37</v>
       </c>
       <c r="D110" t="n">
-        <v>10.69</v>
+        <v>13.27</v>
       </c>
       <c r="E110" t="n">
-        <v>19.95</v>
+        <v>19.65</v>
       </c>
       <c r="F110" t="n">
-        <v>18.12</v>
+        <v>19.9</v>
       </c>
       <c r="G110" t="n">
-        <v>20.69</v>
+        <v>22.32</v>
       </c>
       <c r="H110" t="n">
-        <v>1.11</v>
+        <v>3.64</v>
       </c>
       <c r="I110" t="n">
-        <v>59.49</v>
+        <v>61.17</v>
       </c>
       <c r="J110" t="n">
-        <v>198.74</v>
+        <v>200.68</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4732,28 +4732,28 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.33</v>
+        <v>2.31</v>
       </c>
       <c r="D111" t="n">
-        <v>3.47</v>
+        <v>5.55</v>
       </c>
       <c r="E111" t="n">
-        <v>14.18</v>
+        <v>13.9</v>
       </c>
       <c r="F111" t="n">
-        <v>8.779999999999999</v>
+        <v>10.48</v>
       </c>
       <c r="G111" t="n">
-        <v>16.39</v>
+        <v>19.58</v>
       </c>
       <c r="H111" t="n">
-        <v>4.89</v>
+        <v>7.84</v>
       </c>
       <c r="I111" t="n">
-        <v>82.13</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr">
@@ -4769,25 +4769,25 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.34</v>
+        <v>0</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.79</v>
+        <v>2.23</v>
       </c>
       <c r="D112" t="n">
-        <v>3.86</v>
+        <v>6.04</v>
       </c>
       <c r="E112" t="n">
-        <v>14.98</v>
+        <v>14.44</v>
       </c>
       <c r="F112" t="n">
-        <v>10.81</v>
+        <v>12.44</v>
       </c>
       <c r="G112" t="n">
-        <v>20.21</v>
+        <v>23.52</v>
       </c>
       <c r="H112" t="n">
-        <v>8.210000000000001</v>
+        <v>11.38</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4804,28 +4804,28 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-1.05</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.62</v>
+        <v>1.03</v>
       </c>
       <c r="D113" t="n">
-        <v>-2.56</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>13.73</v>
+        <v>13.32</v>
       </c>
       <c r="F113" t="n">
-        <v>0.38</v>
+        <v>1.61</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.73</v>
+        <v>1.12</v>
       </c>
       <c r="H113" t="n">
-        <v>-1.58</v>
+        <v>0.54</v>
       </c>
       <c r="I113" t="n">
-        <v>44.39</v>
+        <v>43.85</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr">
@@ -4841,31 +4841,31 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.58</v>
+        <v>0</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.1</v>
+        <v>1.79</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.33</v>
+        <v>3.45</v>
       </c>
       <c r="E114" t="n">
-        <v>22.15</v>
+        <v>21.36</v>
       </c>
       <c r="F114" t="n">
-        <v>4.15</v>
+        <v>6.72</v>
       </c>
       <c r="G114" t="n">
-        <v>5.16</v>
+        <v>10.09</v>
       </c>
       <c r="H114" t="n">
-        <v>6.45</v>
+        <v>9.66</v>
       </c>
       <c r="I114" t="n">
-        <v>101.8</v>
+        <v>102.52</v>
       </c>
       <c r="J114" t="n">
-        <v>182.56</v>
+        <v>183.6</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4880,31 +4880,31 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>3.77</v>
+        <v>0.38</v>
       </c>
       <c r="D115" t="n">
-        <v>6.96</v>
+        <v>4.01</v>
       </c>
       <c r="E115" t="n">
-        <v>-11.62</v>
+        <v>-12.03</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.42</v>
+        <v>-0.91</v>
       </c>
       <c r="G115" t="n">
-        <v>-2.88</v>
+        <v>-5.39</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.42</v>
+        <v>-0.59</v>
       </c>
       <c r="I115" t="n">
-        <v>-12.79</v>
+        <v>-13.24</v>
       </c>
       <c r="J115" t="n">
-        <v>-3.19</v>
+        <v>-3.46</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4919,31 +4919,31 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>0.87</v>
+        <v>0.54</v>
       </c>
       <c r="D116" t="n">
         <v>0.87</v>
       </c>
       <c r="E116" t="n">
-        <v>7.07</v>
+        <v>6</v>
       </c>
       <c r="F116" t="n">
-        <v>1.01</v>
+        <v>2.24</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H116" t="n">
-        <v>-3.06</v>
+        <v>-2.13</v>
       </c>
       <c r="I116" t="n">
-        <v>28.26</v>
+        <v>26.72</v>
       </c>
       <c r="J116" t="n">
-        <v>101.77</v>
+        <v>100.51</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>3.22</v>
+        <v>2.57</v>
       </c>
       <c r="D117" t="n">
-        <v>-1.73</v>
+        <v>0.27</v>
       </c>
       <c r="E117" t="n">
-        <v>5.36</v>
+        <v>5.83</v>
       </c>
       <c r="F117" t="n">
-        <v>-3.78</v>
+        <v>-1.92</v>
       </c>
       <c r="G117" t="n">
-        <v>-4.35</v>
+        <v>-5.37</v>
       </c>
       <c r="H117" t="n">
-        <v>-42.47</v>
+        <v>-41.63</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4993,25 +4993,25 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.43</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.53</v>
+        <v>0.2</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.88</v>
+        <v>-2.27</v>
       </c>
       <c r="E118" t="n">
-        <v>0.26</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F118" t="n">
-        <v>-3.72</v>
+        <v>-5.86</v>
       </c>
       <c r="G118" t="n">
-        <v>-6.91</v>
+        <v>-5.63</v>
       </c>
       <c r="H118" t="n">
-        <v>-2.7</v>
+        <v>-2.42</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -5028,31 +5028,31 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.51</v>
+        <v>-0.39</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.78</v>
+        <v>0.54</v>
       </c>
       <c r="E119" t="n">
-        <v>5.78</v>
+        <v>5.81</v>
       </c>
       <c r="F119" t="n">
-        <v>1.92</v>
+        <v>1.62</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.3</v>
+        <v>0.65</v>
       </c>
       <c r="H119" t="n">
-        <v>-17.27</v>
+        <v>-16.01</v>
       </c>
       <c r="I119" t="n">
-        <v>-19.43</v>
+        <v>-19.55</v>
       </c>
       <c r="J119" t="n">
-        <v>-18</v>
+        <v>-18.64</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5070,28 +5070,28 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>0.64</v>
+        <v>-0.19</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.82</v>
+        <v>-1.18</v>
       </c>
       <c r="E120" t="n">
-        <v>3.48</v>
+        <v>1.55</v>
       </c>
       <c r="F120" t="n">
-        <v>-2.61</v>
+        <v>-3.07</v>
       </c>
       <c r="G120" t="n">
-        <v>-0.63</v>
+        <v>1.47</v>
       </c>
       <c r="H120" t="n">
-        <v>-8.859999999999999</v>
+        <v>-9.529999999999999</v>
       </c>
       <c r="I120" t="n">
-        <v>-20.22</v>
+        <v>-20.75</v>
       </c>
       <c r="J120" t="n">
-        <v>-22.73</v>
+        <v>-23.95</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5106,31 +5106,31 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.93</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>0.05</v>
+        <v>-0.5</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.28</v>
+        <v>0.88</v>
       </c>
       <c r="E121" t="n">
-        <v>8.08</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="F121" t="n">
-        <v>3.63</v>
+        <v>3.51</v>
       </c>
       <c r="G121" t="n">
-        <v>-1.98</v>
+        <v>-0.06</v>
       </c>
       <c r="H121" t="n">
-        <v>-14.2</v>
+        <v>-12.62</v>
       </c>
       <c r="I121" t="n">
-        <v>-5.51</v>
+        <v>-5.74</v>
       </c>
       <c r="J121" t="n">
-        <v>-6.12</v>
+        <v>-5.34</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5148,25 +5148,25 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.19</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E122" t="n">
-        <v>2.19</v>
+        <v>2.16</v>
       </c>
       <c r="F122" t="n">
-        <v>1.46</v>
+        <v>0.66</v>
       </c>
       <c r="G122" t="n">
-        <v>1.04</v>
+        <v>0.57</v>
       </c>
       <c r="H122" t="n">
-        <v>-0.41</v>
+        <v>-0.43</v>
       </c>
       <c r="I122" t="n">
-        <v>0.28</v>
+        <v>-0.26</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr">
@@ -5182,31 +5182,31 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.46</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.8</v>
+        <v>-0.37</v>
       </c>
       <c r="D123" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="E123" t="n">
-        <v>4.74</v>
+        <v>4.16</v>
       </c>
       <c r="F123" t="n">
-        <v>3.67</v>
+        <v>3.4</v>
       </c>
       <c r="G123" t="n">
-        <v>-0.03</v>
+        <v>1.7</v>
       </c>
       <c r="H123" t="n">
-        <v>-9.050000000000001</v>
+        <v>-7.85</v>
       </c>
       <c r="I123" t="n">
-        <v>-8.859999999999999</v>
+        <v>-9.380000000000001</v>
       </c>
       <c r="J123" t="n">
-        <v>-16.57</v>
+        <v>-16.66</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5224,25 +5224,25 @@
         <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.22</v>
+        <v>-0.31</v>
       </c>
       <c r="D124" t="n">
-        <v>0.9</v>
+        <v>0.51</v>
       </c>
       <c r="E124" t="n">
-        <v>2.54</v>
+        <v>1.6</v>
       </c>
       <c r="F124" t="n">
-        <v>1.89</v>
+        <v>1.35</v>
       </c>
       <c r="G124" t="n">
-        <v>0.53</v>
+        <v>0.43</v>
       </c>
       <c r="H124" t="n">
-        <v>-2.23</v>
+        <v>-2.17</v>
       </c>
       <c r="I124" t="n">
-        <v>-4.61</v>
+        <v>-5.34</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr">

--- a/stocksPercentage.xlsx
+++ b/stocksPercentage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K124"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,45 +446,80 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>5D</t>
+          <t>1Ddesvios</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>1W</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1Wdesvios</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>1M</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1Mdesvios</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>3M</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>3Mdesvios</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>QTD</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>YTD</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>6M</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>1Y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>2Y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>5Y</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>10Y</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>3Y</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2022/12/9</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
@@ -497,33 +532,54 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.054037478712489</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-20.39648735926891</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="N2" t="n">
         <v>0.4</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="F2" t="n">
-        <v>-1.24</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="I2" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="J2" t="n">
-        <v>28.46</v>
-      </c>
-      <c r="K2" t="inlineStr">
+      <c r="O2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="R2" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -536,33 +592,54 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.39</v>
+        <v>0.4</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.37</v>
+        <v>-0.4</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.17</v>
+        <v>-0.3</v>
       </c>
       <c r="F3" t="n">
-        <v>-5.51</v>
+        <v>-1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.81</v>
+        <v>-3.304585335086611</v>
       </c>
       <c r="H3" t="n">
-        <v>-11.24</v>
+        <v>-3</v>
       </c>
       <c r="I3" t="n">
-        <v>-14.2</v>
+        <v>-16.61484430090078</v>
       </c>
       <c r="J3" t="n">
-        <v>-32.71</v>
-      </c>
-      <c r="K3" t="inlineStr">
+        <v>-0.4</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="O3" t="n">
+        <v>-11.3</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-16.3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-2</v>
+      </c>
+      <c r="R3" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -575,33 +652,54 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.51</v>
+        <v>0.7</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.62</v>
+        <v>-0.3</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.35</v>
+        <v>-0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.62</v>
+        <v>-0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>2.21</v>
+        <v>-2.594997347024046</v>
       </c>
       <c r="H4" t="n">
-        <v>0.86</v>
+        <v>-0.6</v>
       </c>
       <c r="I4" t="n">
-        <v>-5.73</v>
+        <v>-16.1083050979782</v>
       </c>
       <c r="J4" t="n">
-        <v>-10.3</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>-0.3</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -614,33 +712,54 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.83</v>
+        <v>-0.4</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.99</v>
+        <v>-0</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.18</v>
+        <v>-0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.96</v>
+        <v>0.775656166356012</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83</v>
+        <v>-1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>31.7</v>
+        <v>-2.898502711739434</v>
       </c>
       <c r="J5" t="n">
-        <v>20.17</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>-0.4</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -653,33 +772,54 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="C6" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.39</v>
-      </c>
       <c r="E6" t="n">
-        <v>2.87</v>
+        <v>-0.1</v>
       </c>
       <c r="F6" t="n">
-        <v>4.67</v>
+        <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>8.51</v>
+        <v>1.232242661619169</v>
       </c>
       <c r="H6" t="n">
-        <v>11.7</v>
+        <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>51.76</v>
+        <v>6.965486923322978</v>
       </c>
       <c r="J6" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="N6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="O6" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="P6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -692,33 +832,54 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.77</v>
+        <v>0.2</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.17</v>
+        <v>-2.4</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.57</v>
+        <v>-0.9</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.2</v>
+        <v>-2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>1.32</v>
+        <v>-1.299608898503133</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.19</v>
+        <v>-1.2</v>
       </c>
       <c r="I7" t="n">
-        <v>39.54</v>
+        <v>-2.178099004435924</v>
       </c>
       <c r="J7" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>-2.4</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-3.8</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-18.2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -731,33 +892,54 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.56</v>
+        <v>0.3</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.35</v>
+        <v>-3.8</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.64</v>
+        <v>-1.4</v>
       </c>
       <c r="F8" t="n">
-        <v>-3.44</v>
+        <v>-4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.550000000000001</v>
+        <v>-1.837232560228908</v>
       </c>
       <c r="H8" t="n">
-        <v>-13.98</v>
+        <v>1.2</v>
       </c>
       <c r="I8" t="n">
-        <v>5.79</v>
+        <v>6.956030910573102</v>
       </c>
       <c r="J8" t="n">
-        <v>-39.01</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>-3.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="O8" t="n">
+        <v>-14.8</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-23.1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="R8" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -770,33 +952,54 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.46</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.03</v>
+        <v>-1.6</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F9" t="n">
-        <v>-14.16</v>
+        <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.54</v>
+        <v>-0.4344236781373605</v>
       </c>
       <c r="H9" t="n">
-        <v>-3.41</v>
+        <v>-7.6</v>
       </c>
       <c r="I9" t="n">
-        <v>39.91</v>
+        <v>-13.92208943450228</v>
       </c>
       <c r="J9" t="n">
-        <v>-32.21</v>
-      </c>
-      <c r="K9" t="inlineStr">
+        <v>-1.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-7.9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>59.6</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -809,33 +1012,54 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.59</v>
+        <v>0.2</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.76</v>
+        <v>-1.8</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.44</v>
+        <v>-0.5</v>
       </c>
       <c r="F10" t="n">
-        <v>-14.19</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-3.25</v>
+        <v>-0.04174185122895829</v>
       </c>
       <c r="H10" t="n">
-        <v>-10.39</v>
+        <v>-8.1</v>
       </c>
       <c r="I10" t="n">
-        <v>40.97</v>
+        <v>-16.33931459129423</v>
       </c>
       <c r="J10" t="n">
-        <v>-48.22</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>-1.8</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-12.7</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-4.1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>-8.800000000000001</v>
+      </c>
+      <c r="P10" t="n">
+        <v>44.6</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R10" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -848,33 +1072,54 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="E11" t="n">
         <v>0</v>
       </c>
-      <c r="C11" t="n">
-        <v>-1.38</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-17.12</v>
-      </c>
-      <c r="E11" t="n">
-        <v>-29.03</v>
-      </c>
       <c r="F11" t="n">
-        <v>-30.36</v>
+        <v>-25.3</v>
       </c>
       <c r="G11" t="n">
-        <v>-43.06</v>
+        <v>-5.586201932745458</v>
       </c>
       <c r="H11" t="n">
-        <v>-69.44</v>
+        <v>-29.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-79.8</v>
+        <v>-3.05818212550991</v>
       </c>
       <c r="J11" t="n">
-        <v>-95.22</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>-6.4</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="L11" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-48.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>-69.40000000000001</v>
+      </c>
+      <c r="P11" t="n">
+        <v>-56.4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-76.2</v>
+      </c>
+      <c r="R11" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -887,33 +1132,54 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.03</v>
+        <v>0.5</v>
       </c>
       <c r="D12" t="n">
-        <v>-1.08</v>
+        <v>-3.6</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.5</v>
+        <v>-1.5</v>
       </c>
       <c r="F12" t="n">
-        <v>-7.01</v>
+        <v>-1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>-16.39</v>
+        <v>-0.954146571004585</v>
       </c>
       <c r="H12" t="n">
-        <v>-25.52</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>5.52</v>
+        <v>-9.291949055215234</v>
       </c>
       <c r="J12" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>-3.6</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="L12" t="n">
+        <v>-6.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-18.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>-27.1</v>
+      </c>
+      <c r="P12" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-16.5</v>
+      </c>
+      <c r="R12" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -926,33 +1192,54 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="C13" t="n">
-        <v>-1.65</v>
+        <v>0.3</v>
       </c>
       <c r="D13" t="n">
-        <v>0.59</v>
+        <v>-3.6</v>
       </c>
       <c r="E13" t="n">
-        <v>2.81</v>
+        <v>-2.1</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.42</v>
+        <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.02</v>
+        <v>-1.148969319008672</v>
       </c>
       <c r="H13" t="n">
-        <v>-13.33</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>34.86</v>
+        <v>2.347167977619789</v>
       </c>
       <c r="J13" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>-3.6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="L13" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-5.7</v>
+      </c>
+      <c r="O13" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="R13" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -965,33 +1252,54 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="C14" t="n">
-        <v>-3.41</v>
+        <v>0.2</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.039999999999999</v>
+        <v>-8.1</v>
       </c>
       <c r="E14" t="n">
-        <v>-14.83</v>
+        <v>-0.7</v>
       </c>
       <c r="F14" t="n">
-        <v>-25.1</v>
+        <v>-10</v>
       </c>
       <c r="G14" t="n">
-        <v>-41.43</v>
+        <v>-1.17082546186227</v>
       </c>
       <c r="H14" t="n">
-        <v>-59.06</v>
+        <v>-14.6</v>
       </c>
       <c r="I14" t="n">
-        <v>-33.53</v>
+        <v>2.401462666174175</v>
       </c>
       <c r="J14" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>-8.1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-27.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-45.9</v>
+      </c>
+      <c r="O14" t="n">
+        <v>-60.6</v>
+      </c>
+      <c r="P14" t="n">
+        <v>-62.1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-54.1</v>
+      </c>
+      <c r="R14" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1004,33 +1312,54 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="D15" t="n">
-        <v>5.44</v>
+        <v>1.1</v>
       </c>
       <c r="E15" t="n">
-        <v>-3.38</v>
+        <v>0.5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.28</v>
+        <v>6.1</v>
       </c>
       <c r="G15" t="n">
-        <v>8.449999999999999</v>
+        <v>4.810238158519128</v>
       </c>
       <c r="H15" t="n">
-        <v>5.39</v>
+        <v>-1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>27.12</v>
+        <v>-15.64778947474537</v>
       </c>
       <c r="J15" t="n">
-        <v>-14.47</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>1.1</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="L15" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N15" t="n">
+        <v>9</v>
+      </c>
+      <c r="O15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="R15" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1039,37 +1368,58 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NIB</t>
+          <t>WEAT</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="G16" t="n">
-        <v>29.42</v>
+        <v>-0.5668063030839171</v>
       </c>
       <c r="H16" t="n">
-        <v>17.79</v>
+        <v>-4</v>
       </c>
       <c r="I16" t="n">
-        <v>41.59</v>
+        <v>4.439145605351345</v>
       </c>
       <c r="J16" t="n">
-        <v>-5.07</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>-0.1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="L16" t="n">
+        <v>-4.9</v>
+      </c>
+      <c r="M16" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-26</v>
+      </c>
+      <c r="O16" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="P16" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>-23.8</v>
+      </c>
+      <c r="R16" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1078,37 +1428,58 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>WEAT</t>
+          <t>CANE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.72</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.21</v>
+        <v>0.1</v>
       </c>
       <c r="F17" t="n">
-        <v>-12.14</v>
+        <v>10.5</v>
       </c>
       <c r="G17" t="n">
-        <v>-25.13</v>
+        <v>3.781136163609776</v>
       </c>
       <c r="H17" t="n">
-        <v>-22.49</v>
+        <v>-7.1</v>
       </c>
       <c r="I17" t="n">
-        <v>-6.23</v>
+        <v>-25.46201785581114</v>
       </c>
       <c r="J17" t="n">
-        <v>-60.28</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0.5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>6</v>
+      </c>
+      <c r="N17" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>57.9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>94.90000000000001</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>49</v>
+      </c>
+      <c r="R17" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1117,37 +1488,58 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CANE</t>
+          <t>CORN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.14</v>
+        <v>-0.4</v>
       </c>
       <c r="D18" t="n">
-        <v>10.33</v>
+        <v>-1.8</v>
       </c>
       <c r="E18" t="n">
-        <v>-10.34</v>
+        <v>-0.9</v>
       </c>
       <c r="F18" t="n">
-        <v>5.71</v>
+        <v>-4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>38.8</v>
+        <v>-1.6179413755044</v>
       </c>
       <c r="H18" t="n">
-        <v>56.48</v>
+        <v>-8.9</v>
       </c>
       <c r="I18" t="n">
-        <v>84.56999999999999</v>
+        <v>-4.931136112562074</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.57</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>-1.8</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-11</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-24</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-12.6</v>
+      </c>
+      <c r="P18" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>-21.7</v>
+      </c>
+      <c r="R18" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1156,35 +1548,58 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>SOYB</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>-1.2</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>6.24</v>
+        <v>-2.19949923131542</v>
       </c>
       <c r="H19" t="n">
-        <v>-18.17</v>
+        <v>-11.9</v>
       </c>
       <c r="I19" t="n">
-        <v>39.68</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
+        <v>-18.10206393067189</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="P19" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="R19" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1193,189 +1608,298 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>CORN</t>
+          <t>SPY</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.83</v>
+        <v>0.3</v>
       </c>
       <c r="D20" t="n">
-        <v>-4.1</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.619999999999999</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>-10.47</v>
+        <v>4.3</v>
       </c>
       <c r="G20" t="n">
-        <v>-23.63</v>
+        <v>2.166662896424223</v>
       </c>
       <c r="H20" t="n">
-        <v>-9.75</v>
+        <v>13.7</v>
       </c>
       <c r="I20" t="n">
-        <v>24.68</v>
+        <v>7.394777441240362</v>
       </c>
       <c r="J20" t="n">
-        <v>-35.39</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>Commodities</t>
+        <v>3</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="M20" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N20" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Equity DMs</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>SOYB</t>
+          <t>EWC</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.6</v>
+        <v>0.7</v>
       </c>
       <c r="D21" t="n">
-        <v>-4.28</v>
+        <v>-0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>-11.95</v>
+        <v>-0.7</v>
       </c>
       <c r="F21" t="n">
-        <v>-10.11</v>
+        <v>-0.8</v>
       </c>
       <c r="G21" t="n">
-        <v>-10.69</v>
+        <v>-2.166016465517516</v>
       </c>
       <c r="H21" t="n">
-        <v>-2.83</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>50.51</v>
+        <v>10.9315576762388</v>
       </c>
       <c r="J21" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Commodities</t>
+        <v>-0.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="P21" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Equity DMs</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>EWO</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>-2.5</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="G22" t="n">
-        <v>2.63</v>
+        <v>-4.339407526856816</v>
       </c>
       <c r="H22" t="n">
-        <v>-14.99</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>35.79</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Commodities</t>
+        <v>-0.8246258785427435</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="P22" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Equity DMs</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>COW</t>
+          <t>EWK</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
       <c r="G23" t="n">
-        <v>2.56</v>
+        <v>-3.032959380907283</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.67</v>
+        <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>-18.51</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Commodities</t>
+        <v>0.1984283047138535</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="L23" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="M23" t="n">
+        <v>-2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>-10.8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>-9.800000000000001</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>Equity DMs</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>SPY</t>
+          <t>EDEN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C24" t="n">
-        <v>2.38</v>
+        <v>0.5</v>
       </c>
       <c r="D24" t="n">
-        <v>5.65</v>
+        <v>1.4</v>
       </c>
       <c r="E24" t="n">
-        <v>13.46</v>
+        <v>-0.3</v>
       </c>
       <c r="F24" t="n">
-        <v>10.64</v>
+        <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>20.62</v>
+        <v>-0.6960942117900387</v>
       </c>
       <c r="H24" t="n">
-        <v>10.17</v>
+        <v>15.3</v>
       </c>
       <c r="I24" t="n">
-        <v>81.01000000000001</v>
+        <v>12.82463219966878</v>
       </c>
       <c r="J24" t="n">
-        <v>182.21</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>1.4</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M24" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>22</v>
+      </c>
+      <c r="R24" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1384,37 +1908,58 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>EWC</t>
+          <t>EFNL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="D25" t="n">
-        <v>0.05</v>
+        <v>-2.3</v>
       </c>
       <c r="E25" t="n">
-        <v>8.210000000000001</v>
+        <v>-1.2</v>
       </c>
       <c r="F25" t="n">
-        <v>4.51</v>
+        <v>-4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>3.59</v>
+        <v>-3.438881457342703</v>
       </c>
       <c r="H25" t="n">
-        <v>-5.21</v>
+        <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>33</v>
+        <v>3.702618562895041</v>
       </c>
       <c r="J25" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>-2.3</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="N25" t="n">
+        <v>-12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-24.8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>-24.9</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>-9.9</v>
+      </c>
+      <c r="R25" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1423,37 +1968,58 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>EWO</t>
+          <t>EWQ</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.14</v>
+        <v>0.7</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.31</v>
+        <v>-0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>4.6</v>
+        <v>-0.9</v>
       </c>
       <c r="F26" t="n">
-        <v>2.27</v>
+        <v>0.6</v>
       </c>
       <c r="G26" t="n">
-        <v>2.27</v>
+        <v>-0.2635717806552918</v>
       </c>
       <c r="H26" t="n">
-        <v>-19.09</v>
+        <v>8.5</v>
       </c>
       <c r="I26" t="n">
-        <v>5.22</v>
+        <v>8.304923748315357</v>
       </c>
       <c r="J26" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>-0.6</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="L26" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="P26" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="R26" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1462,37 +2028,58 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>EWK</t>
+          <t>EWG</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.55</v>
+        <v>0.6</v>
       </c>
       <c r="D27" t="n">
-        <v>-3.32</v>
+        <v>0.3</v>
       </c>
       <c r="E27" t="n">
-        <v>3.03</v>
+        <v>-0.6</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.91</v>
+        <v>-0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.38</v>
+        <v>-0.2108580981764167</v>
       </c>
       <c r="H27" t="n">
-        <v>-12.31</v>
+        <v>11.1</v>
       </c>
       <c r="I27" t="n">
-        <v>0.67</v>
+        <v>18.06327145463541</v>
       </c>
       <c r="J27" t="n">
-        <v>15.43</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="K27" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="N27" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-8.9</v>
+      </c>
+      <c r="P27" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>15.4</v>
+      </c>
+      <c r="R27" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1501,37 +2088,58 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>EDEN</t>
+          <t>GREK</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.03</v>
+        <v>0.8</v>
       </c>
       <c r="D28" t="n">
-        <v>1.81</v>
+        <v>2.7</v>
       </c>
       <c r="E28" t="n">
-        <v>14.67</v>
+        <v>0.4</v>
       </c>
       <c r="F28" t="n">
-        <v>10.5</v>
+        <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>13.5</v>
+        <v>-1.79256682325757</v>
       </c>
       <c r="H28" t="n">
-        <v>14.82</v>
+        <v>13.4</v>
       </c>
       <c r="I28" t="n">
-        <v>88.33</v>
+        <v>-4.967632594343404</v>
       </c>
       <c r="J28" t="n">
-        <v>150.33</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>2.7</v>
+      </c>
+      <c r="K28" t="n">
+        <v>8</v>
+      </c>
+      <c r="L28" t="n">
+        <v>8</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N28" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="O28" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>50.8</v>
+      </c>
+      <c r="R28" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1540,37 +2148,58 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>EFNL</t>
+          <t>EIRL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D29" t="n">
-        <v>-2.87</v>
+        <v>0.7</v>
       </c>
       <c r="E29" t="n">
-        <v>5.93</v>
+        <v>-0.3</v>
       </c>
       <c r="F29" t="n">
-        <v>2.11</v>
+        <v>7.6</v>
       </c>
       <c r="G29" t="n">
-        <v>-10.3</v>
+        <v>4.281973613189098</v>
       </c>
       <c r="H29" t="n">
-        <v>-23.21</v>
+        <v>13.3</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.93</v>
+        <v>7.881561856815325</v>
       </c>
       <c r="J29" t="n">
-        <v>7.77</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N29" t="n">
+        <v>19</v>
+      </c>
+      <c r="O29" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="P29" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>36.6</v>
+      </c>
+      <c r="R29" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1579,37 +2208,58 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>EWQ</t>
+          <t>EWI</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.44</v>
+        <v>0.8</v>
       </c>
       <c r="D30" t="n">
-        <v>1.37</v>
+        <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>8.92</v>
+        <v>-0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.39</v>
+        <v>-0.5</v>
       </c>
       <c r="G30" t="n">
-        <v>5.46</v>
+        <v>-3.100481440496618</v>
       </c>
       <c r="H30" t="n">
-        <v>0.99</v>
+        <v>8.6</v>
       </c>
       <c r="I30" t="n">
-        <v>35.44</v>
+        <v>-2.159447716439781</v>
       </c>
       <c r="J30" t="n">
-        <v>43.92</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0.6</v>
+      </c>
+      <c r="K30" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="N30" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="P30" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="R30" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1618,37 +2268,58 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>EWG</t>
+          <t>EWN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C31" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="D31" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="E31" t="n">
-        <v>12.16</v>
+        <v>0.1</v>
       </c>
       <c r="F31" t="n">
-        <v>3.54</v>
+        <v>6.5</v>
       </c>
       <c r="G31" t="n">
-        <v>4.1</v>
+        <v>4.366178675594393</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.6</v>
+        <v>16.8</v>
       </c>
       <c r="I31" t="n">
-        <v>7.66</v>
+        <v>13.76443916612857</v>
       </c>
       <c r="J31" t="n">
-        <v>-1.05</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>1.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="O31" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>18.6</v>
+      </c>
+      <c r="R31" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1657,37 +2328,58 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>GREK</t>
+          <t>ENOR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="C32" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>5.9</v>
+        <v>-2.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.05</v>
+        <v>-0.7</v>
       </c>
       <c r="F32" t="n">
-        <v>2.49</v>
+        <v>-5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>30.66</v>
+        <v>-3.922209261101711</v>
       </c>
       <c r="H32" t="n">
-        <v>35.74</v>
+        <v>2.1</v>
       </c>
       <c r="I32" t="n">
-        <v>77.20999999999999</v>
+        <v>3.979598972227861</v>
       </c>
       <c r="J32" t="n">
-        <v>-42.15</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>-2.7</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="L32" t="n">
+        <v>-7.6</v>
+      </c>
+      <c r="M32" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-6.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>-23.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>-14</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="R32" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1696,37 +2388,58 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>EIRL</t>
+          <t>PGAL</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>5.48</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>14.99</v>
+        <v>-0.2</v>
       </c>
       <c r="F33" t="n">
-        <v>5.61</v>
+        <v>-5.7</v>
       </c>
       <c r="G33" t="n">
-        <v>19.6</v>
+        <v>-5.426466856848847</v>
       </c>
       <c r="H33" t="n">
-        <v>12.38</v>
+        <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>54.57</v>
+        <v>-1.058335343072262</v>
       </c>
       <c r="J33" t="n">
-        <v>74.28</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="O33" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="P33" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R33" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1735,37 +2448,58 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>EWI</t>
+          <t>EWP</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.42</v>
+        <v>0.3</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>-1.7</v>
       </c>
       <c r="E34" t="n">
-        <v>7.79</v>
+        <v>-1</v>
       </c>
       <c r="F34" t="n">
-        <v>4.67</v>
+        <v>-4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>11.91</v>
+        <v>-6.728624497942591</v>
       </c>
       <c r="H34" t="n">
-        <v>2.84</v>
+        <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>28.02</v>
+        <v>-10.85901140712149</v>
       </c>
       <c r="J34" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>-1.7</v>
+      </c>
+      <c r="K34" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="L34" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="P34" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="R34" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1774,37 +2508,58 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>EWN</t>
+          <t>EWD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C35" t="n">
-        <v>0.61</v>
+        <v>1.1</v>
       </c>
       <c r="D35" t="n">
-        <v>6.83</v>
+        <v>0.1</v>
       </c>
       <c r="E35" t="n">
-        <v>16.86</v>
+        <v>-0.5</v>
       </c>
       <c r="F35" t="n">
-        <v>5.75</v>
+        <v>-1.1</v>
       </c>
       <c r="G35" t="n">
-        <v>9.02</v>
+        <v>-0.7430504357908114</v>
       </c>
       <c r="H35" t="n">
-        <v>-0.74</v>
+        <v>14.3</v>
       </c>
       <c r="I35" t="n">
-        <v>58.71</v>
+        <v>20.71111311327844</v>
       </c>
       <c r="J35" t="n">
-        <v>88.40000000000001</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="L35" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="M35" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O35" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>-10.9</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="R35" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1813,37 +2568,58 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ENOR</t>
+          <t>EWL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.86</v>
+        <v>-0.1</v>
       </c>
       <c r="D36" t="n">
-        <v>-5.4</v>
+        <v>-1.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.46</v>
+        <v>-1.8</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.53</v>
+        <v>-2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.74</v>
+        <v>-3.454689961298795</v>
       </c>
       <c r="H36" t="n">
-        <v>-21.23</v>
+        <v>8.5</v>
       </c>
       <c r="I36" t="n">
-        <v>-9.039999999999999</v>
+        <v>12.11804982895343</v>
       </c>
       <c r="J36" t="n">
-        <v>-21.55</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>-1.5</v>
+      </c>
+      <c r="K36" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="L36" t="n">
+        <v>-3.1</v>
+      </c>
+      <c r="M36" t="n">
+        <v>-0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="R36" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1852,37 +2628,58 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>PGAL</t>
+          <t>EWU</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-0.7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1</v>
+        <v>1.6</v>
       </c>
       <c r="D37" t="n">
-        <v>-2.92</v>
+        <v>-0</v>
       </c>
       <c r="E37" t="n">
-        <v>1.78</v>
+        <v>-0.6</v>
       </c>
       <c r="F37" t="n">
-        <v>1.28</v>
+        <v>-1.2</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.67</v>
+        <v>-1.88668751496714</v>
       </c>
       <c r="H37" t="n">
-        <v>-3.1</v>
+        <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>-4.63</v>
+        <v>5.465036160260454</v>
       </c>
       <c r="J37" t="n">
-        <v>-35.03</v>
-      </c>
-      <c r="K37" t="inlineStr">
+        <v>-0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O37" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="P37" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R37" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1891,37 +2688,58 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>EWP</t>
+          <t>EIS</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>0.51</v>
+        <v>1.3</v>
       </c>
       <c r="D38" t="n">
-        <v>-2.88</v>
+        <v>1.7</v>
       </c>
       <c r="E38" t="n">
-        <v>7.11</v>
+        <v>0.1</v>
       </c>
       <c r="F38" t="n">
-        <v>4.76</v>
+        <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>9.960000000000001</v>
+        <v>2.437509585097419</v>
       </c>
       <c r="H38" t="n">
-        <v>10.29</v>
+        <v>17.2</v>
       </c>
       <c r="I38" t="n">
-        <v>4.14</v>
+        <v>22.90219808813347</v>
       </c>
       <c r="J38" t="n">
-        <v>-21.08</v>
-      </c>
-      <c r="K38" t="inlineStr">
+        <v>1.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O38" t="n">
+        <v>-18.8</v>
+      </c>
+      <c r="P38" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="R38" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1930,37 +2748,58 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>EWD</t>
+          <t>EWA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.45</v>
+        <v>-0.6</v>
       </c>
       <c r="E39" t="n">
-        <v>14.26</v>
+        <v>-0.5</v>
       </c>
       <c r="F39" t="n">
-        <v>8.01</v>
+        <v>-0.8</v>
       </c>
       <c r="G39" t="n">
-        <v>5.87</v>
+        <v>-2.318710402068183</v>
       </c>
       <c r="H39" t="n">
-        <v>-11.37</v>
+        <v>9.1</v>
       </c>
       <c r="I39" t="n">
-        <v>24.72</v>
+        <v>3.172953160874802</v>
       </c>
       <c r="J39" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>-0.6</v>
+      </c>
+      <c r="K39" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-4.3</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="P39" t="n">
+        <v>-5.3</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R39" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1969,37 +2808,58 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>EWL</t>
+          <t>EWH</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.38</v>
+        <v>2.1</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.78</v>
+        <v>2.6</v>
       </c>
       <c r="E40" t="n">
-        <v>9.789999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1.74</v>
+        <v>-1.6</v>
       </c>
       <c r="G40" t="n">
-        <v>5.62</v>
+        <v>2.330535799831115</v>
       </c>
       <c r="H40" t="n">
-        <v>-3.15</v>
+        <v>-6.2</v>
       </c>
       <c r="I40" t="n">
-        <v>40.86</v>
+        <v>5.706442374580056</v>
       </c>
       <c r="J40" t="n">
-        <v>48.28</v>
-      </c>
-      <c r="K40" t="inlineStr">
+        <v>2.6</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-25.6</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-33.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>-38.3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="R40" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2008,37 +2868,58 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>EWU</t>
+          <t>EWJ</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C41" t="n">
-        <v>0.09</v>
+        <v>-0</v>
       </c>
       <c r="D41" t="n">
-        <v>-1.1</v>
+        <v>0.4</v>
       </c>
       <c r="E41" t="n">
-        <v>3.44</v>
+        <v>0.1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.34</v>
+        <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>1.66</v>
+        <v>0.8077878462358339</v>
       </c>
       <c r="H41" t="n">
-        <v>-4.95</v>
+        <v>11.5</v>
       </c>
       <c r="I41" t="n">
-        <v>1.53</v>
+        <v>11.05923106489379</v>
       </c>
       <c r="J41" t="n">
-        <v>-17.74</v>
-      </c>
-      <c r="K41" t="inlineStr">
+        <v>0.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M41" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N41" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>-4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="R41" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2047,37 +2928,58 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>EIS</t>
+          <t>ENZL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.46</v>
+        <v>0.9</v>
       </c>
       <c r="D42" t="n">
-        <v>1.34</v>
+        <v>1.8</v>
       </c>
       <c r="E42" t="n">
-        <v>18</v>
+        <v>0.4</v>
       </c>
       <c r="F42" t="n">
-        <v>4.21</v>
+        <v>-1.9</v>
       </c>
       <c r="G42" t="n">
-        <v>0.22</v>
+        <v>0.2741932435502953</v>
       </c>
       <c r="H42" t="n">
-        <v>-19.47</v>
+        <v>6.6</v>
       </c>
       <c r="I42" t="n">
-        <v>7.99</v>
+        <v>19.85371549238852</v>
       </c>
       <c r="J42" t="n">
-        <v>23.03</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>1.8</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="M42" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-9.199999999999999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>-13.2</v>
+      </c>
+      <c r="P42" t="n">
+        <v>-30.8</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="R42" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2086,37 +2988,58 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>EWA</t>
+          <t>EWS</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.08</v>
+        <v>0.8</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.84</v>
+        <v>0.7</v>
       </c>
       <c r="E43" t="n">
-        <v>8.66</v>
+        <v>0.4</v>
       </c>
       <c r="F43" t="n">
-        <v>5.03</v>
+        <v>-1.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.88</v>
+        <v>-0.6030366228565347</v>
       </c>
       <c r="H43" t="n">
-        <v>2.12</v>
+        <v>-1</v>
       </c>
       <c r="I43" t="n">
-        <v>12.01</v>
+        <v>2.490619834652924</v>
       </c>
       <c r="J43" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="K43" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="K43" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="O43" t="n">
+        <v>-18</v>
+      </c>
+      <c r="P43" t="n">
+        <v>-17.9</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="R43" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2125,193 +3048,298 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>EWH</t>
+          <t>EWW</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.38</v>
+        <v>1.3</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.3</v>
+        <v>2.9</v>
       </c>
       <c r="E44" t="n">
-        <v>-11.25</v>
+        <v>0.4</v>
       </c>
       <c r="F44" t="n">
-        <v>-18.26</v>
+        <v>4.6</v>
       </c>
       <c r="G44" t="n">
-        <v>-28.02</v>
+        <v>1.38635630484933</v>
       </c>
       <c r="H44" t="n">
-        <v>-35.11</v>
+        <v>16.5</v>
       </c>
       <c r="I44" t="n">
-        <v>-37.54</v>
+        <v>9.418348266947994</v>
       </c>
       <c r="J44" t="n">
-        <v>-16.78</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Equity DMs</t>
+        <v>2.9</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="N44" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>42</v>
+      </c>
+      <c r="P44" t="n">
+        <v>62.9</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>Equity EMs</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>EWJ</t>
+          <t>EWZ</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="C45" t="n">
-        <v>0.45</v>
+        <v>1.9</v>
       </c>
       <c r="D45" t="n">
-        <v>4.69</v>
+        <v>1.9</v>
       </c>
       <c r="E45" t="n">
-        <v>8.68</v>
+        <v>0.7</v>
       </c>
       <c r="F45" t="n">
-        <v>7.66</v>
+        <v>-1.3</v>
       </c>
       <c r="G45" t="n">
-        <v>15.61</v>
+        <v>-0.2896394302500557</v>
       </c>
       <c r="H45" t="n">
-        <v>3.57</v>
+        <v>4.9</v>
       </c>
       <c r="I45" t="n">
-        <v>22.26</v>
+        <v>7.365599355440801</v>
       </c>
       <c r="J45" t="n">
-        <v>49.39</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>Equity DMs</t>
+        <v>1.9</v>
+      </c>
+      <c r="K45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="N45" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="P45" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Equity EMs</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ENZL</t>
+          <t>ECH</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.52</v>
+        <v>0.6</v>
       </c>
       <c r="D46" t="n">
-        <v>-3.02</v>
+        <v>-1.9</v>
       </c>
       <c r="E46" t="n">
-        <v>4.02</v>
+        <v>-1</v>
       </c>
       <c r="F46" t="n">
-        <v>-4.2</v>
+        <v>-4.9</v>
       </c>
       <c r="G46" t="n">
-        <v>-10.29</v>
+        <v>-3.480311533035736</v>
       </c>
       <c r="H46" t="n">
-        <v>-13.91</v>
+        <v>-0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>-5.45</v>
+        <v>2.871924683917721</v>
       </c>
       <c r="J46" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>Equity DMs</t>
+        <v>-1.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="M46" t="n">
+        <v>-16.1</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-14</v>
+      </c>
+      <c r="O46" t="n">
+        <v>-0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>-19.8</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>-8.199999999999999</v>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Equity EMs</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>EWS</t>
+          <t>GXG</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>1.02</v>
+        <v>0.3</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.16</v>
+        <v>-2.4</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.66</v>
+        <v>-1.5</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.45</v>
+        <v>-3.6</v>
       </c>
       <c r="G47" t="n">
-        <v>-10.77</v>
+        <v>-2.646510558673424</v>
       </c>
       <c r="H47" t="n">
-        <v>-16.59</v>
+        <v>14.1</v>
       </c>
       <c r="I47" t="n">
-        <v>-24.44</v>
+        <v>8.793788791291444</v>
       </c>
       <c r="J47" t="n">
-        <v>-26.16</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>Equity DMs</t>
+        <v>-2.4</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>-25.2</v>
+      </c>
+      <c r="P47" t="n">
+        <v>-23</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>Equity EMs</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>EWW</t>
+          <t>EPU</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C48" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="D48" t="n">
-        <v>1.58</v>
+        <v>0.1</v>
       </c>
       <c r="E48" t="n">
-        <v>13.82</v>
+        <v>-0.2</v>
       </c>
       <c r="F48" t="n">
-        <v>8.25</v>
+        <v>-0.3</v>
       </c>
       <c r="G48" t="n">
-        <v>20.35</v>
+        <v>-0.279096802635705</v>
       </c>
       <c r="H48" t="n">
-        <v>40.75</v>
+        <v>15.6</v>
       </c>
       <c r="I48" t="n">
-        <v>49.06</v>
+        <v>24.3593714905128</v>
       </c>
       <c r="J48" t="n">
-        <v>10.06</v>
-      </c>
-      <c r="K48" t="inlineStr">
+        <v>0.1</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-2</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="O48" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>-7.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="R48" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2320,37 +3348,58 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>EWZ</t>
+          <t>INDA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.76</v>
+        <v>1.4</v>
       </c>
       <c r="D49" t="n">
-        <v>-5.19</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>2.03</v>
+        <v>0.6</v>
       </c>
       <c r="F49" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="G49" t="n">
-        <v>14.59</v>
+        <v>1.163213595817253</v>
       </c>
       <c r="H49" t="n">
-        <v>3.12</v>
+        <v>14.8</v>
       </c>
       <c r="I49" t="n">
-        <v>-27.74</v>
+        <v>20.30188831271102</v>
       </c>
       <c r="J49" t="n">
-        <v>-16.4</v>
-      </c>
-      <c r="K49" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="N49" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="O49" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="P49" t="n">
+        <v>20.6</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>19</v>
+      </c>
+      <c r="R49" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2359,37 +3408,58 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>ECH</t>
+          <t>MCHI</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="C50" t="n">
-        <v>-1.3</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="n">
-        <v>-7.17</v>
+        <v>5.4</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.03</v>
+        <v>2.2</v>
       </c>
       <c r="F50" t="n">
-        <v>-15.72</v>
+        <v>0.2</v>
       </c>
       <c r="G50" t="n">
-        <v>-12.42</v>
+        <v>2.561668669833599</v>
       </c>
       <c r="H50" t="n">
-        <v>2.16</v>
+        <v>-10.8</v>
       </c>
       <c r="I50" t="n">
-        <v>-46.97</v>
+        <v>-3.339566528834156</v>
       </c>
       <c r="J50" t="n">
-        <v>-37.83</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>5.4</v>
+      </c>
+      <c r="K50" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="L50" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>-18.9</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-26.1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>-37.9</v>
+      </c>
+      <c r="P50" t="n">
+        <v>-58.3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>-21</v>
+      </c>
+      <c r="R50" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2398,37 +3468,58 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>GXG</t>
+          <t>CNYA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C51" t="n">
-        <v>-2.2</v>
+        <v>3.6</v>
       </c>
       <c r="D51" t="n">
-        <v>-5.4</v>
+        <v>4.5</v>
       </c>
       <c r="E51" t="n">
-        <v>10.67</v>
+        <v>1.8</v>
       </c>
       <c r="F51" t="n">
-        <v>4.43</v>
+        <v>1.3</v>
       </c>
       <c r="G51" t="n">
-        <v>14.12</v>
+        <v>2.435178202160078</v>
       </c>
       <c r="H51" t="n">
-        <v>-24.52</v>
+        <v>-9.9</v>
       </c>
       <c r="I51" t="n">
-        <v>-38.31</v>
+        <v>-10.95189891039329</v>
       </c>
       <c r="J51" t="n">
-        <v>-62.61</v>
-      </c>
-      <c r="K51" t="inlineStr">
+        <v>4.5</v>
+      </c>
+      <c r="K51" t="n">
+        <v>-4</v>
+      </c>
+      <c r="L51" t="n">
+        <v>-4</v>
+      </c>
+      <c r="M51" t="n">
+        <v>-19.1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-26.5</v>
+      </c>
+      <c r="O51" t="n">
+        <v>-38.5</v>
+      </c>
+      <c r="P51" t="n">
+        <v>-45.4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>-23.9</v>
+      </c>
+      <c r="R51" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2437,37 +3528,58 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>EPU</t>
+          <t>EIDO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>0.03</v>
+        <v>1.2</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.18</v>
+        <v>1.8</v>
       </c>
       <c r="E52" t="n">
-        <v>13.41</v>
+        <v>0.9</v>
       </c>
       <c r="F52" t="n">
-        <v>2.12</v>
+        <v>-0.3</v>
       </c>
       <c r="G52" t="n">
-        <v>10.21</v>
+        <v>1.318220399172099</v>
       </c>
       <c r="H52" t="n">
-        <v>6.75</v>
+        <v>5.3</v>
       </c>
       <c r="I52" t="n">
-        <v>-12</v>
+        <v>17.43617651507896</v>
       </c>
       <c r="J52" t="n">
-        <v>6.32</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>1.8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="O52" t="n">
+        <v>-6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>-6.7</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R52" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2476,37 +3588,58 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>INDA</t>
+          <t>EWY</t>
         </is>
       </c>
       <c r="B53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
-      <c r="C53" t="n">
-        <v>0.98</v>
-      </c>
       <c r="D53" t="n">
-        <v>2.63</v>
+        <v>6.1</v>
       </c>
       <c r="E53" t="n">
-        <v>14.01</v>
+        <v>1.4</v>
       </c>
       <c r="F53" t="n">
-        <v>14.42</v>
+        <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>25.92</v>
+        <v>1.558655343814388</v>
       </c>
       <c r="H53" t="n">
-        <v>11.02</v>
+        <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>53.5</v>
+        <v>2.17719857214639</v>
       </c>
       <c r="J53" t="n">
-        <v>116.97</v>
-      </c>
-      <c r="K53" t="inlineStr">
+        <v>6.1</v>
+      </c>
+      <c r="K53" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="L53" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="O53" t="n">
+        <v>-13.5</v>
+      </c>
+      <c r="P53" t="n">
+        <v>-32.1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="R53" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2515,37 +3648,58 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>MCHI</t>
+          <t>EWM</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C54" t="n">
-        <v>-1.37</v>
+        <v>0.2</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.6</v>
+        <v>-0.3</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.17</v>
+        <v>-0.4</v>
       </c>
       <c r="F54" t="n">
-        <v>-24.84</v>
+        <v>-1.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-30.49</v>
+        <v>-1.689728255658006</v>
       </c>
       <c r="H54" t="n">
-        <v>-42.24</v>
+        <v>-1</v>
       </c>
       <c r="I54" t="n">
-        <v>-40.13</v>
+        <v>-4.943392591603546</v>
       </c>
       <c r="J54" t="n">
-        <v>-15.89</v>
-      </c>
-      <c r="K54" t="inlineStr">
+        <v>-0.3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="L54" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="M54" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="O54" t="n">
+        <v>-14.3</v>
+      </c>
+      <c r="P54" t="n">
+        <v>-23.5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="R54" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2554,35 +3708,58 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>CNYA</t>
+          <t>EPHE</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="C55" t="n">
-        <v>-2.7</v>
+        <v>0.8</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.42</v>
+        <v>3.3</v>
       </c>
       <c r="E55" t="n">
-        <v>-16.41</v>
+        <v>2.3</v>
       </c>
       <c r="F55" t="n">
-        <v>-25.51</v>
+        <v>4.8</v>
       </c>
       <c r="G55" t="n">
-        <v>-31.26</v>
+        <v>4.120942033542749</v>
       </c>
       <c r="H55" t="n">
-        <v>-42.58</v>
+        <v>11.3</v>
       </c>
       <c r="I55" t="n">
-        <v>-8.49</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
+        <v>16.72961028450357</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K55" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L55" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="O55" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="P55" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="R55" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2591,37 +3768,58 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>EIDO</t>
+          <t>EWT</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C56" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>-2.35</v>
+        <v>2.5</v>
       </c>
       <c r="E56" t="n">
-        <v>2.51</v>
+        <v>0.2</v>
       </c>
       <c r="F56" t="n">
-        <v>-4.38</v>
+        <v>4.2</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.75</v>
+        <v>2.228625155014163</v>
       </c>
       <c r="H56" t="n">
-        <v>-4.79</v>
+        <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>-20.33</v>
+        <v>-2.302157891200041</v>
       </c>
       <c r="J56" t="n">
-        <v>-5.24</v>
-      </c>
-      <c r="K56" t="inlineStr">
+        <v>2.5</v>
+      </c>
+      <c r="K56" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L56" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-3</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="O56" t="n">
+        <v>-29.3</v>
+      </c>
+      <c r="P56" t="n">
+        <v>-21.1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>-7.5</v>
+      </c>
+      <c r="R56" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2630,37 +3828,58 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>EWY</t>
+          <t>THD</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="C57" t="n">
-        <v>5.28</v>
+        <v>1.8</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.43</v>
+        <v>2.2</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.11</v>
+        <v>0.8</v>
       </c>
       <c r="F57" t="n">
-        <v>-3.42</v>
+        <v>-2.4</v>
       </c>
       <c r="G57" t="n">
-        <v>1.66</v>
+        <v>0.76899756238246</v>
       </c>
       <c r="H57" t="n">
-        <v>-13.9</v>
+        <v>-2.5</v>
       </c>
       <c r="I57" t="n">
-        <v>-4.03</v>
+        <v>4.020901338212869</v>
       </c>
       <c r="J57" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="K57" t="inlineStr">
+        <v>2.2</v>
+      </c>
+      <c r="K57" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="L57" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="M57" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-21.9</v>
+      </c>
+      <c r="O57" t="n">
+        <v>-22.3</v>
+      </c>
+      <c r="P57" t="n">
+        <v>-23.7</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>-17.3</v>
+      </c>
+      <c r="R57" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2669,37 +3888,58 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>EWM</t>
+          <t>EPOL</t>
         </is>
       </c>
       <c r="B58" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C58" t="n">
         <v>0</v>
       </c>
-      <c r="C58" t="n">
-        <v>0.33</v>
-      </c>
       <c r="D58" t="n">
-        <v>-1.16</v>
+        <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>-1.71</v>
+        <v>0.1</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.84</v>
+        <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.779999999999999</v>
+        <v>-0.0535328379804296</v>
       </c>
       <c r="H58" t="n">
-        <v>-13.18</v>
+        <v>11.2</v>
       </c>
       <c r="I58" t="n">
-        <v>-31.69</v>
+        <v>3.451893254643532</v>
       </c>
       <c r="J58" t="n">
-        <v>-64.08</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="K58" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="L58" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="M58" t="n">
+        <v>9</v>
+      </c>
+      <c r="N58" t="n">
+        <v>39.3</v>
+      </c>
+      <c r="O58" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="P58" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>49.8</v>
+      </c>
+      <c r="R58" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2708,37 +3948,58 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>EPHE</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C59" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E59" t="n">
-        <v>9.640000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="F59" t="n">
-        <v>1.99</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.37</v>
+        <v>4.135021783848869</v>
       </c>
       <c r="H59" t="n">
-        <v>-17.15</v>
+        <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>-25.15</v>
+        <v>2.964602542375799</v>
       </c>
       <c r="J59" t="n">
-        <v>-13.12</v>
-      </c>
-      <c r="K59" t="inlineStr">
+        <v>2.8</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14</v>
+      </c>
+      <c r="L59" t="n">
+        <v>14</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="N59" t="n">
+        <v>18.3</v>
+      </c>
+      <c r="O59" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="P59" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="R59" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2747,37 +4008,58 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>EWT</t>
+          <t>EZA</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="C60" t="n">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="D60" t="n">
-        <v>0.83</v>
+        <v>-0.5</v>
       </c>
       <c r="E60" t="n">
-        <v>-2.36</v>
+        <v>-0.4</v>
       </c>
       <c r="F60" t="n">
-        <v>-4.24</v>
+        <v>-0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.9</v>
+        <v>1.637430415472223</v>
       </c>
       <c r="H60" t="n">
-        <v>-30.58</v>
+        <v>-0.7</v>
       </c>
       <c r="I60" t="n">
-        <v>33.21</v>
+        <v>4.538836754288604</v>
       </c>
       <c r="J60" t="n">
-        <v>67.26000000000001</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>-0.5</v>
+      </c>
+      <c r="K60" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="L60" t="n">
+        <v>-6.6</v>
+      </c>
+      <c r="M60" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-12.5</v>
+      </c>
+      <c r="O60" t="n">
+        <v>-21.6</v>
+      </c>
+      <c r="P60" t="n">
+        <v>-17.8</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="R60" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -2786,193 +4068,298 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>THD</t>
+          <t>XLE</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C61" t="n">
-        <v>1.46</v>
+        <v>0.3</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.5</v>
+        <v>-0</v>
       </c>
       <c r="E61" t="n">
-        <v>-3.92</v>
+        <v>-0.2</v>
       </c>
       <c r="F61" t="n">
-        <v>-11.52</v>
+        <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>-21.97</v>
+        <v>0.3442125877757384</v>
       </c>
       <c r="H61" t="n">
-        <v>-22.38</v>
+        <v>0.7</v>
       </c>
       <c r="I61" t="n">
-        <v>-34.32</v>
+        <v>-3.560224962192001</v>
       </c>
       <c r="J61" t="n">
-        <v>-9.050000000000001</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Equity EMs</t>
+        <v>-0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L61" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="O61" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="P61" t="n">
+        <v>95.90000000000001</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Equity EEUU industries</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>EPOL</t>
+          <t>OIH</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
       <c r="C62" t="n">
-        <v>3.65</v>
+        <v>1.1</v>
       </c>
       <c r="D62" t="n">
-        <v>4.42</v>
+        <v>-2.4</v>
       </c>
       <c r="E62" t="n">
-        <v>11</v>
+        <v>-0.3</v>
       </c>
       <c r="F62" t="n">
-        <v>11.22</v>
+        <v>-0.3</v>
       </c>
       <c r="G62" t="n">
-        <v>42.77</v>
+        <v>-0.9228759024192795</v>
       </c>
       <c r="H62" t="n">
-        <v>9.029999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="I62" t="n">
-        <v>-6.97</v>
+        <v>-11.93267547295077</v>
       </c>
       <c r="J62" t="n">
-        <v>-20.96</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>Equity EMs</t>
+        <v>-2.4</v>
+      </c>
+      <c r="K62" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="L62" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="O62" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="P62" t="n">
+        <v>61.5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Equity EEUU industries</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>XOP</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.34</v>
+        <v>0.6</v>
       </c>
       <c r="D63" t="n">
-        <v>10.12</v>
+        <v>-1.4</v>
       </c>
       <c r="E63" t="n">
-        <v>1.33</v>
+        <v>-0.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3.85</v>
+        <v>-0.7</v>
       </c>
       <c r="G63" t="n">
-        <v>8.42</v>
+        <v>-1.459666722171754</v>
       </c>
       <c r="H63" t="n">
-        <v>88.45999999999999</v>
+        <v>-4</v>
       </c>
       <c r="I63" t="n">
-        <v>25.9</v>
+        <v>-7.639574710417876</v>
       </c>
       <c r="J63" t="n">
-        <v>-14.76</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>Equity EMs</t>
+        <v>-1.4</v>
+      </c>
+      <c r="K63" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>-4.2</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-9.5</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="O63" t="n">
+        <v>18</v>
+      </c>
+      <c r="P63" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>Equity EEUU industries</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>EZA</t>
+          <t>XLU</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.54</v>
+        <v>0.3</v>
       </c>
       <c r="D64" t="n">
-        <v>-1.66</v>
+        <v>-1.7</v>
       </c>
       <c r="E64" t="n">
-        <v>-3.03</v>
+        <v>-1</v>
       </c>
       <c r="F64" t="n">
-        <v>-5.93</v>
+        <v>-6.3</v>
       </c>
       <c r="G64" t="n">
-        <v>-12.16</v>
+        <v>-4.773635990833754</v>
       </c>
       <c r="H64" t="n">
-        <v>-21.84</v>
+        <v>-0.7</v>
       </c>
       <c r="I64" t="n">
-        <v>-31.56</v>
+        <v>-1.603729200700316</v>
       </c>
       <c r="J64" t="n">
-        <v>-31.3</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Equity EMs</t>
+        <v>-1.7</v>
+      </c>
+      <c r="K64" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="L64" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="M64" t="n">
+        <v>-5.6</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="O64" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="P64" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>-14.7</v>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>Equity EEUU industries</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>XLE</t>
+          <t>XLP</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13</v>
+        <v>0.1</v>
       </c>
       <c r="D65" t="n">
-        <v>-1.37</v>
+        <v>1.5</v>
       </c>
       <c r="E65" t="n">
-        <v>-2.54</v>
+        <v>0.7</v>
       </c>
       <c r="F65" t="n">
-        <v>-3.91</v>
+        <v>2</v>
       </c>
       <c r="G65" t="n">
+        <v>2.531852241207244</v>
+      </c>
+      <c r="H65" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="I65" t="n">
+        <v>18.48930020305122</v>
+      </c>
+      <c r="J65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L65" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M65" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="O65" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="P65" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="Q65" t="n">
         <v>-2.4</v>
       </c>
-      <c r="H65" t="n">
-        <v>21.22</v>
-      </c>
-      <c r="I65" t="n">
-        <v>28.22</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -2981,37 +4368,58 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>OIH</t>
+          <t>FTXG</t>
         </is>
       </c>
       <c r="B66" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D66" t="n">
         <v>0</v>
       </c>
-      <c r="C66" t="n">
-        <v>-2.36</v>
-      </c>
-      <c r="D66" t="n">
-        <v>-6.44</v>
-      </c>
       <c r="E66" t="n">
-        <v>-13.46</v>
+        <v>-0.5</v>
       </c>
       <c r="F66" t="n">
-        <v>-16.44</v>
+        <v>-2.5</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.77</v>
+        <v>-4.097278296690398</v>
       </c>
       <c r="H66" t="n">
-        <v>21.86</v>
+        <v>2.5</v>
       </c>
       <c r="I66" t="n">
-        <v>-18.2</v>
+        <v>3.138281928890626</v>
       </c>
       <c r="J66" t="n">
-        <v>-68.06</v>
-      </c>
-      <c r="K66" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="M66" t="n">
+        <v>-10.7</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-10.1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>-10.4</v>
+      </c>
+      <c r="P66" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>-13.7</v>
+      </c>
+      <c r="R66" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3020,37 +4428,58 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>XOP</t>
+          <t>XLY</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>-1.71</v>
+        <v>0.5</v>
       </c>
       <c r="D67" t="n">
-        <v>-4.29</v>
+        <v>3.9</v>
       </c>
       <c r="E67" t="n">
-        <v>-9.01</v>
+        <v>1.2</v>
       </c>
       <c r="F67" t="n">
-        <v>-9.359999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="G67" t="n">
-        <v>-1.15</v>
+        <v>-2.401852679453778</v>
       </c>
       <c r="H67" t="n">
-        <v>16.82</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>7.3</v>
+        <v>1.861225596843179</v>
       </c>
       <c r="J67" t="n">
-        <v>-49.18</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>3.9</v>
+      </c>
+      <c r="K67" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L67" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N67" t="n">
+        <v>17.3</v>
+      </c>
+      <c r="O67" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="R67" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3059,37 +4488,58 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>XLU</t>
+          <t>XHB</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="D68" t="n">
-        <v>-4.71</v>
+        <v>3.4</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.34</v>
+        <v>0.2</v>
       </c>
       <c r="F68" t="n">
-        <v>-3.91</v>
+        <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.22</v>
+        <v>-0.2780525500460442</v>
       </c>
       <c r="H68" t="n">
-        <v>-10.21</v>
+        <v>26</v>
       </c>
       <c r="I68" t="n">
-        <v>12.31</v>
+        <v>18.20144558814898</v>
       </c>
       <c r="J68" t="n">
-        <v>60.17</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>3.4</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M68" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="N68" t="n">
+        <v>38</v>
+      </c>
+      <c r="O68" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="P68" t="n">
+        <v>52.4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>58</v>
+      </c>
+      <c r="R68" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3098,37 +4548,58 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>XLP</t>
+          <t>XRT</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="C69" t="n">
-        <v>1.71</v>
+        <v>0.8</v>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="E69" t="n">
-        <v>7.71</v>
+        <v>0.5</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.64</v>
+        <v>0.5</v>
       </c>
       <c r="G69" t="n">
-        <v>0.93</v>
+        <v>-0.5883306331918465</v>
       </c>
       <c r="H69" t="n">
-        <v>-2.27</v>
+        <v>16.8</v>
       </c>
       <c r="I69" t="n">
-        <v>38.45</v>
+        <v>14.88135100454161</v>
       </c>
       <c r="J69" t="n">
-        <v>84.87</v>
-      </c>
-      <c r="K69" t="inlineStr">
+        <v>2.9</v>
+      </c>
+      <c r="K69" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="L69" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="O69" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>-10.5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R69" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3137,35 +4608,58 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>FTXG</t>
+          <t>XLRE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C70" t="n">
-        <v>1.68</v>
+        <v>1.2</v>
       </c>
       <c r="D70" t="n">
-        <v>-0.78</v>
+        <v>0.1</v>
       </c>
       <c r="E70" t="n">
-        <v>4.24</v>
+        <v>-0.2</v>
       </c>
       <c r="F70" t="n">
-        <v>-9.19</v>
+        <v>-3.7</v>
       </c>
       <c r="G70" t="n">
-        <v>-9.289999999999999</v>
+        <v>-3.556610502340024</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.050000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I70" t="n">
-        <v>25.41</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
+        <v>9.991338425164937</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K70" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="L70" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="O70" t="n">
+        <v>-18.3</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="R70" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3174,37 +4668,58 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>XLY</t>
+          <t>XTL</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C71" t="n">
-        <v>3.74</v>
+        <v>0.4</v>
       </c>
       <c r="D71" t="n">
-        <v>2.72</v>
+        <v>1.1</v>
       </c>
       <c r="E71" t="n">
-        <v>10.53</v>
+        <v>-0.1</v>
       </c>
       <c r="F71" t="n">
-        <v>3.36</v>
+        <v>-2.8</v>
       </c>
       <c r="G71" t="n">
-        <v>17.33</v>
+        <v>-2.394885288218501</v>
       </c>
       <c r="H71" t="n">
-        <v>-3.84</v>
+        <v>15.9</v>
       </c>
       <c r="I71" t="n">
-        <v>62.83</v>
+        <v>20.97744574187694</v>
       </c>
       <c r="J71" t="n">
-        <v>186</v>
-      </c>
-      <c r="K71" t="inlineStr">
+        <v>1.1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="L71" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M71" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="O71" t="n">
+        <v>-13.6</v>
+      </c>
+      <c r="P71" t="n">
+        <v>-20.1</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>-7.3</v>
+      </c>
+      <c r="R71" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3213,37 +4728,58 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>XHB</t>
+          <t>XLI</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C72" t="n">
-        <v>2.67</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="E72" t="n">
-        <v>25.98</v>
+        <v>1.3</v>
       </c>
       <c r="F72" t="n">
-        <v>14.82</v>
+        <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>37.65</v>
+        <v>1.845471320692917</v>
       </c>
       <c r="H72" t="n">
-        <v>34.63</v>
+        <v>15.4</v>
       </c>
       <c r="I72" t="n">
-        <v>160.13</v>
+        <v>13.30100952912009</v>
       </c>
       <c r="J72" t="n">
-        <v>211.95</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>3.5</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L72" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M72" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="N72" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="O72" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="P72" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>18</v>
+      </c>
+      <c r="R72" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3252,37 +4788,58 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>XRT</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C73" t="n">
-        <v>3.12</v>
+        <v>0.9</v>
       </c>
       <c r="D73" t="n">
-        <v>1.93</v>
+        <v>2.1</v>
       </c>
       <c r="E73" t="n">
-        <v>14.93</v>
+        <v>0.3</v>
       </c>
       <c r="F73" t="n">
-        <v>6.01</v>
+        <v>2.4</v>
       </c>
       <c r="G73" t="n">
-        <v>-1.91</v>
+        <v>1.623846241822312</v>
       </c>
       <c r="H73" t="n">
-        <v>-9.869999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="I73" t="n">
-        <v>57.97</v>
+        <v>10.75973626925733</v>
       </c>
       <c r="J73" t="n">
-        <v>81.11</v>
-      </c>
-      <c r="K73" t="inlineStr">
+        <v>2.1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="N73" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="O73" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="P73" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>13.6</v>
+      </c>
+      <c r="R73" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3291,35 +4848,58 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>XLRE</t>
+          <t>XTN</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C74" t="n">
-        <v>0.47</v>
+        <v>1.9</v>
       </c>
       <c r="D74" t="n">
-        <v>-2.49</v>
+        <v>4.6</v>
       </c>
       <c r="E74" t="n">
-        <v>10.63</v>
+        <v>0.7</v>
       </c>
       <c r="F74" t="n">
-        <v>3.35</v>
+        <v>1.3</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.87</v>
+        <v>-0.5332160337690657</v>
       </c>
       <c r="H74" t="n">
-        <v>-17.95</v>
+        <v>18.1</v>
       </c>
       <c r="I74" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
+        <v>13.12950643079965</v>
+      </c>
+      <c r="J74" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="K74" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="L74" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="M74" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O74" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="P74" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="R74" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3328,37 +4908,58 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>XTL</t>
+          <t>XLV</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C75" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.08</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>15.1</v>
+        <v>0.8</v>
       </c>
       <c r="F75" t="n">
-        <v>6.35</v>
+        <v>2.6</v>
       </c>
       <c r="G75" t="n">
-        <v>-9.17</v>
+        <v>4.136750924482677</v>
       </c>
       <c r="H75" t="n">
-        <v>-12.44</v>
+        <v>12.8</v>
       </c>
       <c r="I75" t="n">
-        <v>14.13</v>
+        <v>38.28828784126647</v>
       </c>
       <c r="J75" t="n">
-        <v>44.99</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K75" t="n">
+        <v>6</v>
+      </c>
+      <c r="L75" t="n">
+        <v>6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>8</v>
+      </c>
+      <c r="N75" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="O75" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="P75" t="n">
+        <v>25</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R75" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3367,37 +4968,58 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>XLI</t>
+          <t>XHE</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C76" t="n">
-        <v>2.38</v>
+        <v>1.8</v>
       </c>
       <c r="D76" t="n">
-        <v>3.72</v>
+        <v>2.7</v>
       </c>
       <c r="E76" t="n">
-        <v>14.06</v>
+        <v>0.4</v>
       </c>
       <c r="F76" t="n">
-        <v>6.78</v>
+        <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>12.65</v>
+        <v>0.6205283692345743</v>
       </c>
       <c r="H76" t="n">
-        <v>15.45</v>
+        <v>24.1</v>
       </c>
       <c r="I76" t="n">
-        <v>57.38</v>
+        <v>34.09995830789867</v>
       </c>
       <c r="J76" t="n">
-        <v>136.22</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>2.7</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M76" t="n">
+        <v>-7.2</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-12.4</v>
+      </c>
+      <c r="O76" t="n">
+        <v>-16.6</v>
+      </c>
+      <c r="P76" t="n">
+        <v>-31.1</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>-4.7</v>
+      </c>
+      <c r="R76" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3406,37 +5028,58 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>XHS</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.01143055126857185</v>
+      </c>
+      <c r="H77" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="I77" t="n">
+        <v>23.53689636853777</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K77" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="L77" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="M77" t="n">
+        <v>-5.9</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="O77" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="P77" t="n">
+        <v>-18.3</v>
+      </c>
+      <c r="Q77" t="n">
         <v>0.8</v>
       </c>
-      <c r="D77" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="F77" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G77" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="H77" t="n">
-        <v>20.71</v>
-      </c>
-      <c r="I77" t="n">
-        <v>23.01</v>
-      </c>
-      <c r="J77" t="n">
-        <v>141.65</v>
-      </c>
-      <c r="K77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3445,37 +5088,58 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>XTN</t>
+          <t>BBH</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="C78" t="n">
-        <v>2.56</v>
+        <v>0.6</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.49</v>
+        <v>-0.8</v>
       </c>
       <c r="E78" t="n">
-        <v>14.49</v>
+        <v>-0.4</v>
       </c>
       <c r="F78" t="n">
-        <v>-5</v>
+        <v>-2.8</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09</v>
+        <v>-2.728452966311347</v>
       </c>
       <c r="H78" t="n">
-        <v>-4.32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I78" t="n">
-        <v>31.42</v>
+        <v>14.77377801141726</v>
       </c>
       <c r="J78" t="n">
-        <v>104.72</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>-0.8</v>
+      </c>
+      <c r="K78" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="L78" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-1.8</v>
+      </c>
+      <c r="O78" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="P78" t="n">
+        <v>-14.9</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="R78" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3484,37 +5148,58 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>XLV</t>
+          <t>PPH</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="E79" t="n">
-        <v>10.7</v>
+        <v>1.1</v>
       </c>
       <c r="F79" t="n">
-        <v>7.24</v>
+        <v>2.6</v>
       </c>
       <c r="G79" t="n">
-        <v>7.61</v>
+        <v>3.479857456467861</v>
       </c>
       <c r="H79" t="n">
-        <v>7.32</v>
+        <v>13.3</v>
       </c>
       <c r="I79" t="n">
-        <v>57.14</v>
+        <v>28.95872864549117</v>
       </c>
       <c r="J79" t="n">
-        <v>157.74</v>
-      </c>
-      <c r="K79" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K79" t="n">
+        <v>8</v>
+      </c>
+      <c r="L79" t="n">
+        <v>8</v>
+      </c>
+      <c r="M79" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N79" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="O79" t="n">
+        <v>15</v>
+      </c>
+      <c r="P79" t="n">
+        <v>26.9</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="R79" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3523,37 +5208,58 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>XHE</t>
+          <t>XLK</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C80" t="n">
-        <v>0.9399999999999999</v>
+        <v>-0.7</v>
       </c>
       <c r="D80" t="n">
-        <v>4.32</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>19.61</v>
+        <v>0.5</v>
       </c>
       <c r="F80" t="n">
-        <v>-9.460000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="G80" t="n">
-        <v>-13.07</v>
+        <v>2.3165679688654</v>
       </c>
       <c r="H80" t="n">
-        <v>-17.86</v>
+        <v>15.9</v>
       </c>
       <c r="I80" t="n">
-        <v>10.23</v>
+        <v>1.253527779036577</v>
       </c>
       <c r="J80" t="n">
-        <v>123.69</v>
-      </c>
-      <c r="K80" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K80" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="L80" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="M80" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="N80" t="n">
+        <v>41.9</v>
+      </c>
+      <c r="O80" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="P80" t="n">
+        <v>50.5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="R80" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3562,37 +5268,58 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>XHS</t>
+          <t>SMH</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="C81" t="n">
-        <v>1.34</v>
+        <v>-0.9</v>
       </c>
       <c r="D81" t="n">
-        <v>0.19</v>
+        <v>5</v>
       </c>
       <c r="E81" t="n">
-        <v>8.93</v>
+        <v>0.8</v>
       </c>
       <c r="F81" t="n">
-        <v>-5.28</v>
+        <v>13.1</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.05</v>
+        <v>5.681002744002316</v>
       </c>
       <c r="H81" t="n">
-        <v>-3.09</v>
+        <v>28.9</v>
       </c>
       <c r="I81" t="n">
-        <v>25.62</v>
+        <v>6.015198192145355</v>
       </c>
       <c r="J81" t="n">
-        <v>99.37</v>
-      </c>
-      <c r="K81" t="inlineStr">
+        <v>5</v>
+      </c>
+      <c r="K81" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="L81" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="M81" t="n">
+        <v>25.2</v>
+      </c>
+      <c r="N81" t="n">
+        <v>54.8</v>
+      </c>
+      <c r="O81" t="n">
+        <v>43</v>
+      </c>
+      <c r="P81" t="n">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>77.40000000000001</v>
+      </c>
+      <c r="R81" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3601,37 +5328,58 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>BBH</t>
+          <t>XSW</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.09</v>
+        <v>0.5</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.55</v>
+        <v>1.3</v>
       </c>
       <c r="E82" t="n">
-        <v>8.68</v>
+        <v>-0.3</v>
       </c>
       <c r="F82" t="n">
-        <v>3.73</v>
+        <v>1.8</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.42</v>
+        <v>-1.585373474044037</v>
       </c>
       <c r="H82" t="n">
-        <v>0.65</v>
+        <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>30.17</v>
+        <v>10.01095225627981</v>
       </c>
       <c r="J82" t="n">
-        <v>75.84999999999999</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>1.3</v>
+      </c>
+      <c r="K82" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="L82" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="M82" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N82" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="O82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="P82" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="R82" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3640,37 +5388,58 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>PPH</t>
+          <t>XLB</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C83" t="n">
-        <v>0.63</v>
+        <v>1.7</v>
       </c>
       <c r="D83" t="n">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>11.39</v>
+        <v>0.1</v>
       </c>
       <c r="F83" t="n">
-        <v>7.92</v>
+        <v>-0.7</v>
       </c>
       <c r="G83" t="n">
-        <v>10.83</v>
+        <v>-1.118728761031322</v>
       </c>
       <c r="H83" t="n">
-        <v>13.29</v>
+        <v>7.7</v>
       </c>
       <c r="I83" t="n">
-        <v>43.86</v>
+        <v>6.418378289083019</v>
       </c>
       <c r="J83" t="n">
-        <v>59.44</v>
-      </c>
-      <c r="K83" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="L83" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="O83" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="P83" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R83" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3679,37 +5448,58 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>XLK</t>
+          <t>XME</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C84" t="n">
-        <v>2.31</v>
+        <v>-0</v>
       </c>
       <c r="D84" t="n">
-        <v>9.84</v>
+        <v>-2.6</v>
       </c>
       <c r="E84" t="n">
-        <v>16.98</v>
+        <v>-1.3</v>
       </c>
       <c r="F84" t="n">
-        <v>18.16</v>
+        <v>-2.6</v>
       </c>
       <c r="G84" t="n">
-        <v>44.42</v>
+        <v>-2.276119115108708</v>
       </c>
       <c r="H84" t="n">
-        <v>26.72</v>
+        <v>12.6</v>
       </c>
       <c r="I84" t="n">
-        <v>196.06</v>
+        <v>9.035021609539392</v>
       </c>
       <c r="J84" t="n">
-        <v>490.48</v>
-      </c>
-      <c r="K84" t="inlineStr">
+        <v>-2.6</v>
+      </c>
+      <c r="K84" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="L84" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="M84" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="N84" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="O84" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="P84" t="n">
+        <v>61.3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="R84" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3718,37 +5508,58 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>SMH</t>
+          <t>GDX</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C85" t="n">
-        <v>2.88</v>
+        <v>0.7</v>
       </c>
       <c r="D85" t="n">
-        <v>15.14</v>
+        <v>-1.7</v>
       </c>
       <c r="E85" t="n">
-        <v>27.52</v>
+        <v>-0.6</v>
       </c>
       <c r="F85" t="n">
-        <v>23.97</v>
+        <v>-5.6</v>
       </c>
       <c r="G85" t="n">
-        <v>56.23</v>
+        <v>-2.033376698062145</v>
       </c>
       <c r="H85" t="n">
-        <v>40.33</v>
+        <v>-0.8</v>
       </c>
       <c r="I85" t="n">
-        <v>286.89</v>
+        <v>-1.907229575916469</v>
       </c>
       <c r="J85" t="n">
-        <v>848.98</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>-1.7</v>
+      </c>
+      <c r="K85" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="L85" t="n">
+        <v>-11.4</v>
+      </c>
+      <c r="M85" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>-10.3</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-12.2</v>
+      </c>
+      <c r="P85" t="n">
+        <v>-20.6</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>-5.5</v>
+      </c>
+      <c r="R85" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3757,37 +5568,58 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>XSW</t>
+          <t>SIL</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C86" t="n">
-        <v>1.55</v>
+        <v>0.7</v>
       </c>
       <c r="D86" t="n">
-        <v>5.92</v>
+        <v>-1.2</v>
       </c>
       <c r="E86" t="n">
-        <v>20.65</v>
+        <v>-0.4</v>
       </c>
       <c r="F86" t="n">
-        <v>10.58</v>
+        <v>-5.8</v>
       </c>
       <c r="G86" t="n">
-        <v>20.08</v>
+        <v>-2.116697043189443</v>
       </c>
       <c r="H86" t="n">
-        <v>2.57</v>
+        <v>5.2</v>
       </c>
       <c r="I86" t="n">
-        <v>70.59999999999999</v>
+        <v>9.786796563506034</v>
       </c>
       <c r="J86" t="n">
-        <v>247.89</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>-1.2</v>
+      </c>
+      <c r="K86" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="L86" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="M86" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-13.1</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-25.5</v>
+      </c>
+      <c r="P86" t="n">
+        <v>-42.9</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>-12</v>
+      </c>
+      <c r="R86" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3796,35 +5628,58 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>XTH</t>
+          <t>SLX</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>-1.81822045315347</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="I87" t="n">
-        <v>-1.32</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr">
+        <v>4.004192215401402</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="K87" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>-6.2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="P87" t="n">
+        <v>50.1</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="R87" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3833,37 +5688,58 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>XLB</t>
+          <t>XLF</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C88" t="n">
-        <v>1.07</v>
+        <v>-0.1</v>
       </c>
       <c r="D88" t="n">
-        <v>-1.48</v>
+        <v>0.8</v>
       </c>
       <c r="E88" t="n">
-        <v>5.98</v>
+        <v>-0.2</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.57</v>
+        <v>3.3</v>
       </c>
       <c r="G88" t="n">
-        <v>0.73</v>
+        <v>2.58824674036436</v>
       </c>
       <c r="H88" t="n">
-        <v>-0.04</v>
+        <v>16.1</v>
       </c>
       <c r="I88" t="n">
-        <v>54.41</v>
+        <v>21.58953024791354</v>
       </c>
       <c r="J88" t="n">
-        <v>91.28</v>
-      </c>
-      <c r="K88" t="inlineStr">
+        <v>0.8</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M88" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="P88" t="n">
+        <v>26.5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="R88" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3872,37 +5748,58 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>XME</t>
+          <t>KCE</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C89" t="n">
-        <v>0.26</v>
+        <v>-0.1</v>
       </c>
       <c r="D89" t="n">
-        <v>-1.44</v>
+        <v>0.3</v>
       </c>
       <c r="E89" t="n">
-        <v>12.97</v>
+        <v>-0.7</v>
       </c>
       <c r="F89" t="n">
-        <v>10.95</v>
+        <v>0.8</v>
       </c>
       <c r="G89" t="n">
-        <v>0.76</v>
+        <v>-1.578832158200763</v>
       </c>
       <c r="H89" t="n">
-        <v>29.53</v>
+        <v>17</v>
       </c>
       <c r="I89" t="n">
-        <v>86.2</v>
+        <v>10.68427664523878</v>
       </c>
       <c r="J89" t="n">
-        <v>49.1</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="K89" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="L89" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="M89" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="N89" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="O89" t="n">
+        <v>4</v>
+      </c>
+      <c r="P89" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>22</v>
+      </c>
+      <c r="R89" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3911,37 +5808,58 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>GDX</t>
+          <t>KBE</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="C90" t="n">
-        <v>0.29</v>
+        <v>-0.4</v>
       </c>
       <c r="D90" t="n">
-        <v>-5.88</v>
+        <v>-4.4</v>
       </c>
       <c r="E90" t="n">
-        <v>-3.88</v>
+        <v>-1.7</v>
       </c>
       <c r="F90" t="n">
-        <v>-5.21</v>
+        <v>-6.2</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.25</v>
+        <v>-2.090368624250356</v>
       </c>
       <c r="H90" t="n">
-        <v>-7.83</v>
+        <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>23.93</v>
+        <v>18.0240695184284</v>
       </c>
       <c r="J90" t="n">
-        <v>20.72</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>-4.4</v>
+      </c>
+      <c r="K90" t="n">
+        <v>-7</v>
+      </c>
+      <c r="L90" t="n">
+        <v>-7</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="P90" t="n">
+        <v>-7</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>-7.1</v>
+      </c>
+      <c r="R90" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3950,37 +5868,58 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>SIL</t>
+          <t>KRE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>-0.8</v>
       </c>
       <c r="C91" t="n">
-        <v>0.75</v>
+        <v>-0.6</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.19</v>
+        <v>-6.3</v>
       </c>
       <c r="E91" t="n">
-        <v>2.4</v>
+        <v>-1.7</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.22</v>
+        <v>-10</v>
       </c>
       <c r="G91" t="n">
-        <v>-10.99</v>
+        <v>-2.945398273142952</v>
       </c>
       <c r="H91" t="n">
-        <v>-21.33</v>
+        <v>10.9</v>
       </c>
       <c r="I91" t="n">
-        <v>-5.75</v>
+        <v>13.68904559790837</v>
       </c>
       <c r="J91" t="n">
-        <v>-30.08</v>
-      </c>
-      <c r="K91" t="inlineStr">
+        <v>-6.3</v>
+      </c>
+      <c r="K91" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="L91" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>-5</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-28.1</v>
+      </c>
+      <c r="O91" t="n">
+        <v>-36.9</v>
+      </c>
+      <c r="P91" t="n">
+        <v>-21</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>-22.4</v>
+      </c>
+      <c r="R91" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -3989,37 +5928,58 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>SLX</t>
+          <t>IAK</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.52</v>
+        <v>-0.5</v>
       </c>
       <c r="D92" t="n">
-        <v>-3.91</v>
+        <v>0.1</v>
       </c>
       <c r="E92" t="n">
-        <v>3.55</v>
+        <v>-0.4</v>
       </c>
       <c r="F92" t="n">
-        <v>3.48</v>
+        <v>5.3</v>
       </c>
       <c r="G92" t="n">
-        <v>3.72</v>
+        <v>3.069489663268298</v>
       </c>
       <c r="H92" t="n">
-        <v>24.97</v>
+        <v>13</v>
       </c>
       <c r="I92" t="n">
-        <v>76.53</v>
+        <v>14.21136860708719</v>
       </c>
       <c r="J92" t="n">
-        <v>55.26</v>
-      </c>
-      <c r="K92" t="inlineStr">
+        <v>0.1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>7</v>
+      </c>
+      <c r="L92" t="n">
+        <v>7</v>
+      </c>
+      <c r="M92" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="N92" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O92" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="P92" t="n">
+        <v>55.5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="R92" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4028,232 +5988,358 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>XLF</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C93" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="D93" t="n">
-        <v>3.26</v>
+        <v>1.4</v>
       </c>
       <c r="E93" t="n">
-        <v>15.74</v>
+        <v>0.4</v>
       </c>
       <c r="F93" t="n">
-        <v>11.66</v>
+        <v>2.6</v>
       </c>
       <c r="G93" t="n">
-        <v>6.56</v>
+        <v>1.136042824844804</v>
       </c>
       <c r="H93" t="n">
-        <v>-2.79</v>
+        <v>13.3</v>
       </c>
       <c r="I93" t="n">
-        <v>49.41</v>
+        <v>17.72181409093734</v>
       </c>
       <c r="J93" t="n">
-        <v>131.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>Equity EEUU industries</t>
+        <v>1.4</v>
+      </c>
+      <c r="K93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M93" t="n">
+        <v>9</v>
+      </c>
+      <c r="N93" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="O93" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="P93" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>15.3</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>Equity EEUU factores</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>KCE</t>
+          <t>XLG</t>
         </is>
       </c>
       <c r="B94" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C94" t="n">
         <v>0</v>
       </c>
-      <c r="C94" t="n">
-        <v>1.45</v>
-      </c>
       <c r="D94" t="n">
-        <v>2.03</v>
+        <v>4.1</v>
       </c>
       <c r="E94" t="n">
-        <v>17.94</v>
+        <v>1.4</v>
       </c>
       <c r="F94" t="n">
-        <v>12.46</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>11.27</v>
+        <v>3.00472918180645</v>
       </c>
       <c r="H94" t="n">
-        <v>5.43</v>
+        <v>14.3</v>
       </c>
       <c r="I94" t="n">
-        <v>91.16</v>
+        <v>1.263118365034206</v>
       </c>
       <c r="J94" t="n">
-        <v>121.52</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>Equity EEUU industries</t>
+        <v>4.1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="M94" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="N94" t="n">
+        <v>32</v>
+      </c>
+      <c r="O94" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="P94" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>41.1</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>Equity EEUU factores</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>KBE</t>
+          <t>IWB</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C95" t="n">
-        <v>-1.72</v>
+        <v>0.3</v>
       </c>
       <c r="D95" t="n">
-        <v>-3.63</v>
+        <v>2.9</v>
       </c>
       <c r="E95" t="n">
-        <v>16.09</v>
+        <v>0.9</v>
       </c>
       <c r="F95" t="n">
-        <v>5.06</v>
+        <v>4.1</v>
       </c>
       <c r="G95" t="n">
-        <v>-11.68</v>
+        <v>1.789728758429547</v>
       </c>
       <c r="H95" t="n">
-        <v>-21.93</v>
+        <v>14</v>
       </c>
       <c r="I95" t="n">
-        <v>1.87</v>
+        <v>6.09222507670257</v>
       </c>
       <c r="J95" t="n">
-        <v>40.79</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>Equity EEUU industries</t>
+        <v>2.9</v>
+      </c>
+      <c r="K95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="O95" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="P95" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>Equity EEUU factores</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>KRE</t>
+          <t>IWM</t>
         </is>
       </c>
       <c r="B96" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
-      <c r="C96" t="n">
-        <v>-2.68</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-6.5</v>
-      </c>
       <c r="E96" t="n">
-        <v>12.49</v>
+        <v>-0.5</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.39</v>
+        <v>-1.1</v>
       </c>
       <c r="G96" t="n">
-        <v>-24.54</v>
+        <v>-1.110496289818742</v>
       </c>
       <c r="H96" t="n">
-        <v>-34.15</v>
+        <v>13.6</v>
       </c>
       <c r="I96" t="n">
-        <v>-10.09</v>
+        <v>19.9742781550573</v>
       </c>
       <c r="J96" t="n">
-        <v>29.23</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>Equity EEUU industries</t>
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="L96" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="M96" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-1.4</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-3.2</v>
+      </c>
+      <c r="P96" t="n">
+        <v>-13</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>8</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>Equity EEUU factores</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>IAK</t>
+          <t>IWC</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0</v>
+        <v>-0.9</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.61</v>
+        <v>0.8</v>
       </c>
       <c r="D97" t="n">
-        <v>4.24</v>
+        <v>-0.5</v>
       </c>
       <c r="E97" t="n">
-        <v>11.46</v>
+        <v>-0.5</v>
       </c>
       <c r="F97" t="n">
-        <v>16.54</v>
+        <v>-1.8</v>
       </c>
       <c r="G97" t="n">
-        <v>14.09</v>
+        <v>-1.750878743134706</v>
       </c>
       <c r="H97" t="n">
-        <v>21.69</v>
+        <v>15.3</v>
       </c>
       <c r="I97" t="n">
-        <v>69.03</v>
+        <v>20.57538622314635</v>
       </c>
       <c r="J97" t="n">
-        <v>147.32</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>Equity EEUU industries</t>
+        <v>-0.5</v>
+      </c>
+      <c r="K97" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="L97" t="n">
+        <v>-4.5</v>
+      </c>
+      <c r="M97" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-8.4</v>
+      </c>
+      <c r="O97" t="n">
+        <v>-11.7</v>
+      </c>
+      <c r="P97" t="n">
+        <v>-24.2</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>2</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>Equity EEUU factores</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>SPYG</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="C98" t="n">
-        <v>1.32</v>
+        <v>-0.3</v>
       </c>
       <c r="D98" t="n">
-        <v>3.14</v>
+        <v>4.8</v>
       </c>
       <c r="E98" t="n">
-        <v>13.31</v>
+        <v>1.6</v>
       </c>
       <c r="F98" t="n">
-        <v>10.2</v>
+        <v>7.4</v>
       </c>
       <c r="G98" t="n">
-        <v>14.16</v>
+        <v>5.814358242748074</v>
       </c>
       <c r="H98" t="n">
-        <v>10.13</v>
+        <v>15.4</v>
       </c>
       <c r="I98" t="n">
-        <v>52.16</v>
+        <v>9.754617842236273</v>
       </c>
       <c r="J98" t="n">
-        <v>150.63</v>
-      </c>
-      <c r="K98" t="inlineStr">
+        <v>4.8</v>
+      </c>
+      <c r="K98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="L98" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="M98" t="n">
+        <v>14</v>
+      </c>
+      <c r="N98" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="O98" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="P98" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>32.8</v>
+      </c>
+      <c r="R98" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4262,37 +6348,58 @@
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>XLG</t>
+          <t>SPYD</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C99" t="n">
-        <v>3.27</v>
+        <v>0.7</v>
       </c>
       <c r="D99" t="n">
-        <v>8.09</v>
+        <v>-1</v>
       </c>
       <c r="E99" t="n">
-        <v>14.44</v>
+        <v>-0.9</v>
       </c>
       <c r="F99" t="n">
-        <v>13.89</v>
+        <v>-3.2</v>
       </c>
       <c r="G99" t="n">
-        <v>33.22</v>
+        <v>-1.999441297360025</v>
       </c>
       <c r="H99" t="n">
-        <v>14.97</v>
+        <v>10.3</v>
       </c>
       <c r="I99" t="n">
-        <v>105.39</v>
+        <v>22.44688599686186</v>
       </c>
       <c r="J99" t="n">
-        <v>228.1</v>
-      </c>
-      <c r="K99" t="inlineStr">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="L99" t="n">
+        <v>-2.7</v>
+      </c>
+      <c r="M99" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-11.6</v>
+      </c>
+      <c r="P99" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="R99" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4301,37 +6408,58 @@
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>IWB</t>
+          <t>SPYV</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C100" t="n">
-        <v>2.29</v>
+        <v>0.9</v>
       </c>
       <c r="D100" t="n">
-        <v>5.4</v>
+        <v>0.7</v>
       </c>
       <c r="E100" t="n">
-        <v>13.84</v>
+        <v>-0</v>
       </c>
       <c r="F100" t="n">
-        <v>10.51</v>
+        <v>0.9</v>
       </c>
       <c r="G100" t="n">
-        <v>20.04</v>
+        <v>-0.3425245112925791</v>
       </c>
       <c r="H100" t="n">
-        <v>9.31</v>
+        <v>11.8</v>
       </c>
       <c r="I100" t="n">
-        <v>78.77</v>
+        <v>12.68556326908407</v>
       </c>
       <c r="J100" t="n">
-        <v>177.01</v>
-      </c>
-      <c r="K100" t="inlineStr">
+        <v>0.7</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="N100" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="O100" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="P100" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="R100" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4340,37 +6468,58 @@
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>IWM</t>
+          <t>SDY</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.79</v>
+        <v>0.6</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6</v>
+        <v>-0</v>
       </c>
       <c r="E101" t="n">
-        <v>12.83</v>
+        <v>-0.5</v>
       </c>
       <c r="F101" t="n">
-        <v>0.12</v>
+        <v>-0.8</v>
       </c>
       <c r="G101" t="n">
-        <v>0.14</v>
+        <v>0.9605748442471068</v>
       </c>
       <c r="H101" t="n">
-        <v>-2</v>
+        <v>8.1</v>
       </c>
       <c r="I101" t="n">
-        <v>28.65</v>
+        <v>26.86737500744047</v>
       </c>
       <c r="J101" t="n">
-        <v>78.93000000000001</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>-0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="O101" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="P101" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="R101" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4379,37 +6528,58 @@
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
         <is>
-          <t>IWC</t>
+          <t>VIG</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C102" t="n">
-        <v>0.36</v>
+        <v>0.6</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02</v>
+        <v>1.5</v>
       </c>
       <c r="E102" t="n">
-        <v>14.96</v>
+        <v>0.4</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.9399999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.2</v>
+        <v>1.892766359626546</v>
       </c>
       <c r="H102" t="n">
-        <v>-10.15</v>
+        <v>10.9</v>
       </c>
       <c r="I102" t="n">
-        <v>21.03</v>
+        <v>12.2803199362829</v>
       </c>
       <c r="J102" t="n">
-        <v>55.09</v>
-      </c>
-      <c r="K102" t="inlineStr">
+        <v>1.5</v>
+      </c>
+      <c r="K102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M102" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="N102" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="O102" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="P102" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="R102" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4418,37 +6588,58 @@
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
         <is>
-          <t>SPYG</t>
+          <t>PFF</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C103" t="n">
-        <v>3.66</v>
+        <v>0.2</v>
       </c>
       <c r="D103" t="n">
-        <v>9.81</v>
+        <v>-1.3</v>
       </c>
       <c r="E103" t="n">
-        <v>14.96</v>
+        <v>-2.2</v>
       </c>
       <c r="F103" t="n">
-        <v>13.51</v>
+        <v>0.7</v>
       </c>
       <c r="G103" t="n">
-        <v>28.27</v>
+        <v>-1.137031742067934</v>
       </c>
       <c r="H103" t="n">
-        <v>5.22</v>
+        <v>6.4</v>
       </c>
       <c r="I103" t="n">
-        <v>96.04000000000001</v>
+        <v>9.072288391434443</v>
       </c>
       <c r="J103" t="n">
-        <v>239.56</v>
-      </c>
-      <c r="K103" t="inlineStr">
+        <v>-1.3</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-4.4</v>
+      </c>
+      <c r="O103" t="n">
+        <v>-13.8</v>
+      </c>
+      <c r="P103" t="n">
+        <v>-16.9</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="R103" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4457,35 +6648,58 @@
     <row r="104">
       <c r="A104" s="1" t="inlineStr">
         <is>
-          <t>SPYD</t>
+          <t>QUAL</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.03</v>
+        <v>0.2</v>
       </c>
       <c r="D104" t="n">
-        <v>-2.28</v>
+        <v>3.7</v>
       </c>
       <c r="E104" t="n">
-        <v>10.17</v>
+        <v>1.5</v>
       </c>
       <c r="F104" t="n">
-        <v>1.53</v>
+        <v>5.7</v>
       </c>
       <c r="G104" t="n">
-        <v>-8.449999999999999</v>
+        <v>3.873761158770153</v>
       </c>
       <c r="H104" t="n">
-        <v>-10.24</v>
+        <v>14.4</v>
       </c>
       <c r="I104" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr">
+        <v>8.894480440286163</v>
+      </c>
+      <c r="J104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="N104" t="n">
+        <v>24.7</v>
+      </c>
+      <c r="O104" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="P104" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>33.4</v>
+      </c>
+      <c r="R104" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4494,37 +6708,58 @@
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
         <is>
-          <t>SPYV</t>
+          <t>MTUM</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="C105" t="n">
-        <v>0.73</v>
+        <v>-0.7</v>
       </c>
       <c r="D105" t="n">
-        <v>0.99</v>
+        <v>5.6</v>
       </c>
       <c r="E105" t="n">
-        <v>11.8</v>
+        <v>1.6</v>
       </c>
       <c r="F105" t="n">
-        <v>7.46</v>
+        <v>10.5</v>
       </c>
       <c r="G105" t="n">
-        <v>12.41</v>
+        <v>12.18279652850189</v>
       </c>
       <c r="H105" t="n">
-        <v>13.88</v>
+        <v>20.4</v>
       </c>
       <c r="I105" t="n">
-        <v>58.16</v>
+        <v>51.67052120656746</v>
       </c>
       <c r="J105" t="n">
-        <v>115.71</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>5.6</v>
+      </c>
+      <c r="K105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="L105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M105" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="N105" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="O105" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="R105" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4533,37 +6768,58 @@
     <row r="106">
       <c r="A106" s="1" t="inlineStr">
         <is>
-          <t>SDY</t>
+          <t>ESGU</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C106" t="n">
-        <v>0.49</v>
+        <v>0.2</v>
       </c>
       <c r="D106" t="n">
-        <v>0.03</v>
+        <v>3</v>
       </c>
       <c r="E106" t="n">
-        <v>7.83</v>
+        <v>0.9</v>
       </c>
       <c r="F106" t="n">
-        <v>-0.22</v>
+        <v>4.3</v>
       </c>
       <c r="G106" t="n">
-        <v>-4.6</v>
+        <v>1.935053126900913</v>
       </c>
       <c r="H106" t="n">
-        <v>-0.92</v>
+        <v>14.1</v>
       </c>
       <c r="I106" t="n">
-        <v>29.06</v>
+        <v>5.987303670932111</v>
       </c>
       <c r="J106" t="n">
-        <v>80.44</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K106" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="M106" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="N106" t="n">
+        <v>18.8</v>
+      </c>
+      <c r="O106" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="P106" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="R106" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4572,37 +6828,58 @@
     <row r="107">
       <c r="A107" s="1" t="inlineStr">
         <is>
-          <t>VIG</t>
+          <t>SUSL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C107" t="n">
-        <v>1.08</v>
+        <v>0.1</v>
       </c>
       <c r="D107" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E107" t="n">
-        <v>10.43</v>
+        <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>6.92</v>
+        <v>4.4</v>
       </c>
       <c r="G107" t="n">
-        <v>11.48</v>
+        <v>2.425646647650609</v>
       </c>
       <c r="H107" t="n">
-        <v>7.4</v>
+        <v>14.7</v>
       </c>
       <c r="I107" t="n">
-        <v>65.84999999999999</v>
+        <v>9.670882344604937</v>
       </c>
       <c r="J107" t="n">
-        <v>148.41</v>
-      </c>
-      <c r="K107" t="inlineStr">
+        <v>3</v>
+      </c>
+      <c r="K107" t="n">
+        <v>5</v>
+      </c>
+      <c r="L107" t="n">
+        <v>5</v>
+      </c>
+      <c r="M107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="N107" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="O107" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="P107" t="n">
+        <v>30.9</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="R107" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4611,37 +6888,58 @@
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
         <is>
-          <t>PFF</t>
+          <t>ESML</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D108" t="n">
-        <v>2.76</v>
+        <v>0.3</v>
       </c>
       <c r="E108" t="n">
-        <v>7.24</v>
+        <v>-0.3</v>
       </c>
       <c r="F108" t="n">
-        <v>4.2</v>
+        <v>-0.9</v>
       </c>
       <c r="G108" t="n">
-        <v>-3.59</v>
+        <v>-1.2279420149342</v>
       </c>
       <c r="H108" t="n">
-        <v>-13</v>
+        <v>13.6</v>
       </c>
       <c r="I108" t="n">
-        <v>-10.82</v>
+        <v>16.77496258323094</v>
       </c>
       <c r="J108" t="n">
-        <v>-15.26</v>
-      </c>
-      <c r="K108" t="inlineStr">
+        <v>0.3</v>
+      </c>
+      <c r="K108" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="L108" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="O108" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="P108" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="R108" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4650,37 +6948,58 @@
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
         <is>
-          <t>QUAL</t>
+          <t>SPHB</t>
         </is>
       </c>
       <c r="B109" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C109" t="n">
         <v>0</v>
       </c>
-      <c r="C109" t="n">
-        <v>2.52</v>
-      </c>
       <c r="D109" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="E109" t="n">
-        <v>13.91</v>
+        <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>12.83</v>
+        <v>1.5</v>
       </c>
       <c r="G109" t="n">
-        <v>24.79</v>
+        <v>-0.7932202535123387</v>
       </c>
       <c r="H109" t="n">
-        <v>15.68</v>
+        <v>21</v>
       </c>
       <c r="I109" t="n">
-        <v>82.47</v>
+        <v>11.6389520323166</v>
       </c>
       <c r="J109" t="n">
-        <v>190.37</v>
-      </c>
-      <c r="K109" t="inlineStr">
+        <v>1.9</v>
+      </c>
+      <c r="K109" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L109" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="N109" t="n">
+        <v>8</v>
+      </c>
+      <c r="O109" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="P109" t="n">
+        <v>33.7</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="R109" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4689,37 +7008,58 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>MTUM</t>
+          <t>BTAL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C110" t="n">
-        <v>4.37</v>
+        <v>-0.6</v>
       </c>
       <c r="D110" t="n">
-        <v>13.27</v>
+        <v>0.8</v>
       </c>
       <c r="E110" t="n">
-        <v>19.65</v>
+        <v>0.6</v>
       </c>
       <c r="F110" t="n">
-        <v>19.9</v>
+        <v>4.8</v>
       </c>
       <c r="G110" t="n">
-        <v>22.32</v>
+        <v>5.907394248932953</v>
       </c>
       <c r="H110" t="n">
-        <v>3.64</v>
+        <v>-11.3</v>
       </c>
       <c r="I110" t="n">
-        <v>61.17</v>
+        <v>-16.48770322475459</v>
       </c>
       <c r="J110" t="n">
-        <v>200.68</v>
-      </c>
-      <c r="K110" t="inlineStr">
+        <v>0.8</v>
+      </c>
+      <c r="K110" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-3.9</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="P110" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>-11.8</v>
+      </c>
+      <c r="R110" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4728,35 +7068,58 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>ESGU</t>
+          <t>SPLV</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C111" t="n">
-        <v>2.31</v>
+        <v>0.5</v>
       </c>
       <c r="D111" t="n">
-        <v>5.55</v>
+        <v>0.2</v>
       </c>
       <c r="E111" t="n">
-        <v>13.9</v>
+        <v>-0.6</v>
       </c>
       <c r="F111" t="n">
-        <v>10.48</v>
+        <v>0.1</v>
       </c>
       <c r="G111" t="n">
-        <v>19.58</v>
+        <v>-1.412359340114125</v>
       </c>
       <c r="H111" t="n">
-        <v>7.84</v>
+        <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>81.48999999999999</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr">
+        <v>5.066774557437238</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="O111" t="n">
+        <v>-2.3</v>
+      </c>
+      <c r="P111" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="R111" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -4765,487 +7128,476 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>SUSL</t>
+          <t>BNDD</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C112" t="n">
-        <v>2.23</v>
+        <v>-0.2</v>
       </c>
       <c r="D112" t="n">
-        <v>6.04</v>
+        <v>1.1</v>
       </c>
       <c r="E112" t="n">
-        <v>14.44</v>
+        <v>0.6</v>
       </c>
       <c r="F112" t="n">
-        <v>12.44</v>
+        <v>-0.2</v>
       </c>
       <c r="G112" t="n">
-        <v>23.52</v>
+        <v>0.8717458231248785</v>
       </c>
       <c r="H112" t="n">
-        <v>11.38</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>Equity EEUU factores</t>
+        <v>1.3</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.697661159090035</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="L112" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-2.4</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-5.8</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-42.5</v>
+      </c>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="n">
+        <v>-32.3</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>EEUU infla/defla</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ESML</t>
+          <t>INFL</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C113" t="n">
-        <v>1.03</v>
+        <v>0.8</v>
       </c>
       <c r="D113" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.8</v>
       </c>
       <c r="E113" t="n">
-        <v>13.32</v>
+        <v>-0.5</v>
       </c>
       <c r="F113" t="n">
-        <v>1.61</v>
+        <v>-2.8</v>
       </c>
       <c r="G113" t="n">
-        <v>1.12</v>
+        <v>-3.131853906993276</v>
       </c>
       <c r="H113" t="n">
-        <v>0.54</v>
+        <v>0.8</v>
       </c>
       <c r="I113" t="n">
-        <v>43.85</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>Equity EEUU factores</t>
+        <v>3.171809785815181</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="K113" t="n">
+        <v>-5</v>
+      </c>
+      <c r="L113" t="n">
+        <v>-5</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-6.9</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-7.8</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-4</v>
+      </c>
+      <c r="P113" t="n">
+        <v>17.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>EEUU infla/defla</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>SPHB</t>
+          <t>EMB</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="C114" t="n">
-        <v>1.79</v>
+        <v>1.5</v>
       </c>
       <c r="D114" t="n">
-        <v>3.45</v>
+        <v>-0.5</v>
       </c>
       <c r="E114" t="n">
-        <v>21.36</v>
+        <v>-1.1</v>
       </c>
       <c r="F114" t="n">
-        <v>6.72</v>
+        <v>-0</v>
       </c>
       <c r="G114" t="n">
-        <v>10.09</v>
+        <v>-1.313827109860833</v>
       </c>
       <c r="H114" t="n">
-        <v>9.66</v>
+        <v>5.1</v>
       </c>
       <c r="I114" t="n">
-        <v>102.52</v>
+        <v>3.24589801311071</v>
       </c>
       <c r="J114" t="n">
-        <v>183.6</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>Equity EEUU factores</t>
+        <v>-0.5</v>
+      </c>
+      <c r="K114" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="L114" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-16</v>
+      </c>
+      <c r="P114" t="n">
+        <v>-23.4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>ETF bonos</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>BTAL</t>
+          <t>LEMB</t>
         </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.38</v>
+        <v>0.6</v>
       </c>
       <c r="D115" t="n">
-        <v>4.01</v>
+        <v>-0.1</v>
       </c>
       <c r="E115" t="n">
-        <v>-12.03</v>
+        <v>-0.4</v>
       </c>
       <c r="F115" t="n">
-        <v>-0.91</v>
+        <v>-1.2</v>
       </c>
       <c r="G115" t="n">
-        <v>-5.39</v>
+        <v>-3.643280100887557</v>
       </c>
       <c r="H115" t="n">
-        <v>-0.59</v>
+        <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>-13.24</v>
+        <v>-5.650275646621178</v>
       </c>
       <c r="J115" t="n">
-        <v>-3.46</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>Equity EEUU factores</t>
+        <v>-0.1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="L115" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-9.6</v>
+      </c>
+      <c r="P115" t="n">
+        <v>-20</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
+          <t>ETF bonos</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>SPLV</t>
+          <t>LQD</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>-0.3</v>
       </c>
       <c r="C116" t="n">
-        <v>0.54</v>
+        <v>0.9</v>
       </c>
       <c r="D116" t="n">
-        <v>0.87</v>
+        <v>-1.2</v>
       </c>
       <c r="E116" t="n">
-        <v>6</v>
+        <v>-1.9</v>
       </c>
       <c r="F116" t="n">
-        <v>2.24</v>
+        <v>-0.7</v>
       </c>
       <c r="G116" t="n">
-        <v>0.05</v>
+        <v>-2.751934781558894</v>
       </c>
       <c r="H116" t="n">
-        <v>-2.13</v>
+        <v>5.9</v>
       </c>
       <c r="I116" t="n">
-        <v>26.72</v>
+        <v>11.89888746730258</v>
       </c>
       <c r="J116" t="n">
-        <v>100.51</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>Equity EEUU factores</t>
+        <v>-1.2</v>
+      </c>
+      <c r="K116" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="L116" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="M116" t="n">
+        <v>3</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-13.4</v>
+      </c>
+      <c r="P116" t="n">
+        <v>-19.3</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>ETF bonos</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>BNDD</t>
+          <t>LQDH</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C117" t="n">
-        <v>2.57</v>
+        <v>-0.4</v>
       </c>
       <c r="D117" t="n">
-        <v>0.27</v>
+        <v>-0.7</v>
       </c>
       <c r="E117" t="n">
-        <v>5.83</v>
+        <v>-0.9</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.92</v>
+        <v>-0.3</v>
       </c>
       <c r="G117" t="n">
-        <v>-5.37</v>
+        <v>-2.768983421247075</v>
       </c>
       <c r="H117" t="n">
-        <v>-41.63</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>EEUU infla/defla</t>
+        <v>1.6</v>
+      </c>
+      <c r="I117" t="n">
+        <v>2.46645727068803</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="P117" t="n">
+        <v>-2.6</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>ETF bonos</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>INFL</t>
+          <t>HYG</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D118" t="n">
-        <v>-2.27</v>
+        <v>-0.6</v>
       </c>
       <c r="E118" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.3</v>
       </c>
       <c r="F118" t="n">
-        <v>-5.86</v>
+        <v>-0.4</v>
       </c>
       <c r="G118" t="n">
-        <v>-5.63</v>
+        <v>-2.815634475884373</v>
       </c>
       <c r="H118" t="n">
-        <v>-2.42</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>EEUU infla/defla</t>
+        <v>3.9</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4.311061977530092</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="K118" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="L118" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="M118" t="n">
+        <v>3</v>
+      </c>
+      <c r="N118" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-8</v>
+      </c>
+      <c r="P118" t="n">
+        <v>-12</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>ETF bonos</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>EMB</t>
+          <t>HYGH</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.39</v>
+        <v>0.7</v>
       </c>
       <c r="D119" t="n">
-        <v>0.54</v>
+        <v>-0.2</v>
       </c>
       <c r="E119" t="n">
-        <v>5.81</v>
+        <v>-0.7</v>
       </c>
       <c r="F119" t="n">
-        <v>1.62</v>
+        <v>-0.2</v>
       </c>
       <c r="G119" t="n">
-        <v>0.65</v>
+        <v>-2.172792291246077</v>
       </c>
       <c r="H119" t="n">
-        <v>-16.01</v>
+        <v>1.6</v>
       </c>
       <c r="I119" t="n">
-        <v>-19.55</v>
+        <v>-3.025902223957079</v>
       </c>
       <c r="J119" t="n">
-        <v>-18.64</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>ETF bonos</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="inlineStr">
-        <is>
-          <t>LEMB</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>-0.19</v>
-      </c>
-      <c r="D120" t="n">
-        <v>-1.18</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="F120" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="G120" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="H120" t="n">
-        <v>-9.529999999999999</v>
-      </c>
-      <c r="I120" t="n">
-        <v>-20.75</v>
-      </c>
-      <c r="J120" t="n">
-        <v>-23.95</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>ETF bonos</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="inlineStr">
-        <is>
-          <t>LQD</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="E121" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="G121" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="H121" t="n">
-        <v>-12.62</v>
-      </c>
-      <c r="I121" t="n">
-        <v>-5.74</v>
-      </c>
-      <c r="J121" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>ETF bonos</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="inlineStr">
-        <is>
-          <t>LQDH</t>
-        </is>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="E122" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="G122" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="H122" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="I122" t="n">
-        <v>-0.26</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>ETF bonos</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="inlineStr">
-        <is>
-          <t>HYG</t>
-        </is>
-      </c>
-      <c r="B123" t="n">
-        <v>0</v>
-      </c>
-      <c r="C123" t="n">
-        <v>-0.37</v>
-      </c>
-      <c r="D123" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="E123" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F123" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H123" t="n">
-        <v>-7.85</v>
-      </c>
-      <c r="I123" t="n">
-        <v>-9.380000000000001</v>
-      </c>
-      <c r="J123" t="n">
-        <v>-16.66</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>ETF bonos</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="inlineStr">
-        <is>
-          <t>HYGH</t>
-        </is>
-      </c>
-      <c r="B124" t="n">
-        <v>0</v>
-      </c>
-      <c r="C124" t="n">
-        <v>-0.31</v>
-      </c>
-      <c r="D124" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E124" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="G124" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="H124" t="n">
-        <v>-2.17</v>
-      </c>
-      <c r="I124" t="n">
-        <v>-5.34</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
+        <v>-0.2</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-1.9</v>
+      </c>
+      <c r="P119" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>2</v>
+      </c>
+      <c r="R119" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>

--- a/stocksPercentage.xlsx
+++ b/stocksPercentage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R119"/>
+  <dimension ref="A1:Q119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,50 +476,45 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>3Mdesvios</t>
+          <t>MTD</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>MTD</t>
+          <t>QTD</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>QTD</t>
+          <t>YTD</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>YTD</t>
+          <t>6M</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>6M</t>
+          <t>1Y</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>1Y</t>
+          <t>2Y</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>2Y</t>
+          <t>3Y</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>3Y</t>
+          <t>2022/12/9</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2022/12/9</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Sector</t>
         </is>
@@ -535,7 +530,7 @@
         <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.3</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
@@ -547,39 +542,36 @@
         <v>2.2</v>
       </c>
       <c r="G2" t="n">
-        <v>3.054037478712489</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>-5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>-20.39648735926891</v>
+        <v>0.6</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="K2" t="n">
         <v>3.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>-1.1</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.1</v>
+        <v>0.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4</v>
+        <v>9.6</v>
       </c>
       <c r="O2" t="n">
-        <v>9.6</v>
+        <v>14.2</v>
       </c>
       <c r="P2" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="Q2" t="n">
         <v>-1.3</v>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -595,7 +587,7 @@
         <v>0.3</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>-0.4</v>
@@ -607,39 +599,36 @@
         <v>-1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.304585335086611</v>
+        <v>-2.3</v>
       </c>
       <c r="H3" t="n">
         <v>-3</v>
       </c>
       <c r="I3" t="n">
-        <v>-16.61484430090078</v>
+        <v>-0.4</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4</v>
+        <v>-2.4</v>
       </c>
       <c r="K3" t="n">
         <v>-2.4</v>
       </c>
       <c r="L3" t="n">
-        <v>-2.4</v>
+        <v>-5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>-5.5</v>
+        <v>-3.1</v>
       </c>
       <c r="N3" t="n">
-        <v>-3.1</v>
+        <v>-11.3</v>
       </c>
       <c r="O3" t="n">
-        <v>-11.3</v>
+        <v>-16.3</v>
       </c>
       <c r="P3" t="n">
-        <v>-16.3</v>
-      </c>
-      <c r="Q3" t="n">
         <v>-2</v>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -655,7 +644,7 @@
         <v>0.3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>-0.3</v>
@@ -667,39 +656,36 @@
         <v>-0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.594997347024046</v>
+        <v>-1.4</v>
       </c>
       <c r="H4" t="n">
         <v>-0.6</v>
       </c>
       <c r="I4" t="n">
-        <v>-16.1083050979782</v>
+        <v>-0.3</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.3</v>
+        <v>-2.1</v>
       </c>
       <c r="K4" t="n">
         <v>-2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>-2.1</v>
+        <v>-0.1</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.1</v>
+        <v>2.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9</v>
+        <v>-3.9</v>
       </c>
       <c r="P4" t="n">
-        <v>-3.9</v>
-      </c>
-      <c r="Q4" t="n">
         <v>4.6</v>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Coins</t>
         </is>
@@ -715,7 +701,7 @@
         <v>-0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D5" t="n">
         <v>-0.4</v>
@@ -727,39 +713,36 @@
         <v>-0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>0.775656166356012</v>
+        <v>-0.1</v>
       </c>
       <c r="H5" t="n">
         <v>-1.8</v>
       </c>
       <c r="I5" t="n">
-        <v>-2.898502711739434</v>
+        <v>-0.4</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.4</v>
+        <v>-2.3</v>
       </c>
       <c r="K5" t="n">
         <v>-2.3</v>
       </c>
       <c r="L5" t="n">
-        <v>-2.3</v>
+        <v>-2</v>
       </c>
       <c r="M5" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4</v>
+        <v>-3.7</v>
       </c>
       <c r="P5" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="Q5" t="n">
         <v>2.8</v>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -775,7 +758,7 @@
         <v>-0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7</v>
+        <v>-0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -787,39 +770,36 @@
         <v>0.5</v>
       </c>
       <c r="G6" t="n">
-        <v>1.232242661619169</v>
+        <v>-0</v>
       </c>
       <c r="H6" t="n">
         <v>4.3</v>
       </c>
       <c r="I6" t="n">
-        <v>6.965486923322978</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1.4</v>
       </c>
       <c r="K6" t="n">
         <v>-1.4</v>
       </c>
       <c r="L6" t="n">
-        <v>-1.4</v>
+        <v>4.9</v>
       </c>
       <c r="M6" t="n">
-        <v>4.9</v>
+        <v>8.4</v>
       </c>
       <c r="N6" t="n">
-        <v>8.4</v>
+        <v>10.8</v>
       </c>
       <c r="O6" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="P6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q6" t="n">
         <v>12.9</v>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -835,7 +815,7 @@
         <v>-0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D7" t="n">
         <v>-2.4</v>
@@ -847,39 +827,36 @@
         <v>-2.6</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.299608898503133</v>
+        <v>-0.2</v>
       </c>
       <c r="H7" t="n">
         <v>-1.2</v>
       </c>
       <c r="I7" t="n">
-        <v>-2.178099004435924</v>
+        <v>-2.4</v>
       </c>
       <c r="J7" t="n">
-        <v>-2.4</v>
+        <v>-6.3</v>
       </c>
       <c r="K7" t="n">
         <v>-6.3</v>
       </c>
       <c r="L7" t="n">
-        <v>-6.3</v>
+        <v>-3.8</v>
       </c>
       <c r="M7" t="n">
-        <v>-3.8</v>
+        <v>0.1</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1</v>
+        <v>-4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>-4.1</v>
+        <v>-18.2</v>
       </c>
       <c r="P7" t="n">
-        <v>-18.2</v>
-      </c>
-      <c r="Q7" t="n">
         <v>-5.4</v>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -895,7 +872,7 @@
         <v>-2.5</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3</v>
+        <v>-1.8</v>
       </c>
       <c r="D8" t="n">
         <v>-3.8</v>
@@ -907,39 +884,36 @@
         <v>-4.4</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.837232560228908</v>
+        <v>-2</v>
       </c>
       <c r="H8" t="n">
         <v>1.2</v>
       </c>
       <c r="I8" t="n">
-        <v>6.956030910573102</v>
+        <v>-3.8</v>
       </c>
       <c r="J8" t="n">
-        <v>-3.8</v>
+        <v>-10.9</v>
       </c>
       <c r="K8" t="n">
         <v>-10.9</v>
       </c>
       <c r="L8" t="n">
-        <v>-10.9</v>
+        <v>-4.8</v>
       </c>
       <c r="M8" t="n">
-        <v>-4.8</v>
+        <v>-9.9</v>
       </c>
       <c r="N8" t="n">
-        <v>-9.9</v>
+        <v>-14.8</v>
       </c>
       <c r="O8" t="n">
-        <v>-14.8</v>
+        <v>-23.1</v>
       </c>
       <c r="P8" t="n">
-        <v>-23.1</v>
-      </c>
-      <c r="Q8" t="n">
         <v>-14.4</v>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -967,39 +941,36 @@
         <v>1.8</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4344236781373605</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>-7.6</v>
       </c>
       <c r="I9" t="n">
-        <v>-13.92208943450228</v>
+        <v>-1.6</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.4</v>
       </c>
       <c r="L9" t="n">
-        <v>2.4</v>
+        <v>-12.7</v>
       </c>
       <c r="M9" t="n">
-        <v>-12.7</v>
+        <v>-7.9</v>
       </c>
       <c r="N9" t="n">
-        <v>-7.9</v>
+        <v>-1.2</v>
       </c>
       <c r="O9" t="n">
-        <v>-1.2</v>
+        <v>59.6</v>
       </c>
       <c r="P9" t="n">
-        <v>59.6</v>
-      </c>
-      <c r="Q9" t="n">
         <v>-8.300000000000001</v>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1015,7 +986,7 @@
         <v>0.2</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="D10" t="n">
         <v>-1.8</v>
@@ -1027,39 +998,36 @@
         <v>2.5</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04174185122895829</v>
+        <v>1.1</v>
       </c>
       <c r="H10" t="n">
         <v>-8.1</v>
       </c>
       <c r="I10" t="n">
-        <v>-16.33931459129423</v>
+        <v>-1.8</v>
       </c>
       <c r="J10" t="n">
-        <v>-1.8</v>
+        <v>2.3</v>
       </c>
       <c r="K10" t="n">
         <v>2.3</v>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>-12.7</v>
       </c>
       <c r="M10" t="n">
-        <v>-12.7</v>
+        <v>-4.1</v>
       </c>
       <c r="N10" t="n">
-        <v>-4.1</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>-8.800000000000001</v>
+        <v>44.6</v>
       </c>
       <c r="P10" t="n">
-        <v>44.6</v>
-      </c>
-      <c r="Q10" t="n">
         <v>0.4</v>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1075,7 +1043,7 @@
         <v>-0.9</v>
       </c>
       <c r="C11" t="n">
-        <v>-1</v>
+        <v>-0.2</v>
       </c>
       <c r="D11" t="n">
         <v>-6.4</v>
@@ -1087,39 +1055,36 @@
         <v>-25.3</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.586201932745458</v>
+        <v>-6.2</v>
       </c>
       <c r="H11" t="n">
         <v>-29.8</v>
       </c>
       <c r="I11" t="n">
-        <v>-3.05818212550991</v>
+        <v>-6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>-6.4</v>
+        <v>-9.4</v>
       </c>
       <c r="K11" t="n">
         <v>-9.4</v>
       </c>
       <c r="L11" t="n">
-        <v>-9.4</v>
+        <v>-37.9</v>
       </c>
       <c r="M11" t="n">
-        <v>-37.9</v>
+        <v>-48.2</v>
       </c>
       <c r="N11" t="n">
-        <v>-48.2</v>
+        <v>-69.40000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>-69.40000000000001</v>
+        <v>-56.4</v>
       </c>
       <c r="P11" t="n">
-        <v>-56.4</v>
-      </c>
-      <c r="Q11" t="n">
         <v>-76.2</v>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1135,7 +1100,7 @@
         <v>-0.9</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="D12" t="n">
         <v>-3.6</v>
@@ -1147,39 +1112,36 @@
         <v>-1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.954146571004585</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>-9.291949055215234</v>
+        <v>-3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>-3.6</v>
+        <v>-6.5</v>
       </c>
       <c r="K12" t="n">
         <v>-6.5</v>
       </c>
       <c r="L12" t="n">
-        <v>-6.5</v>
+        <v>-8.4</v>
       </c>
       <c r="M12" t="n">
-        <v>-8.4</v>
+        <v>-18.7</v>
       </c>
       <c r="N12" t="n">
-        <v>-18.7</v>
+        <v>-27.1</v>
       </c>
       <c r="O12" t="n">
-        <v>-27.1</v>
+        <v>-1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>-1.4</v>
-      </c>
-      <c r="Q12" t="n">
         <v>-16.5</v>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1195,7 +1157,7 @@
         <v>-1.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3</v>
+        <v>-1.1</v>
       </c>
       <c r="D13" t="n">
         <v>-3.6</v>
@@ -1207,39 +1169,36 @@
         <v>-1</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.148969319008672</v>
+        <v>-0.3</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.347167977619789</v>
+        <v>-3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.6</v>
+        <v>-3.4</v>
       </c>
       <c r="K13" t="n">
         <v>-3.4</v>
       </c>
       <c r="L13" t="n">
-        <v>-3.4</v>
+        <v>-2</v>
       </c>
       <c r="M13" t="n">
-        <v>-2</v>
+        <v>-5.7</v>
       </c>
       <c r="N13" t="n">
-        <v>-5.7</v>
+        <v>-14.7</v>
       </c>
       <c r="O13" t="n">
-        <v>-14.7</v>
+        <v>3.9</v>
       </c>
       <c r="P13" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="Q13" t="n">
         <v>0.4</v>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1255,7 +1214,7 @@
         <v>-5</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2</v>
+        <v>-1.6</v>
       </c>
       <c r="D14" t="n">
         <v>-8.1</v>
@@ -1267,39 +1226,36 @@
         <v>-10</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.17082546186227</v>
+        <v>-3</v>
       </c>
       <c r="H14" t="n">
         <v>-14.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.401462666174175</v>
+        <v>-8.1</v>
       </c>
       <c r="J14" t="n">
-        <v>-8.1</v>
+        <v>-17.9</v>
       </c>
       <c r="K14" t="n">
         <v>-17.9</v>
       </c>
       <c r="L14" t="n">
-        <v>-17.9</v>
+        <v>-27.7</v>
       </c>
       <c r="M14" t="n">
-        <v>-27.7</v>
+        <v>-45.9</v>
       </c>
       <c r="N14" t="n">
-        <v>-45.9</v>
+        <v>-60.6</v>
       </c>
       <c r="O14" t="n">
-        <v>-60.6</v>
+        <v>-62.1</v>
       </c>
       <c r="P14" t="n">
-        <v>-62.1</v>
-      </c>
-      <c r="Q14" t="n">
         <v>-54.1</v>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1315,7 +1271,7 @@
         <v>0.4</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="D15" t="n">
         <v>1.1</v>
@@ -1327,39 +1283,36 @@
         <v>6.1</v>
       </c>
       <c r="G15" t="n">
-        <v>4.810238158519128</v>
+        <v>6.5</v>
       </c>
       <c r="H15" t="n">
         <v>-1.8</v>
       </c>
       <c r="I15" t="n">
-        <v>-15.64778947474537</v>
+        <v>1.1</v>
       </c>
       <c r="J15" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="K15" t="n">
         <v>5.4</v>
       </c>
       <c r="L15" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.3</v>
+        <v>9</v>
       </c>
       <c r="N15" t="n">
-        <v>9</v>
+        <v>5.7</v>
       </c>
       <c r="O15" t="n">
-        <v>5.7</v>
+        <v>31.1</v>
       </c>
       <c r="P15" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="Q15" t="n">
         <v>11.8</v>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1375,7 +1328,7 @@
         <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D16" t="n">
         <v>-0.1</v>
@@ -1387,39 +1340,36 @@
         <v>-3</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.5668063030839171</v>
+        <v>-0.6</v>
       </c>
       <c r="H16" t="n">
         <v>-4</v>
       </c>
       <c r="I16" t="n">
-        <v>4.439145605351345</v>
+        <v>-0.1</v>
       </c>
       <c r="J16" t="n">
-        <v>-0.1</v>
+        <v>-4.9</v>
       </c>
       <c r="K16" t="n">
         <v>-4.9</v>
       </c>
       <c r="L16" t="n">
-        <v>-4.9</v>
+        <v>-14.7</v>
       </c>
       <c r="M16" t="n">
-        <v>-14.7</v>
+        <v>-26</v>
       </c>
       <c r="N16" t="n">
-        <v>-26</v>
+        <v>-23.7</v>
       </c>
       <c r="O16" t="n">
-        <v>-23.7</v>
+        <v>-8.5</v>
       </c>
       <c r="P16" t="n">
-        <v>-8.5</v>
-      </c>
-      <c r="Q16" t="n">
         <v>-23.8</v>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1435,7 +1385,7 @@
         <v>1.3</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D17" t="n">
         <v>0.5</v>
@@ -1447,39 +1397,36 @@
         <v>10.5</v>
       </c>
       <c r="G17" t="n">
-        <v>3.781136163609776</v>
+        <v>5.3</v>
       </c>
       <c r="H17" t="n">
         <v>-7.1</v>
       </c>
       <c r="I17" t="n">
-        <v>-25.46201785581114</v>
+        <v>0.5</v>
       </c>
       <c r="J17" t="n">
-        <v>0.5</v>
+        <v>12.7</v>
       </c>
       <c r="K17" t="n">
         <v>12.7</v>
       </c>
       <c r="L17" t="n">
-        <v>12.7</v>
+        <v>6</v>
       </c>
       <c r="M17" t="n">
-        <v>6</v>
+        <v>37.8</v>
       </c>
       <c r="N17" t="n">
-        <v>37.8</v>
+        <v>57.9</v>
       </c>
       <c r="O17" t="n">
-        <v>57.9</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="P17" t="n">
-        <v>94.90000000000001</v>
-      </c>
-      <c r="Q17" t="n">
         <v>49</v>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1495,7 +1442,7 @@
         <v>-0.6</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4</v>
+        <v>-0.7</v>
       </c>
       <c r="D18" t="n">
         <v>-1.8</v>
@@ -1507,39 +1454,36 @@
         <v>-4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.6179413755044</v>
+        <v>-1.6</v>
       </c>
       <c r="H18" t="n">
         <v>-8.9</v>
       </c>
       <c r="I18" t="n">
-        <v>-4.931136112562074</v>
+        <v>-1.8</v>
       </c>
       <c r="J18" t="n">
-        <v>-1.8</v>
+        <v>-6.6</v>
       </c>
       <c r="K18" t="n">
         <v>-6.6</v>
       </c>
       <c r="L18" t="n">
-        <v>-6.6</v>
+        <v>-11</v>
       </c>
       <c r="M18" t="n">
-        <v>-11</v>
+        <v>-24</v>
       </c>
       <c r="N18" t="n">
-        <v>-24</v>
+        <v>-12.6</v>
       </c>
       <c r="O18" t="n">
-        <v>-12.6</v>
+        <v>18.8</v>
       </c>
       <c r="P18" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="Q18" t="n">
         <v>-21.7</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1555,7 +1499,7 @@
         <v>-1.2</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7</v>
+        <v>-1.1</v>
       </c>
       <c r="D19" t="n">
         <v>-2.9</v>
@@ -1567,39 +1511,36 @@
         <v>-3.7</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.19949923131542</v>
+        <v>-0.7</v>
       </c>
       <c r="H19" t="n">
         <v>-11.9</v>
       </c>
       <c r="I19" t="n">
-        <v>-18.10206393067189</v>
+        <v>-2.9</v>
       </c>
       <c r="J19" t="n">
-        <v>-2.9</v>
+        <v>-7.5</v>
       </c>
       <c r="K19" t="n">
         <v>-7.5</v>
       </c>
       <c r="L19" t="n">
-        <v>-7.5</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="M19" t="n">
-        <v>-8.199999999999999</v>
+        <v>-10.8</v>
       </c>
       <c r="N19" t="n">
-        <v>-10.8</v>
+        <v>-4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>-4.6</v>
+        <v>23.1</v>
       </c>
       <c r="P19" t="n">
-        <v>23.1</v>
-      </c>
-      <c r="Q19" t="n">
         <v>-10.5</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Commodities</t>
         </is>
@@ -1615,7 +1556,7 @@
         <v>0.6</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
@@ -1627,39 +1568,36 @@
         <v>4.3</v>
       </c>
       <c r="G20" t="n">
-        <v>2.166662896424223</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
         <v>13.7</v>
       </c>
       <c r="I20" t="n">
-        <v>7.394777441240362</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="K20" t="n">
         <v>4.6</v>
       </c>
       <c r="L20" t="n">
-        <v>4.6</v>
+        <v>10.3</v>
       </c>
       <c r="M20" t="n">
-        <v>10.3</v>
+        <v>19.7</v>
       </c>
       <c r="N20" t="n">
-        <v>19.7</v>
+        <v>11.2</v>
       </c>
       <c r="O20" t="n">
-        <v>11.2</v>
+        <v>28.2</v>
       </c>
       <c r="P20" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="Q20" t="n">
         <v>26.4</v>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1675,7 +1613,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7</v>
+        <v>-0.1</v>
       </c>
       <c r="D21" t="n">
         <v>-0.6</v>
@@ -1687,39 +1625,36 @@
         <v>-0.8</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.166016465517516</v>
+        <v>-2.4</v>
       </c>
       <c r="H21" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="I21" t="n">
-        <v>10.9315576762388</v>
+        <v>-0.6</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.6</v>
+        <v>-1.5</v>
       </c>
       <c r="K21" t="n">
         <v>-1.5</v>
       </c>
       <c r="L21" t="n">
-        <v>-1.5</v>
+        <v>3.4</v>
       </c>
       <c r="M21" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="N21" t="n">
-        <v>1.7</v>
+        <v>-6.3</v>
       </c>
       <c r="O21" t="n">
-        <v>-6.3</v>
+        <v>12.7</v>
       </c>
       <c r="P21" t="n">
-        <v>12.7</v>
-      </c>
-      <c r="Q21" t="n">
         <v>6.7</v>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1735,7 +1670,7 @@
         <v>-1.5</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2</v>
+        <v>-1.7</v>
       </c>
       <c r="D22" t="n">
         <v>-2.5</v>
@@ -1747,39 +1682,36 @@
         <v>-4</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.339407526856816</v>
+        <v>-4.2</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.8246258785427435</v>
+        <v>-2.5</v>
       </c>
       <c r="J22" t="n">
-        <v>-2.5</v>
+        <v>-4.4</v>
       </c>
       <c r="K22" t="n">
         <v>-4.4</v>
       </c>
       <c r="L22" t="n">
-        <v>-4.4</v>
+        <v>-1</v>
       </c>
       <c r="M22" t="n">
-        <v>-1</v>
+        <v>-1.6</v>
       </c>
       <c r="N22" t="n">
-        <v>-1.6</v>
+        <v>-20.9</v>
       </c>
       <c r="O22" t="n">
-        <v>-20.9</v>
+        <v>-3.7</v>
       </c>
       <c r="P22" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="Q22" t="n">
         <v>6.5</v>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1795,7 +1727,7 @@
         <v>0.6</v>
       </c>
       <c r="C23" t="n">
-        <v>-0</v>
+        <v>0.4</v>
       </c>
       <c r="D23" t="n">
         <v>0.5</v>
@@ -1807,39 +1739,36 @@
         <v>-2.9</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.032959380907283</v>
+        <v>-2.2</v>
       </c>
       <c r="H23" t="n">
         <v>4.4</v>
       </c>
       <c r="I23" t="n">
-        <v>0.1984283047138535</v>
+        <v>0.5</v>
       </c>
       <c r="J23" t="n">
-        <v>0.5</v>
+        <v>-3.3</v>
       </c>
       <c r="K23" t="n">
         <v>-3.3</v>
       </c>
       <c r="L23" t="n">
-        <v>-3.3</v>
+        <v>-2</v>
       </c>
       <c r="M23" t="n">
-        <v>-2</v>
+        <v>-2.5</v>
       </c>
       <c r="N23" t="n">
-        <v>-2.5</v>
+        <v>-10.8</v>
       </c>
       <c r="O23" t="n">
-        <v>-10.8</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="P23" t="n">
-        <v>-9.800000000000001</v>
-      </c>
-      <c r="Q23" t="n">
         <v>2.8</v>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1855,7 +1784,7 @@
         <v>0.7</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="D24" t="n">
         <v>1.4</v>
@@ -1867,39 +1796,36 @@
         <v>1.7</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.6960942117900387</v>
+        <v>0.9</v>
       </c>
       <c r="H24" t="n">
         <v>15.3</v>
       </c>
       <c r="I24" t="n">
-        <v>12.82463219966878</v>
+        <v>1.4</v>
       </c>
       <c r="J24" t="n">
-        <v>1.4</v>
+        <v>3.7</v>
       </c>
       <c r="K24" t="n">
         <v>3.7</v>
       </c>
       <c r="L24" t="n">
-        <v>3.7</v>
+        <v>10.6</v>
       </c>
       <c r="M24" t="n">
-        <v>10.6</v>
+        <v>14.1</v>
       </c>
       <c r="N24" t="n">
-        <v>14.1</v>
+        <v>16.4</v>
       </c>
       <c r="O24" t="n">
-        <v>16.4</v>
+        <v>19.4</v>
       </c>
       <c r="P24" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="Q24" t="n">
         <v>22</v>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1915,7 +1841,7 @@
         <v>-0.2</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D25" t="n">
         <v>-2.3</v>
@@ -1927,39 +1853,36 @@
         <v>-4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.438881457342703</v>
+        <v>-3.9</v>
       </c>
       <c r="H25" t="n">
         <v>3.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.702618562895041</v>
+        <v>-2.3</v>
       </c>
       <c r="J25" t="n">
-        <v>-2.3</v>
+        <v>-4.2</v>
       </c>
       <c r="K25" t="n">
         <v>-4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>-4.2</v>
+        <v>-0.1</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.1</v>
+        <v>-12</v>
       </c>
       <c r="N25" t="n">
-        <v>-12</v>
+        <v>-24.8</v>
       </c>
       <c r="O25" t="n">
-        <v>-24.8</v>
+        <v>-24.9</v>
       </c>
       <c r="P25" t="n">
-        <v>-24.9</v>
-      </c>
-      <c r="Q25" t="n">
         <v>-9.9</v>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -1975,7 +1898,7 @@
         <v>-0.3</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D26" t="n">
         <v>-0.6</v>
@@ -1987,39 +1910,36 @@
         <v>0.6</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2635717806552918</v>
+        <v>-0.7</v>
       </c>
       <c r="H26" t="n">
         <v>8.5</v>
       </c>
       <c r="I26" t="n">
-        <v>8.304923748315357</v>
+        <v>-0.6</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.6</v>
+        <v>-1.6</v>
       </c>
       <c r="K26" t="n">
         <v>-1.6</v>
       </c>
       <c r="L26" t="n">
-        <v>-1.6</v>
+        <v>0.5</v>
       </c>
       <c r="M26" t="n">
-        <v>0.5</v>
+        <v>4.7</v>
       </c>
       <c r="N26" t="n">
-        <v>4.7</v>
+        <v>0.7</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7</v>
+        <v>14.2</v>
       </c>
       <c r="P26" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="Q26" t="n">
         <v>14.6</v>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2035,7 +1955,7 @@
         <v>-0.5</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="D27" t="n">
         <v>0.3</v>
@@ -2047,39 +1967,36 @@
         <v>-0.5</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2108580981764167</v>
+        <v>-0.6</v>
       </c>
       <c r="H27" t="n">
         <v>11.1</v>
       </c>
       <c r="I27" t="n">
-        <v>18.06327145463541</v>
+        <v>0.3</v>
       </c>
       <c r="J27" t="n">
-        <v>0.3</v>
+        <v>-1.8</v>
       </c>
       <c r="K27" t="n">
         <v>-1.8</v>
       </c>
       <c r="L27" t="n">
-        <v>-1.8</v>
+        <v>2.4</v>
       </c>
       <c r="M27" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="N27" t="n">
-        <v>3.6</v>
+        <v>-8.9</v>
       </c>
       <c r="O27" t="n">
-        <v>-8.9</v>
+        <v>-10.7</v>
       </c>
       <c r="P27" t="n">
-        <v>-10.7</v>
-      </c>
-      <c r="Q27" t="n">
         <v>15.4</v>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2095,7 +2012,7 @@
         <v>-0.5</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="D28" t="n">
         <v>2.7</v>
@@ -2107,39 +2024,36 @@
         <v>3.5</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.79256682325757</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>13.4</v>
       </c>
       <c r="I28" t="n">
-        <v>-4.967632594343404</v>
+        <v>2.7</v>
       </c>
       <c r="J28" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="K28" t="n">
         <v>8</v>
       </c>
       <c r="L28" t="n">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="M28" t="n">
-        <v>2.5</v>
+        <v>29.7</v>
       </c>
       <c r="N28" t="n">
-        <v>29.7</v>
+        <v>38.4</v>
       </c>
       <c r="O28" t="n">
-        <v>38.4</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="P28" t="n">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="Q28" t="n">
         <v>50.8</v>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2155,7 +2069,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
       <c r="D29" t="n">
         <v>0.7</v>
@@ -2167,39 +2081,36 @@
         <v>7.6</v>
       </c>
       <c r="G29" t="n">
-        <v>4.281973613189098</v>
+        <v>5</v>
       </c>
       <c r="H29" t="n">
         <v>13.3</v>
       </c>
       <c r="I29" t="n">
-        <v>7.881561856815325</v>
+        <v>0.7</v>
       </c>
       <c r="J29" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="K29" t="n">
         <v>2.5</v>
       </c>
       <c r="L29" t="n">
-        <v>2.5</v>
+        <v>4.3</v>
       </c>
       <c r="M29" t="n">
-        <v>4.3</v>
+        <v>19</v>
       </c>
       <c r="N29" t="n">
-        <v>19</v>
+        <v>11.6</v>
       </c>
       <c r="O29" t="n">
-        <v>11.6</v>
+        <v>24.9</v>
       </c>
       <c r="P29" t="n">
-        <v>24.9</v>
-      </c>
-      <c r="Q29" t="n">
         <v>36.6</v>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2215,7 +2126,7 @@
         <v>-0.5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="D30" t="n">
         <v>0.6</v>
@@ -2227,39 +2138,36 @@
         <v>-0.5</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.100481440496618</v>
+        <v>-1</v>
       </c>
       <c r="H30" t="n">
         <v>8.6</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.159447716439781</v>
+        <v>0.6</v>
       </c>
       <c r="J30" t="n">
-        <v>0.6</v>
+        <v>-0.7</v>
       </c>
       <c r="K30" t="n">
         <v>-0.7</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.7</v>
+        <v>4.3</v>
       </c>
       <c r="M30" t="n">
-        <v>4.3</v>
+        <v>10.9</v>
       </c>
       <c r="N30" t="n">
-        <v>10.9</v>
+        <v>4.8</v>
       </c>
       <c r="O30" t="n">
-        <v>4.8</v>
+        <v>10.8</v>
       </c>
       <c r="P30" t="n">
-        <v>10.8</v>
-      </c>
-      <c r="Q30" t="n">
         <v>23.2</v>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2275,7 +2183,7 @@
         <v>0.7</v>
       </c>
       <c r="C31" t="n">
-        <v>0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="D31" t="n">
         <v>1.3</v>
@@ -2287,39 +2195,36 @@
         <v>6.5</v>
       </c>
       <c r="G31" t="n">
-        <v>4.366178675594393</v>
+        <v>5.4</v>
       </c>
       <c r="H31" t="n">
         <v>16.8</v>
       </c>
       <c r="I31" t="n">
-        <v>13.76443916612857</v>
+        <v>1.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="K31" t="n">
         <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>3.3</v>
+        <v>5.3</v>
       </c>
       <c r="M31" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>8.699999999999999</v>
+        <v>-0</v>
       </c>
       <c r="O31" t="n">
-        <v>-0</v>
+        <v>5.2</v>
       </c>
       <c r="P31" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q31" t="n">
         <v>18.6</v>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2335,7 +2240,7 @@
         <v>-1.9</v>
       </c>
       <c r="C32" t="n">
-        <v>1</v>
+        <v>-1.4</v>
       </c>
       <c r="D32" t="n">
         <v>-2.7</v>
@@ -2347,39 +2252,36 @@
         <v>-5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.922209261101711</v>
+        <v>-3</v>
       </c>
       <c r="H32" t="n">
         <v>2.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.979598972227861</v>
+        <v>-2.7</v>
       </c>
       <c r="J32" t="n">
-        <v>-2.7</v>
+        <v>-7.6</v>
       </c>
       <c r="K32" t="n">
         <v>-7.6</v>
       </c>
       <c r="L32" t="n">
-        <v>-7.6</v>
+        <v>-5.2</v>
       </c>
       <c r="M32" t="n">
-        <v>-5.2</v>
+        <v>-6.4</v>
       </c>
       <c r="N32" t="n">
-        <v>-6.4</v>
+        <v>-23.3</v>
       </c>
       <c r="O32" t="n">
-        <v>-23.3</v>
+        <v>-14</v>
       </c>
       <c r="P32" t="n">
-        <v>-14</v>
-      </c>
-      <c r="Q32" t="n">
         <v>-7.8</v>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2407,39 +2309,36 @@
         <v>-5.7</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.426466856848847</v>
+        <v>-5.1</v>
       </c>
       <c r="H33" t="n">
         <v>3.5</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.058335343072262</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="K33" t="n">
         <v>-3.2</v>
       </c>
       <c r="L33" t="n">
-        <v>-3.2</v>
+        <v>0.4</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4</v>
+        <v>-1.3</v>
       </c>
       <c r="N33" t="n">
-        <v>-1.3</v>
+        <v>-2.1</v>
       </c>
       <c r="O33" t="n">
-        <v>-2.1</v>
+        <v>-3.4</v>
       </c>
       <c r="P33" t="n">
-        <v>-3.4</v>
-      </c>
-      <c r="Q33" t="n">
         <v>2.4</v>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2455,7 +2354,7 @@
         <v>-1.1</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3</v>
+        <v>-1.2</v>
       </c>
       <c r="D34" t="n">
         <v>-1.7</v>
@@ -2467,39 +2366,36 @@
         <v>-4.5</v>
       </c>
       <c r="G34" t="n">
-        <v>-6.728624497942591</v>
+        <v>-4.8</v>
       </c>
       <c r="H34" t="n">
         <v>4.5</v>
       </c>
       <c r="I34" t="n">
-        <v>-10.85901140712149</v>
+        <v>-1.7</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.7</v>
+        <v>-5.2</v>
       </c>
       <c r="K34" t="n">
         <v>-5.2</v>
       </c>
       <c r="L34" t="n">
-        <v>-5.2</v>
+        <v>2</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="N34" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="O34" t="n">
         <v>6.7</v>
       </c>
-      <c r="O34" t="n">
-        <v>9.300000000000001</v>
-      </c>
       <c r="P34" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Q34" t="n">
         <v>19.3</v>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2515,7 +2411,7 @@
         <v>0.2</v>
       </c>
       <c r="C35" t="n">
-        <v>1.1</v>
+        <v>-0.1</v>
       </c>
       <c r="D35" t="n">
         <v>0.1</v>
@@ -2527,39 +2423,36 @@
         <v>-1.1</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.7430504357908114</v>
+        <v>-0.9</v>
       </c>
       <c r="H35" t="n">
         <v>14.3</v>
       </c>
       <c r="I35" t="n">
-        <v>20.71111311327844</v>
+        <v>0.1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1</v>
+        <v>-5.3</v>
       </c>
       <c r="K35" t="n">
         <v>-5.3</v>
       </c>
       <c r="L35" t="n">
-        <v>-5.3</v>
+        <v>6.9</v>
       </c>
       <c r="M35" t="n">
-        <v>6.9</v>
+        <v>4.5</v>
       </c>
       <c r="N35" t="n">
-        <v>4.5</v>
+        <v>-11.8</v>
       </c>
       <c r="O35" t="n">
-        <v>-11.8</v>
+        <v>-10.9</v>
       </c>
       <c r="P35" t="n">
-        <v>-10.9</v>
-      </c>
-      <c r="Q35" t="n">
         <v>10.2</v>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2575,7 +2468,7 @@
         <v>-0.9</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.1</v>
+        <v>-1.3</v>
       </c>
       <c r="D36" t="n">
         <v>-1.5</v>
@@ -2587,39 +2480,36 @@
         <v>-2.4</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.454689961298795</v>
+        <v>-3.2</v>
       </c>
       <c r="H36" t="n">
         <v>8.5</v>
       </c>
       <c r="I36" t="n">
-        <v>12.11804982895343</v>
+        <v>-1.5</v>
       </c>
       <c r="J36" t="n">
-        <v>-1.5</v>
+        <v>-3.1</v>
       </c>
       <c r="K36" t="n">
         <v>-3.1</v>
       </c>
       <c r="L36" t="n">
-        <v>-3.1</v>
+        <v>-0</v>
       </c>
       <c r="M36" t="n">
-        <v>-0</v>
+        <v>3.6</v>
       </c>
       <c r="N36" t="n">
-        <v>3.6</v>
+        <v>-4.3</v>
       </c>
       <c r="O36" t="n">
-        <v>-4.3</v>
+        <v>5.2</v>
       </c>
       <c r="P36" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="Q36" t="n">
         <v>9.300000000000001</v>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2635,7 +2525,7 @@
         <v>-0.7</v>
       </c>
       <c r="C37" t="n">
-        <v>1.6</v>
+        <v>-0.9</v>
       </c>
       <c r="D37" t="n">
         <v>-0</v>
@@ -2647,39 +2537,36 @@
         <v>-1.2</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.88668751496714</v>
+        <v>-1.9</v>
       </c>
       <c r="H37" t="n">
         <v>4.3</v>
       </c>
       <c r="I37" t="n">
-        <v>5.465036160260454</v>
+        <v>-0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0</v>
+        <v>-1.9</v>
       </c>
       <c r="K37" t="n">
         <v>-1.9</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.9</v>
+        <v>-0.7</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N37" t="n">
-        <v>0.5</v>
+        <v>-5.6</v>
       </c>
       <c r="O37" t="n">
-        <v>-5.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P37" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Q37" t="n">
         <v>2.9</v>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2695,7 +2582,7 @@
         <v>0.3</v>
       </c>
       <c r="C38" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1.7</v>
@@ -2707,39 +2594,36 @@
         <v>3.6</v>
       </c>
       <c r="G38" t="n">
-        <v>2.437509585097419</v>
+        <v>3.3</v>
       </c>
       <c r="H38" t="n">
         <v>17.2</v>
       </c>
       <c r="I38" t="n">
-        <v>22.90219808813347</v>
+        <v>1.7</v>
       </c>
       <c r="J38" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.5</v>
       </c>
       <c r="L38" t="n">
-        <v>2.5</v>
+        <v>4.4</v>
       </c>
       <c r="M38" t="n">
-        <v>4.4</v>
+        <v>0.5</v>
       </c>
       <c r="N38" t="n">
-        <v>0.5</v>
+        <v>-18.8</v>
       </c>
       <c r="O38" t="n">
-        <v>-18.8</v>
+        <v>-9.4</v>
       </c>
       <c r="P38" t="n">
-        <v>-9.4</v>
-      </c>
-      <c r="Q38" t="n">
         <v>1.1</v>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2755,7 +2639,7 @@
         <v>-0.6</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>-0.6</v>
       </c>
       <c r="D39" t="n">
         <v>-0.6</v>
@@ -2767,39 +2651,36 @@
         <v>-0.8</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.318710402068183</v>
+        <v>-1.1</v>
       </c>
       <c r="H39" t="n">
         <v>9.1</v>
       </c>
       <c r="I39" t="n">
-        <v>3.172953160874802</v>
+        <v>-0.6</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.6</v>
+        <v>-3.5</v>
       </c>
       <c r="K39" t="n">
         <v>-3.5</v>
       </c>
       <c r="L39" t="n">
-        <v>-3.5</v>
+        <v>4.1</v>
       </c>
       <c r="M39" t="n">
-        <v>4.1</v>
+        <v>-4.3</v>
       </c>
       <c r="N39" t="n">
-        <v>-4.3</v>
+        <v>0.8</v>
       </c>
       <c r="O39" t="n">
-        <v>0.8</v>
+        <v>-5.3</v>
       </c>
       <c r="P39" t="n">
-        <v>-5.3</v>
-      </c>
-      <c r="Q39" t="n">
         <v>1.4</v>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2815,7 +2696,7 @@
         <v>-0.6</v>
       </c>
       <c r="C40" t="n">
-        <v>2.1</v>
+        <v>-0.4</v>
       </c>
       <c r="D40" t="n">
         <v>2.6</v>
@@ -2827,39 +2708,36 @@
         <v>-1.6</v>
       </c>
       <c r="G40" t="n">
-        <v>2.330535799831115</v>
+        <v>0.1</v>
       </c>
       <c r="H40" t="n">
         <v>-6.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5.706442374580056</v>
+        <v>2.6</v>
       </c>
       <c r="J40" t="n">
-        <v>2.6</v>
+        <v>-7.4</v>
       </c>
       <c r="K40" t="n">
         <v>-7.4</v>
       </c>
       <c r="L40" t="n">
-        <v>-7.4</v>
+        <v>-16.1</v>
       </c>
       <c r="M40" t="n">
-        <v>-16.1</v>
+        <v>-25.6</v>
       </c>
       <c r="N40" t="n">
-        <v>-25.6</v>
+        <v>-33.4</v>
       </c>
       <c r="O40" t="n">
-        <v>-33.4</v>
+        <v>-38.3</v>
       </c>
       <c r="P40" t="n">
-        <v>-38.3</v>
-      </c>
-      <c r="Q40" t="n">
         <v>-24.2</v>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2875,7 +2753,7 @@
         <v>0.4</v>
       </c>
       <c r="C41" t="n">
-        <v>-0</v>
+        <v>0.5</v>
       </c>
       <c r="D41" t="n">
         <v>0.4</v>
@@ -2887,39 +2765,36 @@
         <v>1.9</v>
       </c>
       <c r="G41" t="n">
-        <v>0.8077878462358339</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>11.5</v>
       </c>
       <c r="I41" t="n">
-        <v>11.05923106489379</v>
+        <v>0.4</v>
       </c>
       <c r="J41" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="K41" t="n">
         <v>3.6</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>6.7</v>
       </c>
       <c r="M41" t="n">
-        <v>6.7</v>
+        <v>13.9</v>
       </c>
       <c r="N41" t="n">
-        <v>13.9</v>
+        <v>3.4</v>
       </c>
       <c r="O41" t="n">
-        <v>3.4</v>
+        <v>-4</v>
       </c>
       <c r="P41" t="n">
-        <v>-4</v>
-      </c>
-      <c r="Q41" t="n">
         <v>20.3</v>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2935,7 +2810,7 @@
         <v>0.3</v>
       </c>
       <c r="C42" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D42" t="n">
         <v>1.8</v>
@@ -2947,39 +2822,36 @@
         <v>-1.9</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2741932435502953</v>
+        <v>-0.9</v>
       </c>
       <c r="H42" t="n">
         <v>6.6</v>
       </c>
       <c r="I42" t="n">
-        <v>19.85371549238852</v>
+        <v>1.8</v>
       </c>
       <c r="J42" t="n">
-        <v>1.8</v>
+        <v>-3.4</v>
       </c>
       <c r="K42" t="n">
         <v>-3.4</v>
       </c>
       <c r="L42" t="n">
-        <v>-3.4</v>
+        <v>-3.7</v>
       </c>
       <c r="M42" t="n">
-        <v>-3.7</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="N42" t="n">
-        <v>-9.199999999999999</v>
+        <v>-13.2</v>
       </c>
       <c r="O42" t="n">
-        <v>-13.2</v>
+        <v>-30.8</v>
       </c>
       <c r="P42" t="n">
-        <v>-30.8</v>
-      </c>
-      <c r="Q42" t="n">
         <v>-5.5</v>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -2995,7 +2867,7 @@
         <v>0.7</v>
       </c>
       <c r="C43" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D43" t="n">
         <v>0.7</v>
@@ -3007,39 +2879,36 @@
         <v>-1.5</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.6030366228565347</v>
+        <v>0.3</v>
       </c>
       <c r="H43" t="n">
         <v>-1</v>
       </c>
       <c r="I43" t="n">
-        <v>2.490619834652924</v>
+        <v>0.7</v>
       </c>
       <c r="J43" t="n">
-        <v>0.7</v>
+        <v>-4.6</v>
       </c>
       <c r="K43" t="n">
         <v>-4.6</v>
       </c>
       <c r="L43" t="n">
-        <v>-4.6</v>
+        <v>-8.1</v>
       </c>
       <c r="M43" t="n">
-        <v>-8.1</v>
+        <v>-11.5</v>
       </c>
       <c r="N43" t="n">
-        <v>-11.5</v>
+        <v>-18</v>
       </c>
       <c r="O43" t="n">
-        <v>-18</v>
+        <v>-17.9</v>
       </c>
       <c r="P43" t="n">
-        <v>-17.9</v>
-      </c>
-      <c r="Q43" t="n">
         <v>-6.2</v>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Equity DMs</t>
         </is>
@@ -3055,7 +2924,7 @@
         <v>-0.5</v>
       </c>
       <c r="C44" t="n">
-        <v>1.3</v>
+        <v>-0.5</v>
       </c>
       <c r="D44" t="n">
         <v>2.9</v>
@@ -3067,39 +2936,36 @@
         <v>4.6</v>
       </c>
       <c r="G44" t="n">
-        <v>1.38635630484933</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>16.5</v>
       </c>
       <c r="I44" t="n">
-        <v>9.418348266947994</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.9</v>
+        <v>1.1</v>
       </c>
       <c r="K44" t="n">
         <v>1.1</v>
       </c>
       <c r="L44" t="n">
-        <v>1.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M44" t="n">
-        <v>8.800000000000001</v>
+        <v>21.8</v>
       </c>
       <c r="N44" t="n">
-        <v>21.8</v>
+        <v>42</v>
       </c>
       <c r="O44" t="n">
-        <v>42</v>
+        <v>62.9</v>
       </c>
       <c r="P44" t="n">
-        <v>62.9</v>
-      </c>
-      <c r="Q44" t="n">
         <v>33.1</v>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3115,7 +2981,7 @@
         <v>2.7</v>
       </c>
       <c r="C45" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>1.9</v>
@@ -3127,39 +2993,36 @@
         <v>-1.3</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.2896394302500557</v>
+        <v>-1.4</v>
       </c>
       <c r="H45" t="n">
         <v>4.9</v>
       </c>
       <c r="I45" t="n">
-        <v>7.365599355440801</v>
+        <v>1.9</v>
       </c>
       <c r="J45" t="n">
-        <v>1.9</v>
+        <v>-4</v>
       </c>
       <c r="K45" t="n">
         <v>-4</v>
       </c>
       <c r="L45" t="n">
-        <v>-4</v>
+        <v>4.8</v>
       </c>
       <c r="M45" t="n">
-        <v>4.8</v>
+        <v>19.5</v>
       </c>
       <c r="N45" t="n">
-        <v>19.5</v>
+        <v>4.7</v>
       </c>
       <c r="O45" t="n">
-        <v>4.7</v>
+        <v>-7.4</v>
       </c>
       <c r="P45" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="Q45" t="n">
         <v>12.1</v>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3175,7 +3038,7 @@
         <v>-0.5</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D46" t="n">
         <v>-1.9</v>
@@ -3187,39 +3050,36 @@
         <v>-4.9</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.480311533035736</v>
+        <v>-3.6</v>
       </c>
       <c r="H46" t="n">
         <v>-0.3</v>
       </c>
       <c r="I46" t="n">
-        <v>2.871924683917721</v>
+        <v>-1.9</v>
       </c>
       <c r="J46" t="n">
-        <v>-1.9</v>
+        <v>-11.6</v>
       </c>
       <c r="K46" t="n">
         <v>-11.6</v>
       </c>
       <c r="L46" t="n">
-        <v>-11.6</v>
+        <v>-16.1</v>
       </c>
       <c r="M46" t="n">
-        <v>-16.1</v>
+        <v>-14</v>
       </c>
       <c r="N46" t="n">
-        <v>-14</v>
+        <v>-0</v>
       </c>
       <c r="O46" t="n">
-        <v>-0</v>
+        <v>-19.8</v>
       </c>
       <c r="P46" t="n">
-        <v>-19.8</v>
-      </c>
-      <c r="Q46" t="n">
         <v>-8.199999999999999</v>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3235,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
         <v>-2.4</v>
@@ -3247,39 +3107,36 @@
         <v>-3.6</v>
       </c>
       <c r="G47" t="n">
-        <v>-2.646510558673424</v>
+        <v>-2.3</v>
       </c>
       <c r="H47" t="n">
         <v>14.1</v>
       </c>
       <c r="I47" t="n">
-        <v>8.793788791291444</v>
+        <v>-2.4</v>
       </c>
       <c r="J47" t="n">
-        <v>-2.4</v>
+        <v>-0.1</v>
       </c>
       <c r="K47" t="n">
         <v>-0.1</v>
       </c>
       <c r="L47" t="n">
-        <v>-0.1</v>
+        <v>3.4</v>
       </c>
       <c r="M47" t="n">
-        <v>3.4</v>
+        <v>12.6</v>
       </c>
       <c r="N47" t="n">
-        <v>12.6</v>
+        <v>-25.2</v>
       </c>
       <c r="O47" t="n">
-        <v>-25.2</v>
+        <v>-23</v>
       </c>
       <c r="P47" t="n">
-        <v>-23</v>
-      </c>
-      <c r="Q47" t="n">
         <v>14.5</v>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3295,7 +3152,7 @@
         <v>-0.1</v>
       </c>
       <c r="C48" t="n">
-        <v>1.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D48" t="n">
         <v>0.1</v>
@@ -3307,39 +3164,36 @@
         <v>-0.3</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.279096802635705</v>
+        <v>-1.3</v>
       </c>
       <c r="H48" t="n">
         <v>15.6</v>
       </c>
       <c r="I48" t="n">
-        <v>24.3593714905128</v>
+        <v>0.1</v>
       </c>
       <c r="J48" t="n">
-        <v>0.1</v>
+        <v>-2</v>
       </c>
       <c r="K48" t="n">
         <v>-2</v>
       </c>
       <c r="L48" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>9.6</v>
       </c>
       <c r="N48" t="n">
-        <v>9.6</v>
+        <v>5.5</v>
       </c>
       <c r="O48" t="n">
-        <v>5.5</v>
+        <v>-7.4</v>
       </c>
       <c r="P48" t="n">
-        <v>-7.4</v>
-      </c>
-      <c r="Q48" t="n">
         <v>13.7</v>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3355,7 +3209,7 @@
         <v>0.2</v>
       </c>
       <c r="C49" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
         <v>2</v>
@@ -3367,39 +3221,36 @@
         <v>3.6</v>
       </c>
       <c r="G49" t="n">
-        <v>1.163213595817253</v>
+        <v>2.1</v>
       </c>
       <c r="H49" t="n">
         <v>14.8</v>
       </c>
       <c r="I49" t="n">
-        <v>20.30188831271102</v>
+        <v>2</v>
       </c>
       <c r="J49" t="n">
-        <v>2</v>
+        <v>4.3</v>
       </c>
       <c r="K49" t="n">
         <v>4.3</v>
       </c>
       <c r="L49" t="n">
-        <v>4.3</v>
+        <v>15.2</v>
       </c>
       <c r="M49" t="n">
-        <v>15.2</v>
+        <v>27.4</v>
       </c>
       <c r="N49" t="n">
-        <v>27.4</v>
+        <v>13.3</v>
       </c>
       <c r="O49" t="n">
-        <v>13.3</v>
+        <v>20.6</v>
       </c>
       <c r="P49" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="Q49" t="n">
         <v>19</v>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3415,7 +3266,7 @@
         <v>5.4</v>
       </c>
       <c r="C50" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="D50" t="n">
         <v>5.4</v>
@@ -3427,39 +3278,36 @@
         <v>0.2</v>
       </c>
       <c r="G50" t="n">
-        <v>2.561668669833599</v>
+        <v>2.8</v>
       </c>
       <c r="H50" t="n">
         <v>-10.8</v>
       </c>
       <c r="I50" t="n">
-        <v>-3.339566528834156</v>
+        <v>5.4</v>
       </c>
       <c r="J50" t="n">
-        <v>5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="K50" t="n">
         <v>-5.5</v>
       </c>
       <c r="L50" t="n">
-        <v>-5.5</v>
+        <v>-18.9</v>
       </c>
       <c r="M50" t="n">
-        <v>-18.9</v>
+        <v>-26.1</v>
       </c>
       <c r="N50" t="n">
-        <v>-26.1</v>
+        <v>-37.9</v>
       </c>
       <c r="O50" t="n">
-        <v>-37.9</v>
+        <v>-58.3</v>
       </c>
       <c r="P50" t="n">
-        <v>-58.3</v>
-      </c>
-      <c r="Q50" t="n">
         <v>-21</v>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3475,7 +3323,7 @@
         <v>1.3</v>
       </c>
       <c r="C51" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="D51" t="n">
         <v>4.5</v>
@@ -3487,39 +3335,36 @@
         <v>1.3</v>
       </c>
       <c r="G51" t="n">
-        <v>2.435178202160078</v>
+        <v>4.1</v>
       </c>
       <c r="H51" t="n">
         <v>-9.9</v>
       </c>
       <c r="I51" t="n">
-        <v>-10.95189891039329</v>
+        <v>4.5</v>
       </c>
       <c r="J51" t="n">
-        <v>4.5</v>
+        <v>-4</v>
       </c>
       <c r="K51" t="n">
         <v>-4</v>
       </c>
       <c r="L51" t="n">
-        <v>-4</v>
+        <v>-19.1</v>
       </c>
       <c r="M51" t="n">
-        <v>-19.1</v>
+        <v>-26.5</v>
       </c>
       <c r="N51" t="n">
-        <v>-26.5</v>
+        <v>-38.5</v>
       </c>
       <c r="O51" t="n">
-        <v>-38.5</v>
+        <v>-45.4</v>
       </c>
       <c r="P51" t="n">
-        <v>-45.4</v>
-      </c>
-      <c r="Q51" t="n">
         <v>-23.9</v>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3535,7 +3380,7 @@
         <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="D52" t="n">
         <v>1.8</v>
@@ -3547,39 +3392,36 @@
         <v>-0.3</v>
       </c>
       <c r="G52" t="n">
-        <v>1.318220399172099</v>
+        <v>0.2</v>
       </c>
       <c r="H52" t="n">
         <v>5.3</v>
       </c>
       <c r="I52" t="n">
-        <v>17.43617651507896</v>
+        <v>1.8</v>
       </c>
       <c r="J52" t="n">
-        <v>1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="K52" t="n">
         <v>-0.3</v>
       </c>
       <c r="L52" t="n">
-        <v>-0.3</v>
+        <v>-3.7</v>
       </c>
       <c r="M52" t="n">
-        <v>-3.7</v>
+        <v>-5.2</v>
       </c>
       <c r="N52" t="n">
-        <v>-5.2</v>
+        <v>-6</v>
       </c>
       <c r="O52" t="n">
-        <v>-6</v>
+        <v>-6.7</v>
       </c>
       <c r="P52" t="n">
-        <v>-6.7</v>
-      </c>
-      <c r="Q52" t="n">
         <v>-1</v>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3595,7 +3437,7 @@
         <v>1.5</v>
       </c>
       <c r="C53" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="D53" t="n">
         <v>6.1</v>
@@ -3607,39 +3449,36 @@
         <v>2.8</v>
       </c>
       <c r="G53" t="n">
-        <v>1.558655343814388</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>4.4</v>
       </c>
       <c r="I53" t="n">
-        <v>2.17719857214639</v>
+        <v>6.1</v>
       </c>
       <c r="J53" t="n">
-        <v>6.1</v>
+        <v>-3.7</v>
       </c>
       <c r="K53" t="n">
         <v>-3.7</v>
       </c>
       <c r="L53" t="n">
-        <v>-3.7</v>
+        <v>-2.4</v>
       </c>
       <c r="M53" t="n">
-        <v>-2.4</v>
+        <v>0.6</v>
       </c>
       <c r="N53" t="n">
-        <v>0.6</v>
+        <v>-13.5</v>
       </c>
       <c r="O53" t="n">
-        <v>-13.5</v>
+        <v>-32.1</v>
       </c>
       <c r="P53" t="n">
-        <v>-32.1</v>
-      </c>
-      <c r="Q53" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3655,7 +3494,7 @@
         <v>-0.3</v>
       </c>
       <c r="C54" t="n">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="D54" t="n">
         <v>-0.3</v>
@@ -3667,39 +3506,36 @@
         <v>-1.9</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.689728255658006</v>
+        <v>-0.6</v>
       </c>
       <c r="H54" t="n">
         <v>-1</v>
       </c>
       <c r="I54" t="n">
-        <v>-4.943392591603546</v>
+        <v>-0.3</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.3</v>
+        <v>-0.8</v>
       </c>
       <c r="K54" t="n">
         <v>-0.8</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.8</v>
+        <v>-1.7</v>
       </c>
       <c r="M54" t="n">
-        <v>-1.7</v>
+        <v>-9.4</v>
       </c>
       <c r="N54" t="n">
-        <v>-9.4</v>
+        <v>-14.3</v>
       </c>
       <c r="O54" t="n">
-        <v>-14.3</v>
+        <v>-23.5</v>
       </c>
       <c r="P54" t="n">
-        <v>-23.5</v>
-      </c>
-      <c r="Q54" t="n">
         <v>-7.2</v>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3715,7 +3551,7 @@
         <v>1.9</v>
       </c>
       <c r="C55" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="D55" t="n">
         <v>3.3</v>
@@ -3727,39 +3563,36 @@
         <v>4.8</v>
       </c>
       <c r="G55" t="n">
-        <v>4.120942033542749</v>
+        <v>3.8</v>
       </c>
       <c r="H55" t="n">
         <v>11.3</v>
       </c>
       <c r="I55" t="n">
-        <v>16.72961028450357</v>
+        <v>3.3</v>
       </c>
       <c r="J55" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="K55" t="n">
         <v>5.2</v>
       </c>
       <c r="L55" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="M55" t="n">
-        <v>6.2</v>
+        <v>-2.9</v>
       </c>
       <c r="N55" t="n">
-        <v>-2.9</v>
+        <v>-14.4</v>
       </c>
       <c r="O55" t="n">
-        <v>-14.4</v>
+        <v>-13.6</v>
       </c>
       <c r="P55" t="n">
-        <v>-13.6</v>
-      </c>
-      <c r="Q55" t="n">
         <v>3.7</v>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3775,7 +3608,7 @@
         <v>0.2</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
         <v>2.5</v>
@@ -3787,39 +3620,36 @@
         <v>4.2</v>
       </c>
       <c r="G56" t="n">
-        <v>2.228625155014163</v>
+        <v>2.9</v>
       </c>
       <c r="H56" t="n">
         <v>0.3</v>
       </c>
       <c r="I56" t="n">
-        <v>-2.302157891200041</v>
+        <v>2.5</v>
       </c>
       <c r="J56" t="n">
-        <v>2.5</v>
+        <v>-0.6</v>
       </c>
       <c r="K56" t="n">
         <v>-0.6</v>
       </c>
       <c r="L56" t="n">
-        <v>-0.6</v>
+        <v>-3</v>
       </c>
       <c r="M56" t="n">
-        <v>-3</v>
+        <v>1.9</v>
       </c>
       <c r="N56" t="n">
-        <v>1.9</v>
+        <v>-29.3</v>
       </c>
       <c r="O56" t="n">
-        <v>-29.3</v>
+        <v>-21.1</v>
       </c>
       <c r="P56" t="n">
-        <v>-21.1</v>
-      </c>
-      <c r="Q56" t="n">
         <v>-7.5</v>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3835,7 +3665,7 @@
         <v>-0.4</v>
       </c>
       <c r="C57" t="n">
-        <v>1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="D57" t="n">
         <v>2.2</v>
@@ -3847,39 +3677,36 @@
         <v>-2.4</v>
       </c>
       <c r="G57" t="n">
-        <v>0.76899756238246</v>
+        <v>-0</v>
       </c>
       <c r="H57" t="n">
         <v>-2.5</v>
       </c>
       <c r="I57" t="n">
-        <v>4.020901338212869</v>
+        <v>2.2</v>
       </c>
       <c r="J57" t="n">
-        <v>2.2</v>
+        <v>-4.8</v>
       </c>
       <c r="K57" t="n">
         <v>-4.8</v>
       </c>
       <c r="L57" t="n">
-        <v>-4.8</v>
+        <v>-10.4</v>
       </c>
       <c r="M57" t="n">
-        <v>-10.4</v>
+        <v>-21.9</v>
       </c>
       <c r="N57" t="n">
-        <v>-21.9</v>
+        <v>-22.3</v>
       </c>
       <c r="O57" t="n">
-        <v>-22.3</v>
+        <v>-23.7</v>
       </c>
       <c r="P57" t="n">
-        <v>-23.7</v>
-      </c>
-      <c r="Q57" t="n">
         <v>-17.3</v>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3895,7 +3722,7 @@
         <v>0.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D58" t="n">
         <v>2</v>
@@ -3907,39 +3734,36 @@
         <v>2</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0535328379804296</v>
+        <v>-1</v>
       </c>
       <c r="H58" t="n">
         <v>11.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.451893254643532</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
+        <v>-1.4</v>
       </c>
       <c r="K58" t="n">
         <v>-1.4</v>
       </c>
       <c r="L58" t="n">
-        <v>-1.4</v>
+        <v>9</v>
       </c>
       <c r="M58" t="n">
-        <v>9</v>
+        <v>39.3</v>
       </c>
       <c r="N58" t="n">
-        <v>39.3</v>
+        <v>7.2</v>
       </c>
       <c r="O58" t="n">
-        <v>7.2</v>
+        <v>16.6</v>
       </c>
       <c r="P58" t="n">
-        <v>16.6</v>
-      </c>
-      <c r="Q58" t="n">
         <v>49.8</v>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -3955,7 +3779,7 @@
         <v>-0.9</v>
       </c>
       <c r="C59" t="n">
-        <v>0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="D59" t="n">
         <v>2.8</v>
@@ -3967,39 +3791,36 @@
         <v>9.800000000000001</v>
       </c>
       <c r="G59" t="n">
-        <v>4.135021783848869</v>
+        <v>4.1</v>
       </c>
       <c r="H59" t="n">
         <v>4.4</v>
       </c>
       <c r="I59" t="n">
-        <v>2.964602542375799</v>
+        <v>2.8</v>
       </c>
       <c r="J59" t="n">
-        <v>2.8</v>
+        <v>14</v>
       </c>
       <c r="K59" t="n">
         <v>14</v>
       </c>
       <c r="L59" t="n">
-        <v>14</v>
+        <v>5.2</v>
       </c>
       <c r="M59" t="n">
-        <v>5.2</v>
+        <v>18.3</v>
       </c>
       <c r="N59" t="n">
-        <v>18.3</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="O59" t="n">
-        <v>86.59999999999999</v>
+        <v>27.1</v>
       </c>
       <c r="P59" t="n">
-        <v>27.1</v>
-      </c>
-      <c r="Q59" t="n">
         <v>8.6</v>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -4015,7 +3836,7 @@
         <v>-1.4</v>
       </c>
       <c r="C60" t="n">
-        <v>1.5</v>
+        <v>-0.8</v>
       </c>
       <c r="D60" t="n">
         <v>-0.5</v>
@@ -4027,39 +3848,36 @@
         <v>-0</v>
       </c>
       <c r="G60" t="n">
-        <v>1.637430415472223</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>-0.7</v>
       </c>
       <c r="I60" t="n">
-        <v>4.538836754288604</v>
+        <v>-0.5</v>
       </c>
       <c r="J60" t="n">
-        <v>-0.5</v>
+        <v>-6.6</v>
       </c>
       <c r="K60" t="n">
         <v>-6.6</v>
       </c>
       <c r="L60" t="n">
-        <v>-6.6</v>
+        <v>-5.4</v>
       </c>
       <c r="M60" t="n">
-        <v>-5.4</v>
+        <v>-12.5</v>
       </c>
       <c r="N60" t="n">
-        <v>-12.5</v>
+        <v>-21.6</v>
       </c>
       <c r="O60" t="n">
-        <v>-21.6</v>
+        <v>-17.8</v>
       </c>
       <c r="P60" t="n">
-        <v>-17.8</v>
-      </c>
-      <c r="Q60" t="n">
         <v>-9.5</v>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>Equity EMs</t>
         </is>
@@ -4075,7 +3893,7 @@
         <v>-0.3</v>
       </c>
       <c r="C61" t="n">
-        <v>0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="D61" t="n">
         <v>-0</v>
@@ -4087,39 +3905,36 @@
         <v>2.2</v>
       </c>
       <c r="G61" t="n">
-        <v>0.3442125877757384</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0.7</v>
       </c>
       <c r="I61" t="n">
-        <v>-3.560224962192001</v>
+        <v>-0</v>
       </c>
       <c r="J61" t="n">
-        <v>-0</v>
+        <v>-0.6</v>
       </c>
       <c r="K61" t="n">
         <v>-0.6</v>
       </c>
       <c r="L61" t="n">
-        <v>-0.6</v>
+        <v>-4.2</v>
       </c>
       <c r="M61" t="n">
-        <v>-4.2</v>
+        <v>-5.6</v>
       </c>
       <c r="N61" t="n">
-        <v>-5.6</v>
+        <v>19.5</v>
       </c>
       <c r="O61" t="n">
-        <v>19.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="P61" t="n">
-        <v>95.90000000000001</v>
-      </c>
-      <c r="Q61" t="n">
         <v>0.8</v>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4135,7 +3950,7 @@
         <v>-0.6</v>
       </c>
       <c r="C62" t="n">
-        <v>1.1</v>
+        <v>-0.4</v>
       </c>
       <c r="D62" t="n">
         <v>-2.4</v>
@@ -4147,39 +3962,36 @@
         <v>-0.3</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.9228759024192795</v>
+        <v>1.1</v>
       </c>
       <c r="H62" t="n">
         <v>-9.1</v>
       </c>
       <c r="I62" t="n">
-        <v>-11.93267547295077</v>
+        <v>-2.4</v>
       </c>
       <c r="J62" t="n">
-        <v>-2.4</v>
+        <v>-7.8</v>
       </c>
       <c r="K62" t="n">
         <v>-7.8</v>
       </c>
       <c r="L62" t="n">
-        <v>-7.8</v>
+        <v>-15.9</v>
       </c>
       <c r="M62" t="n">
-        <v>-15.9</v>
+        <v>-11.8</v>
       </c>
       <c r="N62" t="n">
-        <v>-11.8</v>
+        <v>20.7</v>
       </c>
       <c r="O62" t="n">
-        <v>20.7</v>
+        <v>61.5</v>
       </c>
       <c r="P62" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="Q62" t="n">
         <v>5.4</v>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="Q62" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4195,7 +4007,7 @@
         <v>0.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="D63" t="n">
         <v>-1.4</v>
@@ -4207,39 +4019,36 @@
         <v>-0.7</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.459666722171754</v>
+        <v>-0.2</v>
       </c>
       <c r="H63" t="n">
         <v>-4</v>
       </c>
       <c r="I63" t="n">
-        <v>-7.639574710417876</v>
+        <v>-1.4</v>
       </c>
       <c r="J63" t="n">
-        <v>-1.4</v>
+        <v>-4.2</v>
       </c>
       <c r="K63" t="n">
         <v>-4.2</v>
       </c>
       <c r="L63" t="n">
-        <v>-4.2</v>
+        <v>-9.5</v>
       </c>
       <c r="M63" t="n">
-        <v>-9.5</v>
+        <v>-4.6</v>
       </c>
       <c r="N63" t="n">
-        <v>-4.6</v>
+        <v>18</v>
       </c>
       <c r="O63" t="n">
-        <v>18</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="P63" t="n">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="Q63" t="n">
         <v>0.7</v>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="Q63" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4255,7 +4064,7 @@
         <v>-0.1</v>
       </c>
       <c r="C64" t="n">
-        <v>0.3</v>
+        <v>-0.1</v>
       </c>
       <c r="D64" t="n">
         <v>-1.7</v>
@@ -4267,39 +4076,36 @@
         <v>-6.3</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.773635990833754</v>
+        <v>-3.9</v>
       </c>
       <c r="H64" t="n">
         <v>-0.7</v>
       </c>
       <c r="I64" t="n">
-        <v>-1.603729200700316</v>
+        <v>-1.7</v>
       </c>
       <c r="J64" t="n">
-        <v>-1.7</v>
+        <v>-4.6</v>
       </c>
       <c r="K64" t="n">
         <v>-4.6</v>
       </c>
       <c r="L64" t="n">
-        <v>-4.6</v>
+        <v>-5.6</v>
       </c>
       <c r="M64" t="n">
-        <v>-5.6</v>
+        <v>-11.8</v>
       </c>
       <c r="N64" t="n">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="O64" t="n">
-        <v>-11.7</v>
+        <v>-5</v>
       </c>
       <c r="P64" t="n">
-        <v>-5</v>
-      </c>
-      <c r="Q64" t="n">
         <v>-14.7</v>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="Q64" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4315,7 +4121,7 @@
         <v>0.2</v>
       </c>
       <c r="C65" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
         <v>1.5</v>
@@ -4327,39 +4133,36 @@
         <v>2</v>
       </c>
       <c r="G65" t="n">
-        <v>2.531852241207244</v>
+        <v>1.5</v>
       </c>
       <c r="H65" t="n">
         <v>7.7</v>
       </c>
       <c r="I65" t="n">
-        <v>18.48930020305122</v>
+        <v>1.5</v>
       </c>
       <c r="J65" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="K65" t="n">
         <v>2.8</v>
       </c>
       <c r="L65" t="n">
-        <v>2.8</v>
+        <v>-1.6</v>
       </c>
       <c r="M65" t="n">
-        <v>-1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N65" t="n">
-        <v>1.2</v>
+        <v>-2.6</v>
       </c>
       <c r="O65" t="n">
-        <v>-2.6</v>
+        <v>12.6</v>
       </c>
       <c r="P65" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="Q65" t="n">
         <v>-2.4</v>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="Q65" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4375,7 +4178,7 @@
         <v>-0.3</v>
       </c>
       <c r="C66" t="n">
-        <v>0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -4387,39 +4190,36 @@
         <v>-2.5</v>
       </c>
       <c r="G66" t="n">
-        <v>-4.097278296690398</v>
+        <v>-2.8</v>
       </c>
       <c r="H66" t="n">
         <v>2.5</v>
       </c>
       <c r="I66" t="n">
-        <v>3.138281928890626</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>-2.3</v>
       </c>
       <c r="K66" t="n">
         <v>-2.3</v>
       </c>
       <c r="L66" t="n">
-        <v>-2.3</v>
+        <v>-10.7</v>
       </c>
       <c r="M66" t="n">
-        <v>-10.7</v>
+        <v>-10.1</v>
       </c>
       <c r="N66" t="n">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
       <c r="O66" t="n">
-        <v>-10.4</v>
+        <v>-3.5</v>
       </c>
       <c r="P66" t="n">
-        <v>-3.5</v>
-      </c>
-      <c r="Q66" t="n">
         <v>-13.7</v>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="Q66" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4435,7 +4235,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="D67" t="n">
         <v>3.9</v>
@@ -4447,39 +4247,36 @@
         <v>0.8</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.401852679453778</v>
+        <v>-0.1</v>
       </c>
       <c r="H67" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>1.861225596843179</v>
+        <v>3.9</v>
       </c>
       <c r="J67" t="n">
-        <v>3.9</v>
+        <v>-0.6</v>
       </c>
       <c r="K67" t="n">
         <v>-0.6</v>
       </c>
       <c r="L67" t="n">
-        <v>-0.6</v>
+        <v>2.5</v>
       </c>
       <c r="M67" t="n">
-        <v>2.5</v>
+        <v>17.3</v>
       </c>
       <c r="N67" t="n">
-        <v>17.3</v>
+        <v>-3.5</v>
       </c>
       <c r="O67" t="n">
-        <v>-3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P67" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q67" t="n">
         <v>27.4</v>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="Q67" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4495,7 +4292,7 @@
         <v>1.8</v>
       </c>
       <c r="C68" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="D68" t="n">
         <v>3.4</v>
@@ -4507,39 +4304,36 @@
         <v>2</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2780525500460442</v>
+        <v>0.3</v>
       </c>
       <c r="H68" t="n">
         <v>26</v>
       </c>
       <c r="I68" t="n">
-        <v>18.20144558814898</v>
+        <v>3.4</v>
       </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="K68" t="n">
         <v>1.4</v>
       </c>
       <c r="L68" t="n">
-        <v>1.4</v>
+        <v>14.3</v>
       </c>
       <c r="M68" t="n">
-        <v>14.3</v>
+        <v>38</v>
       </c>
       <c r="N68" t="n">
-        <v>38</v>
+        <v>35.4</v>
       </c>
       <c r="O68" t="n">
-        <v>35.4</v>
+        <v>52.4</v>
       </c>
       <c r="P68" t="n">
-        <v>52.4</v>
-      </c>
-      <c r="Q68" t="n">
         <v>58</v>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="Q68" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4555,7 +4349,7 @@
         <v>1.3</v>
       </c>
       <c r="C69" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
         <v>2.9</v>
@@ -4567,39 +4361,36 @@
         <v>0.5</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5883306331918465</v>
+        <v>1.1</v>
       </c>
       <c r="H69" t="n">
         <v>16.8</v>
       </c>
       <c r="I69" t="n">
-        <v>14.88135100454161</v>
+        <v>2.9</v>
       </c>
       <c r="J69" t="n">
-        <v>2.9</v>
+        <v>-2.4</v>
       </c>
       <c r="K69" t="n">
         <v>-2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>-2.4</v>
+        <v>5.7</v>
       </c>
       <c r="M69" t="n">
-        <v>5.7</v>
+        <v>-1.7</v>
       </c>
       <c r="N69" t="n">
-        <v>-1.7</v>
+        <v>-10.5</v>
       </c>
       <c r="O69" t="n">
         <v>-10.5</v>
       </c>
       <c r="P69" t="n">
-        <v>-10.5</v>
-      </c>
-      <c r="Q69" t="n">
         <v>9.9</v>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="Q69" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4615,7 +4406,7 @@
         <v>0.1</v>
       </c>
       <c r="C70" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
         <v>0.1</v>
@@ -4627,39 +4418,36 @@
         <v>-3.7</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.556610502340024</v>
+        <v>-1.9</v>
       </c>
       <c r="H70" t="n">
         <v>10.5</v>
       </c>
       <c r="I70" t="n">
-        <v>9.991338425164937</v>
+        <v>0.1</v>
       </c>
       <c r="J70" t="n">
-        <v>0.1</v>
+        <v>-4.7</v>
       </c>
       <c r="K70" t="n">
         <v>-4.7</v>
       </c>
       <c r="L70" t="n">
-        <v>-4.7</v>
+        <v>1.7</v>
       </c>
       <c r="M70" t="n">
-        <v>1.7</v>
+        <v>-5.9</v>
       </c>
       <c r="N70" t="n">
-        <v>-5.9</v>
+        <v>-18.3</v>
       </c>
       <c r="O70" t="n">
-        <v>-18.3</v>
+        <v>0.6</v>
       </c>
       <c r="P70" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="Q70" t="n">
         <v>-0.4</v>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4675,7 +4463,7 @@
         <v>0.1</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4</v>
+        <v>-0</v>
       </c>
       <c r="D71" t="n">
         <v>1.1</v>
@@ -4687,39 +4475,36 @@
         <v>-2.8</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.394885288218501</v>
+        <v>-1.6</v>
       </c>
       <c r="H71" t="n">
         <v>15.9</v>
       </c>
       <c r="I71" t="n">
-        <v>20.97744574187694</v>
+        <v>1.1</v>
       </c>
       <c r="J71" t="n">
-        <v>1.1</v>
+        <v>-2.9</v>
       </c>
       <c r="K71" t="n">
         <v>-2.9</v>
       </c>
       <c r="L71" t="n">
-        <v>-2.9</v>
+        <v>6.7</v>
       </c>
       <c r="M71" t="n">
-        <v>6.7</v>
+        <v>-9.4</v>
       </c>
       <c r="N71" t="n">
-        <v>-9.4</v>
+        <v>-13.6</v>
       </c>
       <c r="O71" t="n">
-        <v>-13.6</v>
+        <v>-20.1</v>
       </c>
       <c r="P71" t="n">
-        <v>-20.1</v>
-      </c>
-      <c r="Q71" t="n">
         <v>-7.3</v>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="Q71" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4735,7 +4520,7 @@
         <v>0.8</v>
       </c>
       <c r="C72" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D72" t="n">
         <v>3.5</v>
@@ -4747,39 +4532,36 @@
         <v>4</v>
       </c>
       <c r="G72" t="n">
-        <v>1.845471320692917</v>
+        <v>3.4</v>
       </c>
       <c r="H72" t="n">
         <v>15.4</v>
       </c>
       <c r="I72" t="n">
-        <v>13.30100952912009</v>
+        <v>3.5</v>
       </c>
       <c r="J72" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.5</v>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>6.7</v>
       </c>
       <c r="M72" t="n">
-        <v>6.7</v>
+        <v>13.6</v>
       </c>
       <c r="N72" t="n">
-        <v>13.6</v>
+        <v>16.7</v>
       </c>
       <c r="O72" t="n">
-        <v>16.7</v>
+        <v>31.3</v>
       </c>
       <c r="P72" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="Q72" t="n">
         <v>18</v>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="Q72" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4795,7 +4577,7 @@
         <v>0.9</v>
       </c>
       <c r="C73" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="D73" t="n">
         <v>2.1</v>
@@ -4807,39 +4589,36 @@
         <v>2.4</v>
       </c>
       <c r="G73" t="n">
-        <v>1.623846241822312</v>
+        <v>2.3</v>
       </c>
       <c r="H73" t="n">
         <v>11.1</v>
       </c>
       <c r="I73" t="n">
-        <v>10.75973626925733</v>
+        <v>2.1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.1</v>
+        <v>-1.1</v>
       </c>
       <c r="K73" t="n">
         <v>-1.1</v>
       </c>
       <c r="L73" t="n">
-        <v>-1.1</v>
+        <v>6.8</v>
       </c>
       <c r="M73" t="n">
-        <v>6.8</v>
+        <v>8.6</v>
       </c>
       <c r="N73" t="n">
-        <v>8.6</v>
+        <v>20.7</v>
       </c>
       <c r="O73" t="n">
-        <v>20.7</v>
+        <v>30.5</v>
       </c>
       <c r="P73" t="n">
-        <v>30.5</v>
-      </c>
-      <c r="Q73" t="n">
         <v>13.6</v>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="Q73" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4855,7 +4634,7 @@
         <v>0.4</v>
       </c>
       <c r="C74" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="D74" t="n">
         <v>4.6</v>
@@ -4867,39 +4646,36 @@
         <v>1.3</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5332160337690657</v>
+        <v>1.3</v>
       </c>
       <c r="H74" t="n">
         <v>18.1</v>
       </c>
       <c r="I74" t="n">
-        <v>13.12950643079965</v>
+        <v>4.6</v>
       </c>
       <c r="J74" t="n">
-        <v>4.6</v>
+        <v>-1.6</v>
       </c>
       <c r="K74" t="n">
         <v>-1.6</v>
       </c>
       <c r="L74" t="n">
-        <v>-1.6</v>
+        <v>-3.5</v>
       </c>
       <c r="M74" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="N74" t="n">
         <v>-3.5</v>
       </c>
-      <c r="N74" t="n">
-        <v>0.4</v>
-      </c>
       <c r="O74" t="n">
-        <v>-3.5</v>
+        <v>9.6</v>
       </c>
       <c r="P74" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="Q74" t="n">
         <v>16.8</v>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="Q74" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4915,7 +4691,7 @@
         <v>0.4</v>
       </c>
       <c r="C75" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="D75" t="n">
         <v>3</v>
@@ -4927,39 +4703,36 @@
         <v>2.6</v>
       </c>
       <c r="G75" t="n">
-        <v>4.136750924482677</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>12.8</v>
       </c>
       <c r="I75" t="n">
-        <v>38.28828784126647</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K75" t="n">
         <v>6</v>
       </c>
       <c r="L75" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M75" t="n">
-        <v>8</v>
+        <v>8.9</v>
       </c>
       <c r="N75" t="n">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="O75" t="n">
-        <v>9.5</v>
+        <v>25</v>
       </c>
       <c r="P75" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q75" t="n">
         <v>4.8</v>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="Q75" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -4975,7 +4748,7 @@
         <v>-0.1</v>
       </c>
       <c r="C76" t="n">
-        <v>1.8</v>
+        <v>-0.1</v>
       </c>
       <c r="D76" t="n">
         <v>2.7</v>
@@ -4987,39 +4760,36 @@
         <v>1</v>
       </c>
       <c r="G76" t="n">
-        <v>0.6205283692345743</v>
+        <v>-0.7</v>
       </c>
       <c r="H76" t="n">
         <v>24.1</v>
       </c>
       <c r="I76" t="n">
-        <v>34.09995830789867</v>
+        <v>2.7</v>
       </c>
       <c r="J76" t="n">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="K76" t="n">
         <v>2.3</v>
       </c>
       <c r="L76" t="n">
-        <v>2.3</v>
+        <v>-7.2</v>
       </c>
       <c r="M76" t="n">
-        <v>-7.2</v>
+        <v>-12.4</v>
       </c>
       <c r="N76" t="n">
-        <v>-12.4</v>
+        <v>-16.6</v>
       </c>
       <c r="O76" t="n">
-        <v>-16.6</v>
+        <v>-31.1</v>
       </c>
       <c r="P76" t="n">
-        <v>-31.1</v>
-      </c>
-      <c r="Q76" t="n">
         <v>-4.7</v>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="Q76" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5035,7 +4805,7 @@
         <v>0.1</v>
       </c>
       <c r="C77" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="D77" t="n">
         <v>0.9</v>
@@ -5047,39 +4817,36 @@
         <v>-1.2</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01143055126857185</v>
+        <v>-0.5</v>
       </c>
       <c r="H77" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="I77" t="n">
-        <v>23.53689636853777</v>
+        <v>0.9</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9</v>
+        <v>-1.3</v>
       </c>
       <c r="K77" t="n">
         <v>-1.3</v>
       </c>
       <c r="L77" t="n">
-        <v>-1.3</v>
+        <v>-5.9</v>
       </c>
       <c r="M77" t="n">
-        <v>-5.9</v>
+        <v>-4.8</v>
       </c>
       <c r="N77" t="n">
-        <v>-4.8</v>
+        <v>-3.2</v>
       </c>
       <c r="O77" t="n">
-        <v>-3.2</v>
+        <v>-18.3</v>
       </c>
       <c r="P77" t="n">
-        <v>-18.3</v>
-      </c>
-      <c r="Q77" t="n">
         <v>0.8</v>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="Q77" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5095,7 +4862,7 @@
         <v>-1.4</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6</v>
+        <v>-1.3</v>
       </c>
       <c r="D78" t="n">
         <v>-0.8</v>
@@ -5107,39 +4874,36 @@
         <v>-2.8</v>
       </c>
       <c r="G78" t="n">
-        <v>-2.728452966311347</v>
+        <v>-1.9</v>
       </c>
       <c r="H78" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="I78" t="n">
-        <v>14.77377801141726</v>
+        <v>-0.8</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="K78" t="n">
         <v>-0.7</v>
       </c>
       <c r="L78" t="n">
-        <v>-0.7</v>
+        <v>3.2</v>
       </c>
       <c r="M78" t="n">
-        <v>3.2</v>
+        <v>-1.8</v>
       </c>
       <c r="N78" t="n">
-        <v>-1.8</v>
+        <v>-0.3</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.3</v>
+        <v>-14.9</v>
       </c>
       <c r="P78" t="n">
-        <v>-14.9</v>
-      </c>
-      <c r="Q78" t="n">
         <v>-0.2</v>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="Q78" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5155,7 +4919,7 @@
         <v>0.5</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D79" t="n">
         <v>3</v>
@@ -5167,39 +4931,36 @@
         <v>2.6</v>
       </c>
       <c r="G79" t="n">
-        <v>3.479857456467861</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>13.3</v>
       </c>
       <c r="I79" t="n">
-        <v>28.95872864549117</v>
+        <v>3</v>
       </c>
       <c r="J79" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K79" t="n">
         <v>8</v>
       </c>
       <c r="L79" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M79" t="n">
-        <v>9.199999999999999</v>
+        <v>12.2</v>
       </c>
       <c r="N79" t="n">
-        <v>12.2</v>
+        <v>15</v>
       </c>
       <c r="O79" t="n">
-        <v>15</v>
+        <v>26.9</v>
       </c>
       <c r="P79" t="n">
-        <v>26.9</v>
-      </c>
-      <c r="Q79" t="n">
         <v>13.3</v>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="Q79" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5215,7 +4976,7 @@
         <v>0.9</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.7</v>
+        <v>0.7</v>
       </c>
       <c r="D80" t="n">
         <v>3</v>
@@ -5227,39 +4988,36 @@
         <v>6.8</v>
       </c>
       <c r="G80" t="n">
-        <v>2.3165679688654</v>
+        <v>3.9</v>
       </c>
       <c r="H80" t="n">
         <v>15.9</v>
       </c>
       <c r="I80" t="n">
-        <v>1.253527779036577</v>
+        <v>3</v>
       </c>
       <c r="J80" t="n">
-        <v>3</v>
+        <v>5.8</v>
       </c>
       <c r="K80" t="n">
         <v>5.8</v>
       </c>
       <c r="L80" t="n">
-        <v>5.8</v>
+        <v>18.7</v>
       </c>
       <c r="M80" t="n">
-        <v>18.7</v>
+        <v>41.9</v>
       </c>
       <c r="N80" t="n">
-        <v>41.9</v>
+        <v>28.5</v>
       </c>
       <c r="O80" t="n">
-        <v>28.5</v>
+        <v>50.5</v>
       </c>
       <c r="P80" t="n">
-        <v>50.5</v>
-      </c>
-      <c r="Q80" t="n">
         <v>55.6</v>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="Q80" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5275,7 +5033,7 @@
         <v>1.2</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.9</v>
+        <v>0.7</v>
       </c>
       <c r="D81" t="n">
         <v>5</v>
@@ -5287,39 +5045,36 @@
         <v>13.1</v>
       </c>
       <c r="G81" t="n">
-        <v>5.681002744002316</v>
+        <v>5.8</v>
       </c>
       <c r="H81" t="n">
         <v>28.9</v>
       </c>
       <c r="I81" t="n">
-        <v>6.015198192145355</v>
+        <v>5</v>
       </c>
       <c r="J81" t="n">
-        <v>5</v>
+        <v>11.6</v>
       </c>
       <c r="K81" t="n">
         <v>11.6</v>
       </c>
       <c r="L81" t="n">
-        <v>11.6</v>
+        <v>25.2</v>
       </c>
       <c r="M81" t="n">
-        <v>25.2</v>
+        <v>54.8</v>
       </c>
       <c r="N81" t="n">
-        <v>54.8</v>
+        <v>43</v>
       </c>
       <c r="O81" t="n">
-        <v>43</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="P81" t="n">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="Q81" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5335,7 +5090,7 @@
         <v>0.3</v>
       </c>
       <c r="C82" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
         <v>1.3</v>
@@ -5347,39 +5102,36 @@
         <v>1.8</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.585373474044037</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>18</v>
       </c>
       <c r="I82" t="n">
-        <v>10.01095225627981</v>
+        <v>1.3</v>
       </c>
       <c r="J82" t="n">
-        <v>1.3</v>
+        <v>-0.4</v>
       </c>
       <c r="K82" t="n">
         <v>-0.4</v>
       </c>
       <c r="L82" t="n">
-        <v>-0.4</v>
+        <v>10.3</v>
       </c>
       <c r="M82" t="n">
-        <v>10.3</v>
+        <v>17.8</v>
       </c>
       <c r="N82" t="n">
-        <v>17.8</v>
+        <v>2.2</v>
       </c>
       <c r="O82" t="n">
-        <v>2.2</v>
+        <v>-10.3</v>
       </c>
       <c r="P82" t="n">
-        <v>-10.3</v>
-      </c>
-      <c r="Q82" t="n">
         <v>36.3</v>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="Q82" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5395,7 +5147,7 @@
         <v>0.8</v>
       </c>
       <c r="C83" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="D83" t="n">
         <v>1</v>
@@ -5407,39 +5159,36 @@
         <v>-0.7</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.118728761031322</v>
+        <v>0.3</v>
       </c>
       <c r="H83" t="n">
         <v>7.7</v>
       </c>
       <c r="I83" t="n">
-        <v>6.418378289083019</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>1</v>
+        <v>-2.9</v>
       </c>
       <c r="K83" t="n">
         <v>-2.9</v>
       </c>
       <c r="L83" t="n">
-        <v>-2.9</v>
+        <v>-1.3</v>
       </c>
       <c r="M83" t="n">
-        <v>-1.3</v>
+        <v>-0.7</v>
       </c>
       <c r="N83" t="n">
-        <v>-0.7</v>
+        <v>0.4</v>
       </c>
       <c r="O83" t="n">
-        <v>0.4</v>
+        <v>12.9</v>
       </c>
       <c r="P83" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Q83" t="n">
         <v>2.5</v>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="Q83" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5455,7 +5204,7 @@
         <v>-0.2</v>
       </c>
       <c r="C84" t="n">
-        <v>-0</v>
+        <v>-0.2</v>
       </c>
       <c r="D84" t="n">
         <v>-2.6</v>
@@ -5467,39 +5216,36 @@
         <v>-2.6</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.276119115108708</v>
+        <v>-2</v>
       </c>
       <c r="H84" t="n">
         <v>12.6</v>
       </c>
       <c r="I84" t="n">
-        <v>9.035021609539392</v>
+        <v>-2.6</v>
       </c>
       <c r="J84" t="n">
-        <v>-2.6</v>
+        <v>-6.9</v>
       </c>
       <c r="K84" t="n">
         <v>-6.9</v>
       </c>
       <c r="L84" t="n">
-        <v>-6.9</v>
+        <v>7.6</v>
       </c>
       <c r="M84" t="n">
-        <v>7.6</v>
+        <v>-2.7</v>
       </c>
       <c r="N84" t="n">
-        <v>-2.7</v>
+        <v>24.9</v>
       </c>
       <c r="O84" t="n">
-        <v>24.9</v>
+        <v>61.3</v>
       </c>
       <c r="P84" t="n">
-        <v>61.3</v>
-      </c>
-      <c r="Q84" t="n">
         <v>8.6</v>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="Q84" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5515,7 +5261,7 @@
         <v>-0.9</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="D85" t="n">
         <v>-1.7</v>
@@ -5527,39 +5273,36 @@
         <v>-5.6</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.033376698062145</v>
+        <v>-1.4</v>
       </c>
       <c r="H85" t="n">
         <v>-0.8</v>
       </c>
       <c r="I85" t="n">
-        <v>-1.907229575916469</v>
+        <v>-1.7</v>
       </c>
       <c r="J85" t="n">
-        <v>-1.7</v>
+        <v>-11.4</v>
       </c>
       <c r="K85" t="n">
         <v>-11.4</v>
       </c>
       <c r="L85" t="n">
-        <v>-11.4</v>
+        <v>-6.3</v>
       </c>
       <c r="M85" t="n">
-        <v>-6.3</v>
+        <v>-10.3</v>
       </c>
       <c r="N85" t="n">
-        <v>-10.3</v>
+        <v>-12.2</v>
       </c>
       <c r="O85" t="n">
-        <v>-12.2</v>
+        <v>-20.6</v>
       </c>
       <c r="P85" t="n">
-        <v>-20.6</v>
-      </c>
-      <c r="Q85" t="n">
         <v>-5.5</v>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="Q85" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5575,7 +5318,7 @@
         <v>-0.9</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="D86" t="n">
         <v>-1.2</v>
@@ -5587,39 +5330,36 @@
         <v>-5.8</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.116697043189443</v>
+        <v>-1.4</v>
       </c>
       <c r="H86" t="n">
         <v>5.2</v>
       </c>
       <c r="I86" t="n">
-        <v>9.786796563506034</v>
+        <v>-1.2</v>
       </c>
       <c r="J86" t="n">
-        <v>-1.2</v>
+        <v>-11.5</v>
       </c>
       <c r="K86" t="n">
         <v>-11.5</v>
       </c>
       <c r="L86" t="n">
-        <v>-11.5</v>
+        <v>-3.4</v>
       </c>
       <c r="M86" t="n">
-        <v>-3.4</v>
+        <v>-13.1</v>
       </c>
       <c r="N86" t="n">
-        <v>-13.1</v>
+        <v>-25.5</v>
       </c>
       <c r="O86" t="n">
-        <v>-25.5</v>
+        <v>-42.9</v>
       </c>
       <c r="P86" t="n">
-        <v>-42.9</v>
-      </c>
-      <c r="Q86" t="n">
         <v>-12</v>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="Q86" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5635,7 +5375,7 @@
         <v>0.6</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="D87" t="n">
         <v>-0.4</v>
@@ -5647,39 +5387,36 @@
         <v>-1.1</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.81822045315347</v>
+        <v>-0.5</v>
       </c>
       <c r="H87" t="n">
         <v>6.6</v>
       </c>
       <c r="I87" t="n">
-        <v>4.004192215401402</v>
+        <v>-0.4</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.4</v>
+        <v>-6.2</v>
       </c>
       <c r="K87" t="n">
         <v>-6.2</v>
       </c>
       <c r="L87" t="n">
-        <v>-6.2</v>
+        <v>3.5</v>
       </c>
       <c r="M87" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="N87" t="n">
-        <v>4</v>
+        <v>23.1</v>
       </c>
       <c r="O87" t="n">
-        <v>23.1</v>
+        <v>50.1</v>
       </c>
       <c r="P87" t="n">
-        <v>50.1</v>
-      </c>
-      <c r="Q87" t="n">
         <v>11.9</v>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="Q87" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5695,7 +5432,7 @@
         <v>0.6</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D88" t="n">
         <v>0.8</v>
@@ -5707,39 +5444,36 @@
         <v>3.3</v>
       </c>
       <c r="G88" t="n">
-        <v>2.58824674036436</v>
+        <v>2</v>
       </c>
       <c r="H88" t="n">
         <v>16.1</v>
       </c>
       <c r="I88" t="n">
-        <v>21.58953024791354</v>
+        <v>0.8</v>
       </c>
       <c r="J88" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="K88" t="n">
         <v>3.9</v>
       </c>
       <c r="L88" t="n">
-        <v>3.9</v>
+        <v>10.4</v>
       </c>
       <c r="M88" t="n">
-        <v>10.4</v>
+        <v>5.6</v>
       </c>
       <c r="N88" t="n">
-        <v>5.6</v>
+        <v>-2.8</v>
       </c>
       <c r="O88" t="n">
-        <v>-2.8</v>
+        <v>26.5</v>
       </c>
       <c r="P88" t="n">
-        <v>26.5</v>
-      </c>
-      <c r="Q88" t="n">
         <v>13.2</v>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="Q88" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5755,7 +5489,7 @@
         <v>0.4</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="D89" t="n">
         <v>0.3</v>
@@ -5767,39 +5501,36 @@
         <v>0.8</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.578832158200763</v>
+        <v>-0.6</v>
       </c>
       <c r="H89" t="n">
         <v>17</v>
       </c>
       <c r="I89" t="n">
-        <v>10.68427664523878</v>
+        <v>0.3</v>
       </c>
       <c r="J89" t="n">
-        <v>0.3</v>
+        <v>-1.7</v>
       </c>
       <c r="K89" t="n">
         <v>-1.7</v>
       </c>
       <c r="L89" t="n">
-        <v>-1.7</v>
+        <v>9.9</v>
       </c>
       <c r="M89" t="n">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="N89" t="n">
-        <v>9.1</v>
+        <v>4</v>
       </c>
       <c r="O89" t="n">
-        <v>4</v>
+        <v>26.4</v>
       </c>
       <c r="P89" t="n">
-        <v>26.4</v>
-      </c>
-      <c r="Q89" t="n">
         <v>22</v>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="Q89" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5815,7 +5546,7 @@
         <v>-0.5</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="D90" t="n">
         <v>-4.4</v>
@@ -5827,39 +5558,36 @@
         <v>-6.2</v>
       </c>
       <c r="G90" t="n">
-        <v>-2.090368624250356</v>
+        <v>-2.5</v>
       </c>
       <c r="H90" t="n">
         <v>15</v>
       </c>
       <c r="I90" t="n">
-        <v>18.0240695184284</v>
+        <v>-4.4</v>
       </c>
       <c r="J90" t="n">
-        <v>-4.4</v>
+        <v>-7</v>
       </c>
       <c r="K90" t="n">
         <v>-7</v>
       </c>
       <c r="L90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>-15.1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-24.5</v>
+      </c>
+      <c r="O90" t="n">
         <v>-7</v>
       </c>
-      <c r="M90" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-15.1</v>
-      </c>
-      <c r="O90" t="n">
-        <v>-24.5</v>
-      </c>
       <c r="P90" t="n">
-        <v>-7</v>
-      </c>
-      <c r="Q90" t="n">
         <v>-7.1</v>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="Q90" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5875,7 +5603,7 @@
         <v>-0.8</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.6</v>
+        <v>-0.4</v>
       </c>
       <c r="D91" t="n">
         <v>-6.3</v>
@@ -5887,39 +5615,36 @@
         <v>-10</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.945398273142952</v>
+        <v>-3.4</v>
       </c>
       <c r="H91" t="n">
         <v>10.9</v>
       </c>
       <c r="I91" t="n">
-        <v>13.68904559790837</v>
+        <v>-6.3</v>
       </c>
       <c r="J91" t="n">
-        <v>-6.3</v>
+        <v>-11.2</v>
       </c>
       <c r="K91" t="n">
         <v>-11.2</v>
       </c>
       <c r="L91" t="n">
-        <v>-11.2</v>
+        <v>-5</v>
       </c>
       <c r="M91" t="n">
-        <v>-5</v>
+        <v>-28.1</v>
       </c>
       <c r="N91" t="n">
-        <v>-28.1</v>
+        <v>-36.9</v>
       </c>
       <c r="O91" t="n">
-        <v>-36.9</v>
+        <v>-21</v>
       </c>
       <c r="P91" t="n">
-        <v>-21</v>
-      </c>
-      <c r="Q91" t="n">
         <v>-22.4</v>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="Q91" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -5935,7 +5660,7 @@
         <v>0.8</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="D92" t="n">
         <v>0.1</v>
@@ -5947,39 +5672,36 @@
         <v>5.3</v>
       </c>
       <c r="G92" t="n">
-        <v>3.069489663268298</v>
+        <v>4.3</v>
       </c>
       <c r="H92" t="n">
         <v>13</v>
       </c>
       <c r="I92" t="n">
-        <v>14.21136860708719</v>
+        <v>0.1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="K92" t="n">
         <v>7</v>
       </c>
       <c r="L92" t="n">
-        <v>7</v>
+        <v>15.9</v>
       </c>
       <c r="M92" t="n">
-        <v>15.9</v>
+        <v>13.2</v>
       </c>
       <c r="N92" t="n">
-        <v>13.2</v>
+        <v>22.4</v>
       </c>
       <c r="O92" t="n">
-        <v>22.4</v>
+        <v>55.5</v>
       </c>
       <c r="P92" t="n">
-        <v>55.5</v>
-      </c>
-      <c r="Q92" t="n">
         <v>17.1</v>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="Q92" t="inlineStr">
         <is>
           <t>Equity EEUU industries</t>
         </is>
@@ -6007,39 +5729,36 @@
         <v>2.6</v>
       </c>
       <c r="G93" t="n">
-        <v>1.136042824844804</v>
+        <v>2.6</v>
       </c>
       <c r="H93" t="n">
         <v>13.3</v>
       </c>
       <c r="I93" t="n">
-        <v>17.72181409093734</v>
+        <v>1.4</v>
       </c>
       <c r="J93" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="K93" t="n">
         <v>2.6</v>
       </c>
       <c r="L93" t="n">
-        <v>2.6</v>
+        <v>9</v>
       </c>
       <c r="M93" t="n">
-        <v>9</v>
+        <v>13.2</v>
       </c>
       <c r="N93" t="n">
-        <v>13.2</v>
+        <v>10.2</v>
       </c>
       <c r="O93" t="n">
-        <v>10.2</v>
+        <v>24.1</v>
       </c>
       <c r="P93" t="n">
-        <v>24.1</v>
-      </c>
-      <c r="Q93" t="n">
         <v>15.3</v>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="Q93" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6055,7 +5774,7 @@
         <v>0.8</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D94" t="n">
         <v>4.1</v>
@@ -6067,39 +5786,36 @@
         <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>3.00472918180645</v>
+        <v>3.9</v>
       </c>
       <c r="H94" t="n">
         <v>14.3</v>
       </c>
       <c r="I94" t="n">
-        <v>1.263118365034206</v>
+        <v>4.1</v>
       </c>
       <c r="J94" t="n">
-        <v>4.1</v>
+        <v>7.1</v>
       </c>
       <c r="K94" t="n">
         <v>7.1</v>
       </c>
       <c r="L94" t="n">
-        <v>7.1</v>
+        <v>13.9</v>
       </c>
       <c r="M94" t="n">
-        <v>13.9</v>
+        <v>32</v>
       </c>
       <c r="N94" t="n">
-        <v>32</v>
+        <v>16.8</v>
       </c>
       <c r="O94" t="n">
-        <v>16.8</v>
+        <v>36.3</v>
       </c>
       <c r="P94" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="Q94" t="n">
         <v>41.1</v>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6115,7 +5831,7 @@
         <v>0.7</v>
       </c>
       <c r="C95" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D95" t="n">
         <v>2.9</v>
@@ -6127,39 +5843,36 @@
         <v>4.1</v>
       </c>
       <c r="G95" t="n">
-        <v>1.789728758429547</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>14</v>
       </c>
       <c r="I95" t="n">
-        <v>6.09222507670257</v>
+        <v>2.9</v>
       </c>
       <c r="J95" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="K95" t="n">
         <v>4.2</v>
       </c>
       <c r="L95" t="n">
-        <v>4.2</v>
+        <v>10.2</v>
       </c>
       <c r="M95" t="n">
-        <v>10.2</v>
+        <v>19.1</v>
       </c>
       <c r="N95" t="n">
-        <v>19.1</v>
+        <v>10.3</v>
       </c>
       <c r="O95" t="n">
-        <v>10.3</v>
+        <v>23.9</v>
       </c>
       <c r="P95" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="Q95" t="n">
         <v>26.4</v>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="Q95" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6175,7 +5888,7 @@
         <v>-0.4</v>
       </c>
       <c r="C96" t="n">
-        <v>0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="D96" t="n">
         <v>0</v>
@@ -6187,39 +5900,36 @@
         <v>-1.1</v>
       </c>
       <c r="G96" t="n">
-        <v>-1.110496289818742</v>
+        <v>-0.9</v>
       </c>
       <c r="H96" t="n">
         <v>13.6</v>
       </c>
       <c r="I96" t="n">
-        <v>19.9742781550573</v>
+        <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>-3.9</v>
       </c>
       <c r="K96" t="n">
         <v>-3.9</v>
       </c>
       <c r="L96" t="n">
-        <v>-3.9</v>
+        <v>-0.7</v>
       </c>
       <c r="M96" t="n">
-        <v>-0.7</v>
+        <v>-1.4</v>
       </c>
       <c r="N96" t="n">
-        <v>-1.4</v>
+        <v>-3.2</v>
       </c>
       <c r="O96" t="n">
-        <v>-3.2</v>
+        <v>-13</v>
       </c>
       <c r="P96" t="n">
-        <v>-13</v>
-      </c>
-      <c r="Q96" t="n">
         <v>8</v>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="Q96" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6235,7 +5945,7 @@
         <v>-0.9</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="D97" t="n">
         <v>-0.5</v>
@@ -6247,39 +5957,36 @@
         <v>-1.8</v>
       </c>
       <c r="G97" t="n">
-        <v>-1.750878743134706</v>
+        <v>-1.8</v>
       </c>
       <c r="H97" t="n">
         <v>15.3</v>
       </c>
       <c r="I97" t="n">
-        <v>20.57538622314635</v>
+        <v>-0.5</v>
       </c>
       <c r="J97" t="n">
-        <v>-0.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K97" t="n">
         <v>-4.5</v>
       </c>
       <c r="L97" t="n">
-        <v>-4.5</v>
+        <v>-1.6</v>
       </c>
       <c r="M97" t="n">
-        <v>-1.6</v>
+        <v>-8.4</v>
       </c>
       <c r="N97" t="n">
-        <v>-8.4</v>
+        <v>-11.7</v>
       </c>
       <c r="O97" t="n">
-        <v>-11.7</v>
+        <v>-24.2</v>
       </c>
       <c r="P97" t="n">
-        <v>-24.2</v>
-      </c>
-      <c r="Q97" t="n">
         <v>2</v>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6295,7 +6002,7 @@
         <v>1.1</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.3</v>
+        <v>1.2</v>
       </c>
       <c r="D98" t="n">
         <v>4.8</v>
@@ -6307,39 +6014,36 @@
         <v>7.4</v>
       </c>
       <c r="G98" t="n">
-        <v>5.814358242748074</v>
+        <v>5.6</v>
       </c>
       <c r="H98" t="n">
         <v>15.4</v>
       </c>
       <c r="I98" t="n">
-        <v>9.754617842236273</v>
+        <v>4.8</v>
       </c>
       <c r="J98" t="n">
-        <v>4.8</v>
+        <v>7.8</v>
       </c>
       <c r="K98" t="n">
         <v>7.8</v>
       </c>
       <c r="L98" t="n">
-        <v>7.8</v>
+        <v>14</v>
       </c>
       <c r="M98" t="n">
-        <v>14</v>
+        <v>27.6</v>
       </c>
       <c r="N98" t="n">
-        <v>27.6</v>
+        <v>7.2</v>
       </c>
       <c r="O98" t="n">
-        <v>7.2</v>
+        <v>21.6</v>
       </c>
       <c r="P98" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="Q98" t="n">
         <v>32.8</v>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6355,7 +6059,7 @@
         <v>-0.2</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="D99" t="n">
         <v>-1</v>
@@ -6367,39 +6071,36 @@
         <v>-3.2</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.999441297360025</v>
+        <v>-1.3</v>
       </c>
       <c r="H99" t="n">
         <v>10.3</v>
       </c>
       <c r="I99" t="n">
-        <v>22.44688599686186</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="n">
-        <v>-1</v>
+        <v>-2.7</v>
       </c>
       <c r="K99" t="n">
         <v>-2.7</v>
       </c>
       <c r="L99" t="n">
-        <v>-2.7</v>
+        <v>-0.3</v>
       </c>
       <c r="M99" t="n">
-        <v>-0.3</v>
+        <v>-9.6</v>
       </c>
       <c r="N99" t="n">
-        <v>-9.6</v>
+        <v>-11.6</v>
       </c>
       <c r="O99" t="n">
-        <v>-11.6</v>
+        <v>8.6</v>
       </c>
       <c r="P99" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Q99" t="n">
         <v>-5.2</v>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="Q99" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6415,7 +6116,7 @@
         <v>0.2</v>
       </c>
       <c r="C100" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="D100" t="n">
         <v>0.7</v>
@@ -6427,39 +6128,36 @@
         <v>0.9</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3425245112925791</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>11.8</v>
       </c>
       <c r="I100" t="n">
-        <v>12.68556326908407</v>
+        <v>0.7</v>
       </c>
       <c r="J100" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>1</v>
       </c>
       <c r="L100" t="n">
-        <v>1</v>
+        <v>6.3</v>
       </c>
       <c r="M100" t="n">
-        <v>6.3</v>
+        <v>11.4</v>
       </c>
       <c r="N100" t="n">
-        <v>11.4</v>
+        <v>13.8</v>
       </c>
       <c r="O100" t="n">
-        <v>13.8</v>
+        <v>33.1</v>
       </c>
       <c r="P100" t="n">
-        <v>33.1</v>
-      </c>
-      <c r="Q100" t="n">
         <v>19.3</v>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="Q100" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6475,7 +6173,7 @@
         <v>0.4</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D101" t="n">
         <v>-0</v>
@@ -6487,39 +6185,36 @@
         <v>-0.8</v>
       </c>
       <c r="G101" t="n">
-        <v>0.9605748442471068</v>
+        <v>-0</v>
       </c>
       <c r="H101" t="n">
         <v>8.1</v>
       </c>
       <c r="I101" t="n">
-        <v>26.86737500744047</v>
+        <v>-0</v>
       </c>
       <c r="J101" t="n">
-        <v>-0</v>
+        <v>-1.2</v>
       </c>
       <c r="K101" t="n">
         <v>-1.2</v>
       </c>
       <c r="L101" t="n">
-        <v>-1.2</v>
+        <v>-1.6</v>
       </c>
       <c r="M101" t="n">
-        <v>-1.6</v>
+        <v>-5.4</v>
       </c>
       <c r="N101" t="n">
-        <v>-5.4</v>
+        <v>-1.5</v>
       </c>
       <c r="O101" t="n">
-        <v>-1.5</v>
+        <v>12.9</v>
       </c>
       <c r="P101" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="Q101" t="n">
         <v>-3.6</v>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="Q101" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6535,7 +6230,7 @@
         <v>0.6</v>
       </c>
       <c r="C102" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="D102" t="n">
         <v>1.5</v>
@@ -6547,39 +6242,36 @@
         <v>2.9</v>
       </c>
       <c r="G102" t="n">
-        <v>1.892766359626546</v>
+        <v>3.5</v>
       </c>
       <c r="H102" t="n">
         <v>10.9</v>
       </c>
       <c r="I102" t="n">
-        <v>12.2803199362829</v>
+        <v>1.5</v>
       </c>
       <c r="J102" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="K102" t="n">
         <v>2.8</v>
       </c>
       <c r="L102" t="n">
-        <v>2.8</v>
+        <v>6.5</v>
       </c>
       <c r="M102" t="n">
-        <v>6.5</v>
+        <v>11.2</v>
       </c>
       <c r="N102" t="n">
-        <v>11.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O102" t="n">
-        <v>8.300000000000001</v>
+        <v>23.5</v>
       </c>
       <c r="P102" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="Q102" t="n">
         <v>13.1</v>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="Q102" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6595,7 +6287,7 @@
         <v>-0.1</v>
       </c>
       <c r="C103" t="n">
-        <v>0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="D103" t="n">
         <v>-1.3</v>
@@ -6607,39 +6299,36 @@
         <v>0.7</v>
       </c>
       <c r="G103" t="n">
-        <v>-1.137031742067934</v>
+        <v>-0.3</v>
       </c>
       <c r="H103" t="n">
         <v>6.4</v>
       </c>
       <c r="I103" t="n">
-        <v>9.072288391434443</v>
+        <v>-1.3</v>
       </c>
       <c r="J103" t="n">
-        <v>-1.3</v>
+        <v>1.5</v>
       </c>
       <c r="K103" t="n">
         <v>1.5</v>
       </c>
       <c r="L103" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M103" t="n">
-        <v>3</v>
+        <v>-4.4</v>
       </c>
       <c r="N103" t="n">
-        <v>-4.4</v>
+        <v>-13.8</v>
       </c>
       <c r="O103" t="n">
-        <v>-13.8</v>
+        <v>-16.9</v>
       </c>
       <c r="P103" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="Q103" t="n">
         <v>1.2</v>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="Q103" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6655,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="D104" t="n">
         <v>3.7</v>
@@ -6667,39 +6356,36 @@
         <v>5.7</v>
       </c>
       <c r="G104" t="n">
-        <v>3.873761158770153</v>
+        <v>4.6</v>
       </c>
       <c r="H104" t="n">
         <v>14.4</v>
       </c>
       <c r="I104" t="n">
-        <v>8.894480440286163</v>
+        <v>3.7</v>
       </c>
       <c r="J104" t="n">
-        <v>3.7</v>
+        <v>6.1</v>
       </c>
       <c r="K104" t="n">
         <v>6.1</v>
       </c>
       <c r="L104" t="n">
-        <v>6.1</v>
+        <v>12.9</v>
       </c>
       <c r="M104" t="n">
-        <v>12.9</v>
+        <v>24.7</v>
       </c>
       <c r="N104" t="n">
-        <v>24.7</v>
+        <v>17.5</v>
       </c>
       <c r="O104" t="n">
-        <v>17.5</v>
+        <v>32.3</v>
       </c>
       <c r="P104" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="Q104" t="n">
         <v>33.4</v>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="Q104" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6715,7 +6401,7 @@
         <v>1.4</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.7</v>
+        <v>1.3</v>
       </c>
       <c r="D105" t="n">
         <v>5.6</v>
@@ -6727,39 +6413,36 @@
         <v>10.5</v>
       </c>
       <c r="G105" t="n">
-        <v>12.18279652850189</v>
+        <v>10.2</v>
       </c>
       <c r="H105" t="n">
         <v>20.4</v>
       </c>
       <c r="I105" t="n">
-        <v>51.67052120656746</v>
+        <v>5.6</v>
       </c>
       <c r="J105" t="n">
-        <v>5.6</v>
+        <v>11.5</v>
       </c>
       <c r="K105" t="n">
         <v>11.5</v>
       </c>
       <c r="L105" t="n">
-        <v>11.5</v>
+        <v>19.8</v>
       </c>
       <c r="M105" t="n">
-        <v>19.8</v>
+        <v>22.4</v>
       </c>
       <c r="N105" t="n">
-        <v>22.4</v>
+        <v>5.2</v>
       </c>
       <c r="O105" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="P105" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q105" t="n">
         <v>19.3</v>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="Q105" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6775,7 +6458,7 @@
         <v>0.7</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="D106" t="n">
         <v>3</v>
@@ -6787,39 +6470,36 @@
         <v>4.3</v>
       </c>
       <c r="G106" t="n">
-        <v>1.935053126900913</v>
+        <v>3.3</v>
       </c>
       <c r="H106" t="n">
         <v>14.1</v>
       </c>
       <c r="I106" t="n">
-        <v>5.987303670932111</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="K106" t="n">
         <v>4.3</v>
       </c>
       <c r="L106" t="n">
-        <v>4.3</v>
+        <v>10.3</v>
       </c>
       <c r="M106" t="n">
-        <v>10.3</v>
+        <v>18.8</v>
       </c>
       <c r="N106" t="n">
-        <v>18.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O106" t="n">
-        <v>8.800000000000001</v>
+        <v>22</v>
       </c>
       <c r="P106" t="n">
-        <v>22</v>
-      </c>
-      <c r="Q106" t="n">
         <v>25.3</v>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="Q106" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6835,7 +6515,7 @@
         <v>0.6</v>
       </c>
       <c r="C107" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="D107" t="n">
         <v>3</v>
@@ -6847,39 +6527,36 @@
         <v>4.4</v>
       </c>
       <c r="G107" t="n">
-        <v>2.425646647650609</v>
+        <v>2.5</v>
       </c>
       <c r="H107" t="n">
         <v>14.7</v>
       </c>
       <c r="I107" t="n">
-        <v>9.670882344604937</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K107" t="n">
         <v>5</v>
       </c>
       <c r="L107" t="n">
-        <v>5</v>
+        <v>11.9</v>
       </c>
       <c r="M107" t="n">
-        <v>11.9</v>
+        <v>22.7</v>
       </c>
       <c r="N107" t="n">
-        <v>22.7</v>
+        <v>12.8</v>
       </c>
       <c r="O107" t="n">
-        <v>12.8</v>
+        <v>30.9</v>
       </c>
       <c r="P107" t="n">
-        <v>30.9</v>
-      </c>
-      <c r="Q107" t="n">
         <v>29.5</v>
       </c>
-      <c r="R107" t="inlineStr">
+      <c r="Q107" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6895,7 +6572,7 @@
         <v>-0.1</v>
       </c>
       <c r="C108" t="n">
-        <v>0.6</v>
+        <v>-0</v>
       </c>
       <c r="D108" t="n">
         <v>0.3</v>
@@ -6907,39 +6584,36 @@
         <v>-0.9</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.2279420149342</v>
+        <v>-0.3</v>
       </c>
       <c r="H108" t="n">
         <v>13.6</v>
       </c>
       <c r="I108" t="n">
-        <v>16.77496258323094</v>
+        <v>0.3</v>
       </c>
       <c r="J108" t="n">
-        <v>0.3</v>
+        <v>-2.9</v>
       </c>
       <c r="K108" t="n">
         <v>-2.9</v>
       </c>
       <c r="L108" t="n">
-        <v>-2.9</v>
+        <v>0.7</v>
       </c>
       <c r="M108" t="n">
-        <v>0.7</v>
+        <v>-0.4</v>
       </c>
       <c r="N108" t="n">
         <v>-0.4</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.4</v>
+        <v>-2.3</v>
       </c>
       <c r="P108" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="Q108" t="n">
         <v>9.9</v>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="Q108" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -6955,7 +6629,7 @@
         <v>0.4</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D109" t="n">
         <v>1.9</v>
@@ -6967,39 +6641,36 @@
         <v>1.5</v>
       </c>
       <c r="G109" t="n">
-        <v>-0.7932202535123387</v>
+        <v>1.1</v>
       </c>
       <c r="H109" t="n">
         <v>21</v>
       </c>
       <c r="I109" t="n">
-        <v>11.6389520323166</v>
+        <v>1.9</v>
       </c>
       <c r="J109" t="n">
-        <v>1.9</v>
+        <v>-0.6</v>
       </c>
       <c r="K109" t="n">
         <v>-0.6</v>
       </c>
       <c r="L109" t="n">
-        <v>-0.6</v>
+        <v>5.7</v>
       </c>
       <c r="M109" t="n">
-        <v>5.7</v>
+        <v>8</v>
       </c>
       <c r="N109" t="n">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="O109" t="n">
-        <v>9.1</v>
+        <v>33.7</v>
       </c>
       <c r="P109" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="Q109" t="n">
         <v>25.4</v>
       </c>
-      <c r="R109" t="inlineStr">
+      <c r="Q109" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -7015,7 +6686,7 @@
         <v>0.5</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D110" t="n">
         <v>0.8</v>
@@ -7027,39 +6698,36 @@
         <v>4.8</v>
       </c>
       <c r="G110" t="n">
-        <v>5.907394248932953</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>-11.3</v>
       </c>
       <c r="I110" t="n">
-        <v>-16.48770322475459</v>
+        <v>0.8</v>
       </c>
       <c r="J110" t="n">
-        <v>0.8</v>
+        <v>9.1</v>
       </c>
       <c r="K110" t="n">
         <v>9.1</v>
       </c>
       <c r="L110" t="n">
-        <v>9.1</v>
+        <v>-1</v>
       </c>
       <c r="M110" t="n">
-        <v>-1</v>
+        <v>-3.9</v>
       </c>
       <c r="N110" t="n">
-        <v>-3.9</v>
+        <v>0.1</v>
       </c>
       <c r="O110" t="n">
-        <v>0.1</v>
+        <v>-1.6</v>
       </c>
       <c r="P110" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="Q110" t="n">
         <v>-11.8</v>
       </c>
-      <c r="R110" t="inlineStr">
+      <c r="Q110" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -7075,7 +6743,7 @@
         <v>0.3</v>
       </c>
       <c r="C111" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D111" t="n">
         <v>0.2</v>
@@ -7087,39 +6755,36 @@
         <v>0.1</v>
       </c>
       <c r="G111" t="n">
-        <v>-1.412359340114125</v>
+        <v>-0.1</v>
       </c>
       <c r="H111" t="n">
         <v>6</v>
       </c>
       <c r="I111" t="n">
-        <v>5.066774557437238</v>
+        <v>0.2</v>
       </c>
       <c r="J111" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="K111" t="n">
         <v>1</v>
       </c>
       <c r="L111" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="M111" t="n">
-        <v>1.1</v>
+        <v>-0.3</v>
       </c>
       <c r="N111" t="n">
-        <v>-0.3</v>
+        <v>-2.3</v>
       </c>
       <c r="O111" t="n">
-        <v>-2.3</v>
+        <v>12.2</v>
       </c>
       <c r="P111" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="Q111" t="n">
         <v>-1.9</v>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="Q111" t="inlineStr">
         <is>
           <t>Equity EEUU factores</t>
         </is>
@@ -7135,7 +6800,7 @@
         <v>-0</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.2</v>
+        <v>-0</v>
       </c>
       <c r="D112" t="n">
         <v>1.1</v>
@@ -7147,37 +6812,34 @@
         <v>-0.2</v>
       </c>
       <c r="G112" t="n">
-        <v>0.8717458231248785</v>
+        <v>0</v>
       </c>
       <c r="H112" t="n">
         <v>1.3</v>
       </c>
       <c r="I112" t="n">
-        <v>2.697661159090035</v>
+        <v>1.1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.1</v>
+        <v>-2.8</v>
       </c>
       <c r="K112" t="n">
         <v>-2.8</v>
       </c>
       <c r="L112" t="n">
-        <v>-2.8</v>
+        <v>-2.4</v>
       </c>
       <c r="M112" t="n">
-        <v>-2.4</v>
+        <v>-5.8</v>
       </c>
       <c r="N112" t="n">
-        <v>-5.8</v>
-      </c>
-      <c r="O112" t="n">
         <v>-42.5</v>
       </c>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="n">
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="n">
         <v>-32.3</v>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="Q112" t="inlineStr">
         <is>
           <t>EEUU infla/defla</t>
         </is>
@@ -7193,7 +6855,7 @@
         <v>-0.1</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8</v>
+        <v>-0.1</v>
       </c>
       <c r="D113" t="n">
         <v>-0.8</v>
@@ -7205,39 +6867,36 @@
         <v>-2.8</v>
       </c>
       <c r="G113" t="n">
-        <v>-3.131853906993276</v>
+        <v>-2.2</v>
       </c>
       <c r="H113" t="n">
         <v>0.8</v>
       </c>
       <c r="I113" t="n">
-        <v>3.171809785815181</v>
+        <v>-0.8</v>
       </c>
       <c r="J113" t="n">
-        <v>-0.8</v>
+        <v>-5</v>
       </c>
       <c r="K113" t="n">
         <v>-5</v>
       </c>
       <c r="L113" t="n">
-        <v>-5</v>
+        <v>-6.9</v>
       </c>
       <c r="M113" t="n">
-        <v>-6.9</v>
+        <v>-7.8</v>
       </c>
       <c r="N113" t="n">
-        <v>-7.8</v>
+        <v>-4</v>
       </c>
       <c r="O113" t="n">
-        <v>-4</v>
+        <v>17.4</v>
       </c>
       <c r="P113" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="Q113" t="n">
         <v>-5.4</v>
       </c>
-      <c r="R113" t="inlineStr">
+      <c r="Q113" t="inlineStr">
         <is>
           <t>EEUU infla/defla</t>
         </is>
@@ -7253,7 +6912,7 @@
         <v>-0.2</v>
       </c>
       <c r="C114" t="n">
-        <v>1.5</v>
+        <v>-0.4</v>
       </c>
       <c r="D114" t="n">
         <v>-0.5</v>
@@ -7265,39 +6924,36 @@
         <v>-0</v>
       </c>
       <c r="G114" t="n">
-        <v>-1.313827109860833</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>5.1</v>
       </c>
       <c r="I114" t="n">
-        <v>3.24589801311071</v>
+        <v>-0.5</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="K114" t="n">
         <v>-1.7</v>
       </c>
       <c r="L114" t="n">
-        <v>-1.7</v>
+        <v>1.8</v>
       </c>
       <c r="M114" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="N114" t="n">
-        <v>0.4</v>
+        <v>-16</v>
       </c>
       <c r="O114" t="n">
-        <v>-16</v>
+        <v>-23.4</v>
       </c>
       <c r="P114" t="n">
-        <v>-23.4</v>
-      </c>
-      <c r="Q114" t="n">
         <v>1.7</v>
       </c>
-      <c r="R114" t="inlineStr">
+      <c r="Q114" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
@@ -7313,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
         <v>-0.1</v>
@@ -7325,39 +6981,36 @@
         <v>-1.2</v>
       </c>
       <c r="G115" t="n">
-        <v>-3.643280100887557</v>
+        <v>-3.1</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>-5.650275646621178</v>
+        <v>-0.1</v>
       </c>
       <c r="J115" t="n">
-        <v>-0.1</v>
+        <v>-1.9</v>
       </c>
       <c r="K115" t="n">
         <v>-1.9</v>
       </c>
       <c r="L115" t="n">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
       <c r="M115" t="n">
-        <v>-2.1</v>
+        <v>1.5</v>
       </c>
       <c r="N115" t="n">
-        <v>1.5</v>
+        <v>-9.6</v>
       </c>
       <c r="O115" t="n">
-        <v>-9.6</v>
+        <v>-20</v>
       </c>
       <c r="P115" t="n">
-        <v>-20</v>
-      </c>
-      <c r="Q115" t="n">
         <v>3.5</v>
       </c>
-      <c r="R115" t="inlineStr">
+      <c r="Q115" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
@@ -7373,7 +7026,7 @@
         <v>-0.3</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="D116" t="n">
         <v>-1.2</v>
@@ -7385,39 +7038,36 @@
         <v>-0.7</v>
       </c>
       <c r="G116" t="n">
-        <v>-2.751934781558894</v>
+        <v>-0.2</v>
       </c>
       <c r="H116" t="n">
         <v>5.9</v>
       </c>
       <c r="I116" t="n">
-        <v>11.89888746730258</v>
+        <v>-1.2</v>
       </c>
       <c r="J116" t="n">
-        <v>-1.2</v>
+        <v>-1.7</v>
       </c>
       <c r="K116" t="n">
         <v>-1.7</v>
       </c>
       <c r="L116" t="n">
-        <v>-1.7</v>
+        <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>3</v>
+        <v>-0.5</v>
       </c>
       <c r="N116" t="n">
-        <v>-0.5</v>
+        <v>-13.4</v>
       </c>
       <c r="O116" t="n">
-        <v>-13.4</v>
+        <v>-19.3</v>
       </c>
       <c r="P116" t="n">
-        <v>-19.3</v>
-      </c>
-      <c r="Q116" t="n">
         <v>-0.1</v>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="Q116" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
@@ -7433,7 +7083,7 @@
         <v>-0.1</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.4</v>
+        <v>-0.8</v>
       </c>
       <c r="D117" t="n">
         <v>-0.7</v>
@@ -7445,39 +7095,36 @@
         <v>-0.3</v>
       </c>
       <c r="G117" t="n">
-        <v>-2.768983421247075</v>
+        <v>-0.3</v>
       </c>
       <c r="H117" t="n">
         <v>1.6</v>
       </c>
       <c r="I117" t="n">
-        <v>2.46645727068803</v>
+        <v>-0.7</v>
       </c>
       <c r="J117" t="n">
-        <v>-0.7</v>
+        <v>0.2</v>
       </c>
       <c r="K117" t="n">
         <v>0.2</v>
       </c>
       <c r="L117" t="n">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="M117" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="N117" t="n">
-        <v>0.5</v>
+        <v>-0.7</v>
       </c>
       <c r="O117" t="n">
-        <v>-0.7</v>
+        <v>-2.6</v>
       </c>
       <c r="P117" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="Q117" t="n">
         <v>1.6</v>
       </c>
-      <c r="R117" t="inlineStr">
+      <c r="Q117" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
@@ -7493,7 +7140,7 @@
         <v>-0.1</v>
       </c>
       <c r="C118" t="n">
-        <v>0.8</v>
+        <v>-0.4</v>
       </c>
       <c r="D118" t="n">
         <v>-0.6</v>
@@ -7505,39 +7152,36 @@
         <v>-0.4</v>
       </c>
       <c r="G118" t="n">
-        <v>-2.815634475884373</v>
+        <v>-1.5</v>
       </c>
       <c r="H118" t="n">
         <v>3.9</v>
       </c>
       <c r="I118" t="n">
-        <v>4.311061977530092</v>
+        <v>-0.6</v>
       </c>
       <c r="J118" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="K118" t="n">
         <v>-0.5</v>
       </c>
       <c r="L118" t="n">
-        <v>-0.5</v>
+        <v>3</v>
       </c>
       <c r="M118" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
-        <v>1.1</v>
+        <v>-8</v>
       </c>
       <c r="O118" t="n">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="P118" t="n">
-        <v>-12</v>
-      </c>
-      <c r="Q118" t="n">
         <v>2.7</v>
       </c>
-      <c r="R118" t="inlineStr">
+      <c r="Q118" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
@@ -7553,7 +7197,7 @@
         <v>-0</v>
       </c>
       <c r="C119" t="n">
-        <v>0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="D119" t="n">
         <v>-0.2</v>
@@ -7565,39 +7209,36 @@
         <v>-0.2</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.172792291246077</v>
+        <v>-1.3</v>
       </c>
       <c r="H119" t="n">
         <v>1.6</v>
       </c>
       <c r="I119" t="n">
-        <v>-3.025902223957079</v>
+        <v>-0.2</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.2</v>
+        <v>0.5</v>
       </c>
       <c r="K119" t="n">
         <v>0.5</v>
       </c>
       <c r="L119" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="M119" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="N119" t="n">
-        <v>0.3</v>
+        <v>-1.9</v>
       </c>
       <c r="O119" t="n">
-        <v>-1.9</v>
+        <v>-2.8</v>
       </c>
       <c r="P119" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="Q119" t="n">
         <v>2</v>
       </c>
-      <c r="R119" t="inlineStr">
+      <c r="Q119" t="inlineStr">
         <is>
           <t>ETF bonos</t>
         </is>
